--- a/files/Ex2 report/אלגוריתם 1.xlsx
+++ b/files/Ex2 report/אלגוריתם 1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mixmind\eclipse-workspace\OOP matala\files\OOP - report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mixmind\eclipse-workspace\OOP matala\files\Ex2 report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="124">
   <si>
     <t>אלגוריתם 1 :</t>
   </si>
@@ -391,6 +391,12 @@
   <si>
     <t>השוואה בין האלגוריתם 1 :</t>
   </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
 </sst>
 </file>
 
@@ -541,7 +547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,6 +733,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -888,7 +900,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -898,6 +910,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="22" fontId="17" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1255,14 +1269,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:L415"/>
+    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="10" max="10" width="10.5859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.64453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.17578125" customWidth="1"/>
+    <col min="14" max="14" width="15.29296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.5">
@@ -1343,15 +1362,15 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="3">
-        <f>ABS(C5:C415 -O5:O415)</f>
+        <f>ABS(C5:C414 -O5:O414)</f>
         <v>5.1129963978269188E-6</v>
       </c>
       <c r="K5" s="3">
-        <f>ABS(D5:D415 -P5:P415)</f>
+        <f>ABS(D5:D414 -P5:P414)</f>
         <v>8.1711559602126727E-5</v>
       </c>
       <c r="L5" s="3">
-        <f>ABS(E5:E415 -Q5:Q415)</f>
+        <f>ABS(E5:E414 -Q5:Q414)</f>
         <v>0.87451338598305028</v>
       </c>
       <c r="N5" s="7">
@@ -1397,15 +1416,15 @@
       </c>
       <c r="H6" s="1"/>
       <c r="J6" s="3">
-        <f t="shared" ref="J6:L6" si="0">ABS(C6:C416 -O6:O416)</f>
+        <f>ABS(C6:C416 -O6:O416)</f>
         <v>5.1129963978269188E-6</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS(D6:D416 -P6:P416)</f>
         <v>8.1711559602126727E-5</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS(E6:E416 -Q6:Q416)</f>
         <v>0.87451338598305028</v>
       </c>
       <c r="N6" s="7">
@@ -1451,15 +1470,15 @@
       </c>
       <c r="H7" s="1"/>
       <c r="J7" s="3">
-        <f t="shared" ref="J7:L7" si="1">ABS(C7:C417 -O7:O417)</f>
+        <f t="shared" ref="J7:L7" si="0">ABS(C7:C417 -O7:O417)</f>
         <v>5.1129963978269188E-6</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.1711559602126727E-5</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.87451338598305028</v>
       </c>
       <c r="N7" s="7">
@@ -1505,15 +1524,15 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="3">
-        <f t="shared" ref="J8:L8" si="2">ABS(C8:C418 -O8:O418)</f>
+        <f t="shared" ref="J8:L8" si="1">ABS(C8:C418 -O8:O418)</f>
         <v>2.9964013492644881E-9</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5596057778566319E-9</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4016904970048927E-8</v>
       </c>
       <c r="N8" s="7">
@@ -1559,15 +1578,15 @@
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="3">
-        <f t="shared" ref="J9:L9" si="3">ABS(C9:C419 -O9:O419)</f>
+        <f t="shared" ref="J9:L9" si="2">ABS(C9:C419 -O9:O419)</f>
         <v>2.9964013492644881E-9</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5596057778566319E-9</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4016904970048927E-8</v>
       </c>
       <c r="N9" s="7">
@@ -1613,15 +1632,15 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="3">
-        <f t="shared" ref="J10:L10" si="4">ABS(C10:C420 -O10:O420)</f>
+        <f t="shared" ref="J10:L10" si="3">ABS(C10:C420 -O10:O420)</f>
         <v>1.612996399558142E-6</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.5811559602573197E-5</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.27622938598301516</v>
       </c>
       <c r="N10" s="7">
@@ -1667,15 +1686,15 @@
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="3">
-        <f t="shared" ref="J11:L11" si="5">ABS(C11:C421 -O11:O421)</f>
+        <f t="shared" ref="J11:L11" si="4">ABS(C11:C421 -O11:O421)</f>
         <v>2.9964013492644881E-9</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5596057778566319E-9</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.4016904970048927E-8</v>
       </c>
       <c r="N11" s="7">
@@ -1720,15 +1739,15 @@
         <v>41</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" ref="J12:L12" si="6">ABS(C12:C422 -O12:O422)</f>
+        <f t="shared" ref="J12:L12" si="5">ABS(C12:C422 -O12:O422)</f>
         <v>2.3909784849962534E-4</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.2879216160021087E-4</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.5790683717469847</v>
       </c>
       <c r="N12" s="7">
@@ -1773,15 +1792,15 @@
         <v>15</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" ref="J13:L13" si="7">ABS(C13:C423 -O13:O423)</f>
+        <f t="shared" ref="J13:L13" si="6">ABS(C13:C423 -O13:O423)</f>
         <v>1.0047360099463276E-5</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3.3146089037927595E-6</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.2565876570919272</v>
       </c>
       <c r="N13" s="7">
@@ -1826,15 +1845,15 @@
         <v>32</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14:L14" si="8">ABS(C14:C424 -O14:O424)</f>
+        <f t="shared" ref="J14:L14" si="7">ABS(C14:C424 -O14:O424)</f>
         <v>1.0047360099463276E-5</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.3146089037927595E-6</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.2565876570919272</v>
       </c>
       <c r="N14" s="7">
@@ -1879,15 +1898,15 @@
         <v>34</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" ref="J15:L15" si="9">ABS(C15:C425 -O15:O425)</f>
+        <f t="shared" ref="J15:L15" si="8">ABS(C15:C425 -O15:O425)</f>
         <v>2.639900742451573E-9</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4.6088999283711019E-9</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4.2908027353405487E-8</v>
       </c>
       <c r="N15" s="7">
@@ -1932,15 +1951,15 @@
         <v>41</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16:L16" si="10">ABS(C16:C426 -O16:O426)</f>
+        <f t="shared" ref="J16:L16" si="9">ABS(C16:C426 -O16:O426)</f>
         <v>6.0533302769982811E-4</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.48845466100056E-3</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.70282462705301896</v>
       </c>
       <c r="N16" s="7">
@@ -1985,15 +2004,15 @@
         <v>9</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17:L17" si="11">ABS(C17:C427 -O17:O427)</f>
+        <f t="shared" ref="J17:L17" si="10">ABS(C17:C427 -O17:O427)</f>
         <v>2.2711621139848148E-4</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.584777779797264E-3</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.69976636995602348</v>
       </c>
       <c r="N17" s="7">
@@ -2038,15 +2057,15 @@
         <v>81</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18:L18" si="12">ABS(C18:C428 -O18:O428)</f>
+        <f t="shared" ref="J18:L18" si="11">ABS(C18:C428 -O18:O428)</f>
         <v>2.639900742451573E-9</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.6088999283711019E-9</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.2908027353405487E-8</v>
       </c>
       <c r="N18" s="7">
@@ -2091,15 +2110,15 @@
         <v>88</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" ref="J19:L19" si="13">ABS(C19:C429 -O19:O429)</f>
+        <f t="shared" ref="J19:L19" si="12">ABS(C19:C429 -O19:O429)</f>
         <v>2.639900742451573E-9</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.6088999283711019E-9</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.2908027353405487E-8</v>
       </c>
       <c r="N19" s="7">
@@ -2144,15 +2163,15 @@
         <v>103</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" ref="J20:L20" si="14">ABS(C20:C430 -O20:O430)</f>
+        <f t="shared" ref="J20:L20" si="13">ABS(C20:C430 -O20:O430)</f>
         <v>2.639900742451573E-9</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4.6088999283711019E-9</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4.2908027353405487E-8</v>
       </c>
       <c r="N20" s="7">
@@ -2197,15 +2216,15 @@
         <v>36</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" ref="J21:L21" si="15">ABS(C21:C431 -O21:O431)</f>
+        <f t="shared" ref="J21:L21" si="14">ABS(C21:C431 -O21:O431)</f>
         <v>4.4135006760370743E-9</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.669604898779653E-9</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.8504018700914457E-8</v>
       </c>
       <c r="N21" s="7">
@@ -2250,15 +2269,15 @@
         <v>41</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" ref="J22:L22" si="16">ABS(C22:C432 -O22:O432)</f>
+        <f t="shared" ref="J22:L22" si="15">ABS(C22:C432 -O22:O432)</f>
         <v>1.6281308700172303E-4</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1.5664210202004369E-3</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3.0582010420170036</v>
       </c>
       <c r="N22" s="7">
@@ -2303,15 +2322,15 @@
         <v>41</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" ref="J23:L23" si="17">ABS(C23:C433 -O23:O433)</f>
+        <f t="shared" ref="J23:L23" si="16">ABS(C23:C433 -O23:O433)</f>
         <v>3.5608386209418086E-4</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.4991767399408218E-4</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.680784205756936</v>
       </c>
       <c r="N23" s="7">
@@ -2356,15 +2375,15 @@
         <v>26</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" ref="J24:L24" si="18">ABS(C24:C434 -O24:O434)</f>
+        <f t="shared" ref="J24:L24" si="17">ABS(C24:C434 -O24:O434)</f>
         <v>5.9046831800912969E-5</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>9.240260920506671E-5</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0.68937278991006679</v>
       </c>
       <c r="N24" s="7">
@@ -2409,15 +2428,15 @@
         <v>27</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" ref="J25:L25" si="19">ABS(C25:C435 -O25:O435)</f>
+        <f t="shared" ref="J25:L25" si="18">ABS(C25:C435 -O25:O435)</f>
         <v>5.3935569042096176E-6</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.3226664960086509E-4</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.75825046566399124</v>
       </c>
       <c r="N25" s="7">
@@ -2462,15 +2481,15 @@
         <v>39</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" ref="J26:L26" si="20">ABS(C26:C436 -O26:O436)</f>
+        <f t="shared" ref="J26:L26" si="19">ABS(C26:C436 -O26:O436)</f>
         <v>1.2960355690694314E-4</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1.590766496022411E-4</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1.7796734656640183</v>
       </c>
       <c r="N26" s="7">
@@ -2515,15 +2534,15 @@
         <v>111</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" ref="J27:L27" si="21">ABS(C27:C437 -O27:O437)</f>
+        <f t="shared" ref="J27:L27" si="20">ABS(C27:C437 -O27:O437)</f>
         <v>2.9331506759433523E-4</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5.1344862790614343E-4</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5.8754540513619986</v>
       </c>
       <c r="N27" s="7">
@@ -2568,15 +2587,15 @@
         <v>66</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" ref="J28:L28" si="22">ABS(C28:C438 -O28:O438)</f>
+        <f t="shared" ref="J28:L28" si="21">ABS(C28:C438 -O28:O438)</f>
         <v>6.3192839749603991E-4</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1.3324899870070794E-4</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>2.2080521775340003</v>
       </c>
       <c r="N28" s="7">
@@ -2621,15 +2640,15 @@
         <v>38</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" ref="J29:L29" si="23">ABS(C29:C439 -O29:O439)</f>
+        <f t="shared" ref="J29:L29" si="22">ABS(C29:C439 -O29:O439)</f>
         <v>4.661236749825548E-5</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.3351238294490031E-5</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1.074415510869926</v>
       </c>
       <c r="N29" s="7">
@@ -2674,15 +2693,15 @@
         <v>12</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30:L30" si="24">ABS(C30:C440 -O30:O440)</f>
+        <f t="shared" ref="J30:L30" si="23">ABS(C30:C440 -O30:O440)</f>
         <v>1.6157954974005406E-9</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1.3739978044213785E-9</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2.9699549486394972E-9</v>
       </c>
       <c r="N30" s="7">
@@ -2727,15 +2746,15 @@
         <v>102</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" ref="J31:L31" si="25">ABS(C31:C441 -O31:O441)</f>
+        <f t="shared" ref="J31:L31" si="24">ABS(C31:C441 -O31:O441)</f>
         <v>2.2690838419947568E-4</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5.2338625998515909E-5</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.9304976029699219</v>
       </c>
       <c r="N31" s="7">
@@ -2780,15 +2799,15 @@
         <v>41</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" ref="J32:L32" si="26">ABS(C32:C442 -O32:O442)</f>
+        <f t="shared" ref="J32:L32" si="25">ABS(C32:C442 -O32:O442)</f>
         <v>3.8976052739769784E-4</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>7.6576452590160216E-4</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3.9480391380830042</v>
       </c>
       <c r="N32" s="7">
@@ -2833,15 +2852,15 @@
         <v>41</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" ref="J33:L33" si="27">ABS(C33:C443 -O33:O443)</f>
+        <f t="shared" ref="J33:L33" si="26">ABS(C33:C443 -O33:O443)</f>
         <v>8.3717251001758086E-5</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>4.4074605000332667E-5</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2.0058763739029928E-2</v>
       </c>
       <c r="N33" s="7">
@@ -2886,15 +2905,15 @@
         <v>86</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" ref="J34:L34" si="28">ABS(C34:C444 -O34:O444)</f>
+        <f t="shared" ref="J34:L34" si="27">ABS(C34:C444 -O34:O444)</f>
         <v>9.181768659516365E-5</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>9.3028601902744867E-5</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>4.0694742458030078</v>
       </c>
       <c r="N34" s="7">
@@ -2939,15 +2958,15 @@
         <v>41</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" ref="J35:L35" si="29">ABS(C35:C445 -O35:O445)</f>
+        <f t="shared" ref="J35:L35" si="28">ABS(C35:C445 -O35:O445)</f>
         <v>1.1279231340211027E-4</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6.8351398098798199E-5</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.15755205419702634</v>
       </c>
       <c r="N35" s="7">
@@ -2992,15 +3011,15 @@
         <v>9</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" ref="J36:L36" si="30">ABS(C36:C446 -O36:O446)</f>
+        <f t="shared" ref="J36:L36" si="29">ABS(C36:C446 -O36:O446)</f>
         <v>3.8037981653360475E-9</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4.1788013049881556E-9</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2.205808868893655E-8</v>
       </c>
       <c r="N36" s="7">
@@ -3045,15 +3064,15 @@
         <v>41</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" ref="J37:L37" si="31">ABS(C37:C447 -O37:O447)</f>
+        <f t="shared" ref="J37:L37" si="30">ABS(C37:C447 -O37:O447)</f>
         <v>1.6529619620087033E-4</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>5.1394417879890852E-4</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>6.8358460779419374</v>
       </c>
       <c r="N37" s="7">
@@ -3098,15 +3117,15 @@
         <v>41</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" ref="J38:L38" si="32">ABS(C38:C448 -O38:O448)</f>
+        <f t="shared" ref="J38:L38" si="31">ABS(C38:C448 -O38:O448)</f>
         <v>5.5138288999501128E-4</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1.1913490030224239E-4</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.45342436214798454</v>
       </c>
       <c r="N38" s="7">
@@ -3151,15 +3170,15 @@
         <v>41</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" ref="J39:L39" si="33">ABS(C39:C449 -O39:O449)</f>
+        <f t="shared" ref="J39:L39" si="32">ABS(C39:C449 -O39:O449)</f>
         <v>3.6131496329971924E-4</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>1.7231082689761479E-4</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>2.341529275499056</v>
       </c>
       <c r="N39" s="7">
@@ -3204,15 +3223,15 @@
         <v>41</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" ref="J40:L40" si="34">ABS(C40:C450 -O40:O450)</f>
+        <f t="shared" ref="J40:L40" si="33">ABS(C40:C450 -O40:O450)</f>
         <v>5.9070517519899113E-4</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>7.8443580299847326E-5</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.48820568369592365</v>
       </c>
       <c r="N40" s="7">
@@ -3257,15 +3276,15 @@
         <v>41</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" ref="J41:L41" si="35">ABS(C41:C451 -O41:O451)</f>
+        <f t="shared" ref="J41:L41" si="34">ABS(C41:C451 -O41:O451)</f>
         <v>5.6094050840016507E-4</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>5.7760451099397869E-5</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.4150445765810673</v>
       </c>
       <c r="N41" s="7">
@@ -3310,15 +3329,15 @@
         <v>76</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" ref="J42:L42" si="36">ABS(C42:C452 -O42:O452)</f>
+        <f t="shared" ref="J42:L42" si="35">ABS(C42:C452 -O42:O452)</f>
         <v>2.1378951942097046E-9</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.3255034281864937E-9</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>5.5740656534908339E-9</v>
       </c>
       <c r="N42" s="7">
@@ -3363,15 +3382,15 @@
         <v>41</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" ref="J43:L43" si="37">ABS(C43:C453 -O43:O453)</f>
+        <f t="shared" ref="J43:L43" si="36">ABS(C43:C453 -O43:O453)</f>
         <v>3.5647862098642236E-5</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>5.8166745020571398E-6</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>2.2842294425913678E-2</v>
       </c>
       <c r="N43" s="7">
@@ -3416,15 +3435,15 @@
         <v>9</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" ref="J44:L44" si="38">ABS(C44:C454 -O44:O454)</f>
+        <f t="shared" ref="J44:L44" si="37">ABS(C44:C454 -O44:O454)</f>
         <v>2.1378951942097046E-9</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>3.3255034281864937E-9</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>5.5740656534908339E-9</v>
       </c>
       <c r="N44" s="7">
@@ -3469,15 +3488,15 @@
         <v>41</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" ref="J45:L45" si="39">ABS(C45:C455 -O45:O455)</f>
+        <f t="shared" ref="J45:L45" si="38">ABS(C45:C455 -O45:O455)</f>
         <v>6.8815091999852029E-5</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2.0407479695450093E-5</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>4.6606669277934998E-2</v>
       </c>
       <c r="N45" s="7">
@@ -3522,15 +3541,15 @@
         <v>41</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" ref="J46:L46" si="40">ABS(C46:C456 -O46:O456)</f>
+        <f t="shared" ref="J46:L46" si="39">ABS(C46:C456 -O46:O456)</f>
         <v>3.5567044150042193E-4</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>4.1594059297267449E-5</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.26456525993796731</v>
       </c>
       <c r="N46" s="7">
@@ -3575,15 +3594,15 @@
         <v>41</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" ref="J47:L47" si="41">ABS(C47:C457 -O47:O457)</f>
+        <f t="shared" ref="J47:L47" si="40">ABS(C47:C457 -O47:O457)</f>
         <v>1.7322490800353307E-4</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>5.7725203035374761E-6</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.1386682307220326</v>
       </c>
       <c r="N47" s="7">
@@ -3628,15 +3647,15 @@
         <v>41</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" ref="J48:L48" si="42">ABS(C48:C458 -O48:O458)</f>
+        <f t="shared" ref="J48:L48" si="41">ABS(C48:C458 -O48:O458)</f>
         <v>4.908002892989316E-9</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>2.520302189168433E-9</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>3.0722048904863186E-8</v>
       </c>
       <c r="N48" s="7">
@@ -3681,15 +3700,15 @@
         <v>9</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" ref="J49:L49" si="43">ABS(C49:C459 -O49:O459)</f>
+        <f t="shared" ref="J49:L49" si="42">ABS(C49:C459 -O49:O459)</f>
         <v>4.3600490800344005E-4</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>3.7672520299736334E-5</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0.32744343072204174</v>
       </c>
       <c r="N49" s="7">
@@ -3734,15 +3753,15 @@
         <v>41</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" ref="J50:L50" si="44">ABS(C50:C460 -O50:O460)</f>
+        <f t="shared" ref="J50:L50" si="43">ABS(C50:C460 -O50:O460)</f>
         <v>3.5736862620439069E-4</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2.0372247902855634E-5</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.25998206114502409</v>
       </c>
       <c r="N50" s="7">
@@ -3787,15 +3806,15 @@
         <v>41</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" ref="J51:L51" si="45">ABS(C51:C461 -O51:O461)</f>
+        <f t="shared" ref="J51:L51" si="44">ABS(C51:C461 -O51:O461)</f>
         <v>9.7121373798358945E-5</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>1.8897752099178433E-5</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>8.1347338855039197E-2</v>
       </c>
       <c r="N51" s="7">
@@ -3840,15 +3859,15 @@
         <v>9</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" ref="J52:L52" si="46">ABS(C52:C462 -O52:O462)</f>
+        <f t="shared" ref="J52:L52" si="45">ABS(C52:C462 -O52:O462)</f>
         <v>9.7121373798358945E-5</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1.8897752099178433E-5</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>8.1347338855039197E-2</v>
       </c>
       <c r="N52" s="7">
@@ -3893,15 +3912,15 @@
         <v>41</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" ref="J53:L53" si="47">ABS(C53:C463 -O53:O463)</f>
+        <f t="shared" ref="J53:L53" si="46">ABS(C53:C463 -O53:O463)</f>
         <v>1.8030234580379556E-4</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>1.3999748496473785E-5</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0.13316784782796276</v>
       </c>
       <c r="N53" s="7">
@@ -3946,15 +3965,15 @@
         <v>9</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" ref="J54:L54" si="48">ABS(C54:C464 -O54:O464)</f>
+        <f t="shared" ref="J54:L54" si="47">ABS(C54:C464 -O54:O464)</f>
         <v>1.1304128229738808E-4</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>7.3880485018662512E-6</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>0.1079319082668917</v>
       </c>
       <c r="N54" s="7">
@@ -3999,15 +4018,15 @@
         <v>9</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" ref="J55:L55" si="49">ABS(C55:C465 -O55:O465)</f>
+        <f t="shared" ref="J55:L55" si="48">ABS(C55:C465 -O55:O465)</f>
         <v>3.3674007880080126E-4</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>3.4628352700849518E-5</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0.24333463649600162</v>
       </c>
       <c r="N55" s="7">
@@ -4052,15 +4071,15 @@
         <v>41</v>
       </c>
       <c r="J56" s="3">
-        <f t="shared" ref="J56:L56" si="50">ABS(C56:C466 -O56:O466)</f>
+        <f t="shared" ref="J56:L56" si="49">ABS(C56:C466 -O56:O466)</f>
         <v>8.5138717700772304E-5</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>3.7919514994655401E-6</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>7.2440391733039178E-2</v>
       </c>
       <c r="N56" s="7">
@@ -4105,15 +4124,15 @@
         <v>41</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" ref="J57:L57" si="51">ABS(C57:C467 -O57:O467)</f>
+        <f t="shared" ref="J57:L57" si="50">ABS(C57:C467 -O57:O467)</f>
         <v>2.3293871770135866E-4</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1.8881951497462524E-5</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>0.20183839173307661</v>
       </c>
       <c r="N57" s="7">
@@ -4158,15 +4177,15 @@
         <v>41</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" ref="J58:L58" si="52">ABS(C58:C468 -O58:O468)</f>
+        <f t="shared" ref="J58:L58" si="51">ABS(C58:C468 -O58:O468)</f>
         <v>4.3123441280101815E-4</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1.1488253150560013E-4</v>
       </c>
       <c r="L58" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>1.3269340832449643</v>
       </c>
       <c r="N58" s="7">
@@ -4211,15 +4230,15 @@
         <v>41</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" ref="J59:L59" si="53">ABS(C59:C469 -O59:O469)</f>
+        <f t="shared" ref="J59:L59" si="52">ABS(C59:C469 -O59:O469)</f>
         <v>1.8085835979775311E-4</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>1.3439593800512739E-5</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>0.10363240252399919</v>
       </c>
       <c r="N59" s="7">
@@ -4264,15 +4283,15 @@
         <v>9</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" ref="J60:L60" si="54">ABS(C60:C470 -O60:O470)</f>
+        <f t="shared" ref="J60:L60" si="53">ABS(C60:C470 -O60:O470)</f>
         <v>4.3784239699817817E-4</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.1626786159979474E-4</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.3423780832039256</v>
       </c>
       <c r="N60" s="7">
@@ -4317,15 +4336,15 @@
         <v>9</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" ref="J61:L61" si="55">ABS(C61:C471 -O61:O471)</f>
+        <f t="shared" ref="J61:L61" si="54">ABS(C61:C471 -O61:O471)</f>
         <v>2.0737164020090404E-4</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>6.9010406200220586E-5</v>
       </c>
       <c r="L61" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>0.18212869747605964</v>
       </c>
       <c r="N61" s="7">
@@ -4370,15 +4389,15 @@
         <v>41</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" ref="J62:L62" si="56">ABS(C62:C472 -O62:O472)</f>
+        <f t="shared" ref="J62:L62" si="55">ABS(C62:C472 -O62:O472)</f>
         <v>2.3674783469829208E-4</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>3.7410935100012921E-5</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>0.14914083456903882</v>
       </c>
       <c r="N62" s="7">
@@ -4423,15 +4442,15 @@
         <v>41</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" ref="J63:L63" si="57">ABS(C63:C473 -O63:O473)</f>
+        <f t="shared" ref="J63:L63" si="56">ABS(C63:C473 -O63:O473)</f>
         <v>8.1323617969530915E-4</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>6.1344934294993436E-5</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>0.60458063615601532</v>
       </c>
       <c r="N63" s="7">
@@ -4476,15 +4495,15 @@
         <v>67</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" ref="J64:L64" si="58">ABS(C64:C474 -O64:O474)</f>
+        <f t="shared" ref="J64:L64" si="57">ABS(C64:C474 -O64:O474)</f>
         <v>6.996361796964834E-4</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>5.4514934298310891E-5</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>0.52618413615596182</v>
       </c>
       <c r="N64" s="7">
@@ -4529,15 +4548,15 @@
         <v>41</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" ref="J65:L65" si="59">ABS(C65:C475 -O65:O475)</f>
+        <f t="shared" ref="J65:L65" si="58">ABS(C65:C475 -O65:O475)</f>
         <v>1.7328019499984748E-4</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>3.7868202802826545E-5</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0.10072302997491533</v>
       </c>
       <c r="N65" s="7">
@@ -4582,15 +4601,15 @@
         <v>9</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" ref="J66:L66" si="60">ABS(C66:C476 -O66:O476)</f>
+        <f t="shared" ref="J66:L66" si="59">ABS(C66:C476 -O66:O476)</f>
         <v>2.1400517979941469E-6</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>1.5855960604937991E-5</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>2.7615078849976271E-3</v>
       </c>
       <c r="N66" s="7">
@@ -4635,15 +4654,15 @@
         <v>9</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" ref="J67:L67" si="61">ABS(C67:C477 -O67:O477)</f>
+        <f t="shared" ref="J67:L67" si="60">ABS(C67:C477 -O67:O477)</f>
         <v>1.0080390140387863E-4</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>1.0057955904585469E-5</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>8.1030295227037641E-2</v>
       </c>
       <c r="N67" s="7">
@@ -4688,15 +4707,15 @@
         <v>41</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" ref="J68:L68" si="62">ABS(C68:C478 -O68:O478)</f>
+        <f t="shared" ref="J68:L68" si="61">ABS(C68:C478 -O68:O478)</f>
         <v>9.6159357619995944E-4</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>2.5681358059870263E-4</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="61"/>
         <v>3.8614609589170641</v>
       </c>
       <c r="N68" s="7">
@@ -4741,15 +4760,15 @@
         <v>41</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" ref="J69:L69" si="63">ABS(C69:C479 -O69:O479)</f>
+        <f t="shared" ref="J69:L69" si="62">ABS(C69:C479 -O69:O479)</f>
         <v>5.1256357620133031E-4</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>4.9828358059755828E-4</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>13.606252258917038</v>
       </c>
       <c r="N69" s="7">
@@ -4794,15 +4813,15 @@
         <v>41</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" ref="J70:L70" si="64">ABS(C70:C480 -O70:O480)</f>
+        <f t="shared" ref="J70:L70" si="63">ABS(C70:C480 -O70:O480)</f>
         <v>7.9536266949986612E-4</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>6.4160634295262753E-5</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>0.55737610212304389</v>
       </c>
       <c r="N70" s="7">
@@ -4847,15 +4866,15 @@
         <v>9</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" ref="J71:L71" si="65">ABS(C71:C481 -O71:O481)</f>
+        <f t="shared" ref="J71:L71" si="64">ABS(C71:C481 -O71:O481)</f>
         <v>3.1669431379555135E-4</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>2.0314590760506235E-4</v>
       </c>
       <c r="L71" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0.3177111524199745</v>
       </c>
       <c r="N71" s="7">
@@ -4900,15 +4919,15 @@
         <v>109</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" ref="J72:L72" si="66">ABS(C72:C482 -O72:O482)</f>
+        <f t="shared" ref="J72:L72" si="65">ABS(C72:C482 -O72:O482)</f>
         <v>1.1802431379948075E-4</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1.5437590759859177E-4</v>
       </c>
       <c r="L72" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>3.5030752419970668E-2</v>
       </c>
       <c r="N72" s="7">
@@ -4953,15 +4972,15 @@
         <v>41</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" ref="J73:L73" si="67">ABS(C73:C483 -O73:O483)</f>
+        <f t="shared" ref="J73:L73" si="66">ABS(C73:C483 -O73:O483)</f>
         <v>1.8656299403119192E-5</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>9.5766350129622424E-4</v>
       </c>
       <c r="L73" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.90449976238107865</v>
       </c>
       <c r="N73" s="7">
@@ -5006,15 +5025,15 @@
         <v>9</v>
       </c>
       <c r="J74" s="3">
-        <f t="shared" ref="J74:L74" si="68">ABS(C74:C484 -O74:O484)</f>
+        <f t="shared" ref="J74:L74" si="67">ABS(C74:C484 -O74:O484)</f>
         <v>1.2177694467965239E-3</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>1.1757537749943481E-3</v>
       </c>
       <c r="L74" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>1.0496697226780043</v>
       </c>
       <c r="N74" s="7">
@@ -5059,15 +5078,15 @@
         <v>41</v>
       </c>
       <c r="J75" s="3">
-        <f t="shared" ref="J75:L75" si="69">ABS(C75:C485 -O75:O485)</f>
+        <f t="shared" ref="J75:L75" si="68">ABS(C75:C485 -O75:O485)</f>
         <v>4.313797319355217E-9</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>4.0923993083197274E-9</v>
       </c>
       <c r="L75" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>4.7579987949575298E-8</v>
       </c>
       <c r="N75" s="7">
@@ -5112,15 +5131,15 @@
         <v>41</v>
       </c>
       <c r="J76" s="3">
-        <f t="shared" ref="J76:L76" si="70">ABS(C76:C486 -O76:O486)</f>
+        <f t="shared" ref="J76:L76" si="69">ABS(C76:C486 -O76:O486)</f>
         <v>2.8755557929827091E-4</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>1.6955655537955749E-3</v>
       </c>
       <c r="L76" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>6.1940336009860175</v>
       </c>
       <c r="N76" s="7">
@@ -5165,15 +5184,15 @@
         <v>9</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" ref="J77:L77" si="71">ABS(C77:C487 -O77:O487)</f>
+        <f t="shared" ref="J77:L77" si="70">ABS(C77:C487 -O77:O487)</f>
         <v>7.494101147997867E-4</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>1.8750803996994136E-3</v>
       </c>
       <c r="L77" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.34412035514299077</v>
       </c>
       <c r="N77" s="7">
@@ -5218,15 +5237,15 @@
         <v>70</v>
       </c>
       <c r="J78" s="3">
-        <f t="shared" ref="J78:L78" si="72">ABS(C78:C488 -O78:O488)</f>
+        <f t="shared" ref="J78:L78" si="71">ABS(C78:C488 -O78:O488)</f>
         <v>9.0884393610224379E-4</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>8.2255160330646504E-4</v>
       </c>
       <c r="L78" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>2.193870403694973</v>
       </c>
       <c r="N78" s="7">
@@ -5271,15 +5290,15 @@
         <v>82</v>
       </c>
       <c r="J79" s="3">
-        <f t="shared" ref="J79:L79" si="73">ABS(C79:C489 -O79:O489)</f>
+        <f t="shared" ref="J79:L79" si="72">ABS(C79:C489 -O79:O489)</f>
         <v>8.277069235944623E-4</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>4.7772343310015231E-4</v>
       </c>
       <c r="L79" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>2.1894049267790479</v>
       </c>
       <c r="N79" s="7">
@@ -5324,15 +5343,15 @@
         <v>90</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" ref="J80:L80" si="74">ABS(C80:C490 -O80:O490)</f>
+        <f t="shared" ref="J80:L80" si="73">ABS(C80:C490 -O80:O490)</f>
         <v>5.8714393610159732E-4</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>6.7685160330199778E-4</v>
       </c>
       <c r="L80" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>1.4557082036949396</v>
       </c>
       <c r="N80" s="7">
@@ -5377,15 +5396,15 @@
         <v>96</v>
       </c>
       <c r="J81" s="3">
-        <f t="shared" ref="J81:L81" si="75">ABS(C81:C491 -O81:O491)</f>
+        <f t="shared" ref="J81:L81" si="74">ABS(C81:C491 -O81:O491)</f>
         <v>5.0052393610400259E-4</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>1.0771316033029166E-3</v>
       </c>
       <c r="L81" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>0.21583410369498779</v>
       </c>
       <c r="N81" s="7">
@@ -5430,15 +5449,15 @@
         <v>114</v>
       </c>
       <c r="J82" s="3">
-        <f t="shared" ref="J82:L82" si="76">ABS(C82:C492 -O82:O492)</f>
+        <f t="shared" ref="J82:L82" si="75">ABS(C82:C492 -O82:O492)</f>
         <v>9.4841151139490876E-4</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>1.6798801569706256E-4</v>
       </c>
       <c r="L82" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>0.85934059470309876</v>
       </c>
       <c r="N82" s="7">
@@ -5483,15 +5502,15 @@
         <v>41</v>
       </c>
       <c r="J83" s="3">
-        <f t="shared" ref="J83:L83" si="77">ABS(C83:C493 -O83:O493)</f>
+        <f t="shared" ref="J83:L83" si="76">ABS(C83:C493 -O83:O493)</f>
         <v>3.7677025943594344E-9</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1.8634054299582203E-9</v>
       </c>
       <c r="L83" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>4.0558006730861962E-8</v>
       </c>
       <c r="N83" s="7">
@@ -5536,15 +5555,15 @@
         <v>57</v>
       </c>
       <c r="J84" s="3">
-        <f t="shared" ref="J84:L84" si="78">ABS(C84:C494 -O84:O494)</f>
+        <f t="shared" ref="J84:L84" si="77">ABS(C84:C494 -O84:O494)</f>
         <v>1.867439910014923E-4</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>5.806441006939167E-4</v>
       </c>
       <c r="L84" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>0.16076635498700398</v>
       </c>
       <c r="N84" s="7">
@@ -5589,15 +5608,15 @@
         <v>28</v>
       </c>
       <c r="J85" s="3">
-        <f t="shared" ref="J85:L85" si="79">ABS(C85:C495 -O85:O495)</f>
+        <f t="shared" ref="J85:L85" si="78">ABS(C85:C495 -O85:O495)</f>
         <v>2.1481157420311092E-4</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>6.2080353379911912E-4</v>
       </c>
       <c r="L85" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>4.9555436204968828E-2</v>
       </c>
       <c r="N85" s="7">
@@ -5642,15 +5661,15 @@
         <v>41</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" ref="J86:L86" si="80">ABS(C86:C496 -O86:O496)</f>
+        <f t="shared" ref="J86:L86" si="79">ABS(C86:C496 -O86:O496)</f>
         <v>2.4178992397594357E-5</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>5.6246319701358516E-5</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>5.7662823116970685E-2</v>
       </c>
       <c r="N86" s="7">
@@ -5695,15 +5714,15 @@
         <v>41</v>
       </c>
       <c r="J87" s="3">
-        <f t="shared" ref="J87:L87" si="81">ABS(C87:C497 -O87:O497)</f>
+        <f t="shared" ref="J87:L87" si="80">ABS(C87:C497 -O87:O497)</f>
         <v>3.9350354519740449E-4</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>4.0902222239935782E-4</v>
       </c>
       <c r="L87" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>2.073619522250965</v>
       </c>
       <c r="N87" s="7">
@@ -5748,15 +5767,15 @@
         <v>112</v>
       </c>
       <c r="J88" s="3">
-        <f t="shared" ref="J88:L88" si="82">ABS(C88:C498 -O88:O498)</f>
+        <f t="shared" ref="J88:L88" si="81">ABS(C88:C498 -O88:O498)</f>
         <v>3.6877157420178719E-4</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1.3097135338000498E-3</v>
       </c>
       <c r="L88" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>0.2074077362050275</v>
       </c>
       <c r="N88" s="7">
@@ -5801,15 +5820,15 @@
         <v>9</v>
       </c>
       <c r="J89" s="3">
-        <f t="shared" ref="J89:L89" si="83">ABS(C89:C499 -O89:O499)</f>
+        <f t="shared" ref="J89:L89" si="82">ABS(C89:C499 -O89:O499)</f>
         <v>3.0961045870014914E-4</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>7.4497777106330432E-5</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0.571780774433023</v>
       </c>
       <c r="N89" s="7">
@@ -5854,15 +5873,15 @@
         <v>18</v>
       </c>
       <c r="J90" s="3">
-        <f t="shared" ref="J90:L90" si="84">ABS(C90:C500 -O90:O500)</f>
+        <f t="shared" ref="J90:L90" si="83">ABS(C90:C500 -O90:O500)</f>
         <v>4.7485045870132581E-4</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>1.2331777710272718E-4</v>
       </c>
       <c r="L90" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>0.88391357443299512</v>
       </c>
       <c r="N90" s="7">
@@ -5907,15 +5926,15 @@
         <v>41</v>
       </c>
       <c r="J91" s="3">
-        <f t="shared" ref="J91:L91" si="85">ABS(C91:C501 -O91:O501)</f>
+        <f t="shared" ref="J91:L91" si="84">ABS(C91:C501 -O91:O501)</f>
         <v>8.0166215397525775E-5</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>6.8064533370204572E-4</v>
       </c>
       <c r="L91" s="3">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0.2813876733549705</v>
       </c>
       <c r="N91" s="7">
@@ -5960,15 +5979,15 @@
         <v>9</v>
       </c>
       <c r="J92" s="3">
-        <f t="shared" ref="J92:L92" si="86">ABS(C92:C502 -O92:O502)</f>
+        <f t="shared" ref="J92:L92" si="85">ABS(C92:C502 -O92:O502)</f>
         <v>2.874330207021103E-4</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>9.6488234959934971E-4</v>
       </c>
       <c r="L92" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>0.2127351060090632</v>
       </c>
       <c r="N92" s="7">
@@ -6013,15 +6032,15 @@
         <v>9</v>
       </c>
       <c r="J93" s="3">
-        <f t="shared" ref="J93:L93" si="87">ABS(C93:C503 -O93:O503)</f>
+        <f t="shared" ref="J93:L93" si="86">ABS(C93:C503 -O93:O503)</f>
         <v>1.338240589632278E-5</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1.2172734599857904E-4</v>
       </c>
       <c r="L93" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1.1542129264967116E-2</v>
       </c>
       <c r="N93" s="7">
@@ -6066,15 +6085,15 @@
         <v>11</v>
       </c>
       <c r="J94" s="3">
-        <f t="shared" ref="J94:L94" si="88">ABS(C94:C504 -O94:O504)</f>
+        <f t="shared" ref="J94:L94" si="87">ABS(C94:C504 -O94:O504)</f>
         <v>6.011343550227366E-5</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>3.1758820600202853E-4</v>
       </c>
       <c r="L94" s="3">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0.13692877011601468</v>
       </c>
       <c r="N94" s="7">
@@ -6119,15 +6138,15 @@
         <v>18</v>
       </c>
       <c r="J95" s="3">
-        <f t="shared" ref="J95:L95" si="89">ABS(C95:C505 -O95:O505)</f>
+        <f t="shared" ref="J95:L95" si="88">ABS(C95:C505 -O95:O505)</f>
         <v>1.6475656449443932E-4</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>5.1093179400396593E-4</v>
       </c>
       <c r="L95" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.8647429883963014E-2</v>
       </c>
       <c r="N95" s="7">
@@ -6172,15 +6191,15 @@
         <v>93</v>
       </c>
       <c r="J96" s="3">
-        <f t="shared" ref="J96:L96" si="90">ABS(C96:C506 -O96:O506)</f>
+        <f t="shared" ref="J96:L96" si="89">ABS(C96:C506 -O96:O506)</f>
         <v>1.5359339314002796E-3</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>1.5632279015065365E-3</v>
       </c>
       <c r="L96" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>3.6427352773149551</v>
       </c>
       <c r="N96" s="7">
@@ -6225,15 +6244,15 @@
         <v>17</v>
       </c>
       <c r="J97" s="3">
-        <f t="shared" ref="J97:L97" si="91">ABS(C97:C507 -O97:O507)</f>
+        <f t="shared" ref="J97:L97" si="90">ABS(C97:C507 -O97:O507)</f>
         <v>8.7237661205108452E-5</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>3.6754447109643706E-4</v>
       </c>
       <c r="L97" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>7.9744888985032958E-2</v>
       </c>
       <c r="N97" s="7">
@@ -6278,15 +6297,15 @@
         <v>9</v>
       </c>
       <c r="J98" s="3">
-        <f t="shared" ref="J98:L98" si="92">ABS(C98:C508 -O98:O508)</f>
+        <f t="shared" ref="J98:L98" si="91">ABS(C98:C508 -O98:O508)</f>
         <v>5.4942016669912164E-4</v>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>1.3033160890003614E-3</v>
       </c>
       <c r="L98" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>0.1237658979320031</v>
       </c>
       <c r="N98" s="7">
@@ -6331,15 +6350,15 @@
         <v>9</v>
       </c>
       <c r="J99" s="3">
-        <f t="shared" ref="J99:L99" si="93">ABS(C99:C509 -O99:O509)</f>
+        <f t="shared" ref="J99:L99" si="92">ABS(C99:C509 -O99:O509)</f>
         <v>5.8198202089698725E-4</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>1.60369398020066E-3</v>
       </c>
       <c r="L99" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>0.1749927749580138</v>
       </c>
       <c r="N99" s="7">
@@ -6384,15 +6403,15 @@
         <v>18</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" ref="J100:L100" si="94">ABS(C100:C510 -O100:O510)</f>
+        <f t="shared" ref="J100:L100" si="93">ABS(C100:C510 -O100:O510)</f>
         <v>1.0719417795996833E-3</v>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>2.8772709500017868E-3</v>
       </c>
       <c r="L100" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>3.2243090757106074E-2</v>
       </c>
       <c r="N100" s="7">
@@ -6437,15 +6456,15 @@
         <v>31</v>
       </c>
       <c r="J101" s="3">
-        <f t="shared" ref="J101:L101" si="95">ABS(C101:C511 -O101:O511)</f>
+        <f t="shared" ref="J101:L101" si="94">ABS(C101:C511 -O101:O511)</f>
         <v>6.2099833300521823E-5</v>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>5.6112391100526793E-4</v>
       </c>
       <c r="L101" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>0.37695869793208203</v>
       </c>
       <c r="N101" s="7">
@@ -6490,15 +6509,15 @@
         <v>101</v>
       </c>
       <c r="J102" s="3">
-        <f t="shared" ref="J102:L102" si="96">ABS(C102:C512 -O102:O512)</f>
+        <f t="shared" ref="J102:L102" si="95">ABS(C102:C512 -O102:O512)</f>
         <v>2.9535877800412891E-5</v>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>2.6075105970591039E-4</v>
       </c>
       <c r="L102" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>7.8199953793046006E-2</v>
       </c>
       <c r="N102" s="7">
@@ -6543,15 +6562,15 @@
         <v>9</v>
       </c>
       <c r="J103" s="3">
-        <f t="shared" ref="J103:L103" si="97">ABS(C103:C513 -O103:O513)</f>
+        <f t="shared" ref="J103:L103" si="96">ABS(C103:C513 -O103:O513)</f>
         <v>3.6301628369983518E-11</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>2.6475035497242061E-9</v>
       </c>
       <c r="L103" s="3">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>1.2837062968173996E-8</v>
       </c>
       <c r="N103" s="7">
@@ -6596,15 +6615,15 @@
         <v>18</v>
       </c>
       <c r="J104" s="3">
-        <f t="shared" ref="J104:L104" si="98">ABS(C104:C514 -O104:O514)</f>
+        <f t="shared" ref="J104:L104" si="97">ABS(C104:C514 -O104:O514)</f>
         <v>3.6301628369983518E-11</v>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>2.6475035497242061E-9</v>
       </c>
       <c r="L104" s="3">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>1.2837062968173996E-8</v>
       </c>
       <c r="N104" s="7">
@@ -6649,15 +6668,15 @@
         <v>9</v>
       </c>
       <c r="J105" s="3">
-        <f t="shared" ref="J105:L105" si="99">ABS(C105:C515 -O105:O515)</f>
+        <f t="shared" ref="J105:L105" si="98">ABS(C105:C515 -O105:O515)</f>
         <v>4.2967996369469574E-4</v>
       </c>
       <c r="K105" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>1.234926475035536E-4</v>
       </c>
       <c r="L105" s="3">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>1.2560218128370479</v>
       </c>
       <c r="N105" s="7">
@@ -6702,15 +6721,15 @@
         <v>18</v>
       </c>
       <c r="J106" s="3">
-        <f t="shared" ref="J106:L106" si="100">ABS(C106:C516 -O106:O516)</f>
+        <f t="shared" ref="J106:L106" si="99">ABS(C106:C516 -O106:O516)</f>
         <v>4.2967996369469574E-4</v>
       </c>
       <c r="K106" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>1.234926475035536E-4</v>
       </c>
       <c r="L106" s="3">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>1.2560218128370479</v>
       </c>
       <c r="N106" s="7">
@@ -6755,15 +6774,15 @@
         <v>113</v>
       </c>
       <c r="J107" s="3">
-        <f t="shared" ref="J107:L107" si="101">ABS(C107:C517 -O107:O517)</f>
+        <f t="shared" ref="J107:L107" si="100">ABS(C107:C517 -O107:O517)</f>
         <v>1.0105399637012624E-3</v>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>1.3493735249880956E-4</v>
       </c>
       <c r="L107" s="3">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>5.2424364128370371</v>
       </c>
       <c r="N107" s="7">
@@ -6808,15 +6827,15 @@
         <v>9</v>
       </c>
       <c r="J108" s="3">
-        <f t="shared" ref="J108:L108" si="102">ABS(C108:C518 -O108:O518)</f>
+        <f t="shared" ref="J108:L108" si="101">ABS(C108:C518 -O108:O518)</f>
         <v>3.6982664040152713E-4</v>
       </c>
       <c r="K108" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>4.6425989749820928E-4</v>
       </c>
       <c r="L108" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>1.4172350188330256</v>
       </c>
       <c r="N108" s="7">
@@ -6861,15 +6880,15 @@
         <v>42</v>
       </c>
       <c r="J109" s="3">
-        <f t="shared" ref="J109:L109" si="103">ABS(C109:C519 -O109:O519)</f>
+        <f t="shared" ref="J109:L109" si="102">ABS(C109:C519 -O109:O519)</f>
         <v>4.4288754992294344E-6</v>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>1.9028951996347132E-6</v>
       </c>
       <c r="L109" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>1.6313285345972872E-2</v>
       </c>
       <c r="N109" s="7">
@@ -6914,15 +6933,15 @@
         <v>41</v>
       </c>
       <c r="J110" s="3">
-        <f t="shared" ref="J110:L110" si="104">ABS(C110:C520 -O110:O520)</f>
+        <f t="shared" ref="J110:L110" si="103">ABS(C110:C520 -O110:O520)</f>
         <v>3.0707720819833639E-4</v>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>1.3225631169433427E-4</v>
       </c>
       <c r="L110" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>1.1113644605150057</v>
       </c>
       <c r="N110" s="7">
@@ -6967,15 +6986,15 @@
         <v>41</v>
       </c>
       <c r="J111" s="3">
-        <f t="shared" ref="J111:L111" si="105">ABS(C111:C521 -O111:O521)</f>
+        <f t="shared" ref="J111:L111" si="104">ABS(C111:C521 -O111:O521)</f>
         <v>3.3317130050392052E-4</v>
       </c>
       <c r="K111" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>1.4204967579445338E-4</v>
       </c>
       <c r="L111" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>1.0561999571630167</v>
       </c>
       <c r="N111" s="7">
@@ -7020,15 +7039,15 @@
         <v>113</v>
       </c>
       <c r="J112" s="3">
-        <f t="shared" ref="J112:L112" si="106">ABS(C112:C522 -O112:O522)</f>
+        <f t="shared" ref="J112:L112" si="105">ABS(C112:C522 -O112:O522)</f>
         <v>4.436613005012191E-4</v>
       </c>
       <c r="K112" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>1.9699967579356326E-4</v>
       </c>
       <c r="L112" s="3">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>1.5230600571629793</v>
       </c>
       <c r="N112" s="7">
@@ -7073,15 +7092,15 @@
         <v>41</v>
       </c>
       <c r="J113" s="3">
-        <f t="shared" ref="J113:L113" si="107">ABS(C113:C523 -O113:O523)</f>
+        <f t="shared" ref="J113:L113" si="106">ABS(C113:C523 -O113:O523)</f>
         <v>1.4639274260019874E-4</v>
       </c>
       <c r="K113" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>6.5490766760234465E-4</v>
       </c>
       <c r="L113" s="3">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>11.564627731340011</v>
       </c>
       <c r="N113" s="7">
@@ -7126,15 +7145,15 @@
         <v>41</v>
       </c>
       <c r="J114" s="3">
-        <f t="shared" ref="J114:L114" si="108">ABS(C114:C524 -O114:O524)</f>
+        <f t="shared" ref="J114:L114" si="107">ABS(C114:C524 -O114:O524)</f>
         <v>1.028740699027253E-4</v>
       </c>
       <c r="K114" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>2.3673211310182296E-4</v>
       </c>
       <c r="L114" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>0.24540816804596943</v>
       </c>
       <c r="N114" s="7">
@@ -7179,15 +7198,15 @@
         <v>41</v>
       </c>
       <c r="J115" s="3">
-        <f t="shared" ref="J115:L115" si="109">ABS(C115:C525 -O115:O525)</f>
+        <f t="shared" ref="J115:L115" si="108">ABS(C115:C525 -O115:O525)</f>
         <v>7.4030026553373318E-10</v>
       </c>
       <c r="K115" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>4.4163002144159691E-9</v>
       </c>
       <c r="L115" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>1.6350441001122817E-9</v>
       </c>
       <c r="N115" s="7">
@@ -7232,15 +7251,15 @@
         <v>9</v>
       </c>
       <c r="J116" s="3">
-        <f t="shared" ref="J116:L116" si="110">ABS(C116:C526 -O116:O526)</f>
+        <f t="shared" ref="J116:L116" si="109">ABS(C116:C526 -O116:O526)</f>
         <v>3.1021406990561218E-4</v>
       </c>
       <c r="K116" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>5.1027211309673248E-4</v>
       </c>
       <c r="L116" s="3">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>6.9862418319540893</v>
       </c>
       <c r="N116" s="7">
@@ -7285,15 +7304,15 @@
         <v>41</v>
       </c>
       <c r="J117" s="3">
-        <f t="shared" ref="J117:L117" si="111">ABS(C117:C527 -O117:O527)</f>
+        <f t="shared" ref="J117:L117" si="110">ABS(C117:C527 -O117:O527)</f>
         <v>1.2803076559464444E-4</v>
       </c>
       <c r="K117" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>9.0066977001868054E-5</v>
       </c>
       <c r="L117" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>0.28230436674903103</v>
       </c>
       <c r="N117" s="7">
@@ -7338,15 +7357,15 @@
         <v>41</v>
       </c>
       <c r="J118" s="3">
-        <f t="shared" ref="J118:L118" si="112">ABS(C118:C528 -O118:O528)</f>
+        <f t="shared" ref="J118:L118" si="111">ABS(C118:C528 -O118:O528)</f>
         <v>4.0360076559409208E-4</v>
       </c>
       <c r="K118" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>8.8118697699712811E-4</v>
       </c>
       <c r="L118" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>3.0649109332509852</v>
       </c>
       <c r="N118" s="7">
@@ -7391,15 +7410,15 @@
         <v>41</v>
       </c>
       <c r="J119" s="3">
-        <f t="shared" ref="J119:L119" si="113">ABS(C119:C529 -O119:O529)</f>
+        <f t="shared" ref="J119:L119" si="112">ABS(C119:C529 -O119:O529)</f>
         <v>1.5728016540350609E-4</v>
       </c>
       <c r="K119" s="3">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>6.5898510970185953E-4</v>
       </c>
       <c r="L119" s="3">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>10.245740596939982</v>
       </c>
       <c r="N119" s="7">
@@ -7444,15 +7463,15 @@
         <v>41</v>
       </c>
       <c r="J120" s="3">
-        <f t="shared" ref="J120:L120" si="114">ABS(C120:C530 -O120:O530)</f>
+        <f t="shared" ref="J120:L120" si="113">ABS(C120:C530 -O120:O530)</f>
         <v>4.5903173194972169E-5</v>
       </c>
       <c r="K120" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>5.6029306499993936E-4</v>
       </c>
       <c r="L120" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>0.34606780350202371</v>
       </c>
       <c r="N120" s="7">
@@ -7497,15 +7516,15 @@
         <v>9</v>
       </c>
       <c r="J121" s="3">
-        <f t="shared" ref="J121:L121" si="115">ABS(C121:C531 -O121:O531)</f>
+        <f t="shared" ref="J121:L121" si="114">ABS(C121:C531 -O121:O531)</f>
         <v>5.8003079029589344E-4</v>
       </c>
       <c r="K121" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>7.5061914360219362E-4</v>
       </c>
       <c r="L121" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>1.6839415782239939</v>
       </c>
       <c r="N121" s="7">
@@ -7550,15 +7569,15 @@
         <v>41</v>
       </c>
       <c r="J122" s="3">
-        <f t="shared" ref="J122:L122" si="116">ABS(C122:C532 -O122:O532)</f>
+        <f t="shared" ref="J122:L122" si="115">ABS(C122:C532 -O122:O532)</f>
         <v>4.3003275600028701E-5</v>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>7.8540461360177005E-4</v>
       </c>
       <c r="L122" s="3">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>1.5023738801720583</v>
       </c>
       <c r="N122" s="7">
@@ -7603,15 +7622,15 @@
         <v>41</v>
       </c>
       <c r="J123" s="3">
-        <f t="shared" ref="J123:L123" si="117">ABS(C123:C533 -O123:O533)</f>
+        <f t="shared" ref="J123:L123" si="116">ABS(C123:C533 -O123:O533)</f>
         <v>7.7012573660084627E-4</v>
       </c>
       <c r="K123" s="3">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>5.4266238049649473E-4</v>
       </c>
       <c r="L123" s="3">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>4.8089283284119801</v>
       </c>
       <c r="N123" s="7">
@@ -7656,15 +7675,15 @@
         <v>41</v>
       </c>
       <c r="J124" s="3">
-        <f t="shared" ref="J124:L124" si="118">ABS(C124:C534 -O124:O534)</f>
+        <f t="shared" ref="J124:L124" si="117">ABS(C124:C534 -O124:O534)</f>
         <v>5.4226690109970832E-4</v>
       </c>
       <c r="K124" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>5.6408088610027107E-4</v>
       </c>
       <c r="L124" s="3">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>1.9614202964769447</v>
       </c>
       <c r="N124" s="7">
@@ -7709,15 +7728,15 @@
         <v>9</v>
       </c>
       <c r="J125" s="3">
-        <f t="shared" ref="J125:L125" si="119">ABS(C125:C535 -O125:O535)</f>
+        <f t="shared" ref="J125:L125" si="118">ABS(C125:C535 -O125:O535)</f>
         <v>1.5602809089898528E-4</v>
       </c>
       <c r="K125" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>6.3692304570395208E-4</v>
       </c>
       <c r="L125" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>0.96025806994396135</v>
       </c>
       <c r="N125" s="7">
@@ -7762,15 +7781,15 @@
         <v>41</v>
       </c>
       <c r="J126" s="3">
-        <f t="shared" ref="J126:L126" si="120">ABS(C126:C536 -O126:O536)</f>
+        <f t="shared" ref="J126:L126" si="119">ABS(C126:C536 -O126:O536)</f>
         <v>3.0497128120288153E-4</v>
       </c>
       <c r="K126" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>2.858384031938499E-4</v>
       </c>
       <c r="L126" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>0.7966996311810135</v>
       </c>
       <c r="N126" s="7">
@@ -7815,15 +7834,15 @@
         <v>41</v>
       </c>
       <c r="J127" s="3">
-        <f t="shared" ref="J127:L127" si="121">ABS(C127:C537 -O127:O537)</f>
+        <f t="shared" ref="J127:L127" si="120">ABS(C127:C537 -O127:O537)</f>
         <v>8.3380998304960485E-5</v>
       </c>
       <c r="K127" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>8.2928968849671492E-4</v>
       </c>
       <c r="L127" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>1.1493653313010554</v>
       </c>
       <c r="N127" s="7">
@@ -7868,15 +7887,15 @@
         <v>41</v>
       </c>
       <c r="J128" s="3">
-        <f t="shared" ref="J128:L128" si="122">ABS(C128:C538 -O128:O538)</f>
+        <f t="shared" ref="J128:L128" si="121">ABS(C128:C538 -O128:O538)</f>
         <v>1.1200751340112447E-4</v>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>8.1293662540105061E-4</v>
       </c>
       <c r="L128" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>9.3426035786930015</v>
       </c>
       <c r="N128" s="7">
@@ -7921,15 +7940,15 @@
         <v>9</v>
       </c>
       <c r="J129" s="3">
-        <f t="shared" ref="J129:L129" si="123">ABS(C129:C539 -O129:O539)</f>
+        <f t="shared" ref="J129:L129" si="122">ABS(C129:C539 -O129:O539)</f>
         <v>9.521141450363757E-5</v>
       </c>
       <c r="K129" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>7.7578039240222552E-4</v>
       </c>
       <c r="L129" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>8.079132545316952</v>
       </c>
       <c r="N129" s="7">
@@ -7974,15 +7993,15 @@
         <v>41</v>
       </c>
       <c r="J130" s="3">
-        <f t="shared" ref="J130:L130" si="124">ABS(C130:C540 -O130:O540)</f>
+        <f t="shared" ref="J130:L130" si="123">ABS(C130:C540 -O130:O540)</f>
         <v>1.0233281729910004E-4</v>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>1.1444375220008851E-3</v>
       </c>
       <c r="L130" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>2.8095453270830149</v>
       </c>
       <c r="N130" s="7">
@@ -8027,15 +8046,15 @@
         <v>9</v>
       </c>
       <c r="J131" s="3">
-        <f t="shared" ref="J131:L131" si="125">ABS(C131:C541 -O131:O541)</f>
+        <f t="shared" ref="J131:L131" si="124">ABS(C131:C541 -O131:O541)</f>
         <v>7.7617372249960681E-4</v>
       </c>
       <c r="K131" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>9.2177704049589693E-4</v>
       </c>
       <c r="L131" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>4.9842907405309234</v>
       </c>
       <c r="N131" s="7">
@@ -8080,15 +8099,15 @@
         <v>9</v>
       </c>
       <c r="J132" s="3">
-        <f t="shared" ref="J132:L132" si="126">ABS(C132:C542 -O132:O542)</f>
+        <f t="shared" ref="J132:L132" si="125">ABS(C132:C542 -O132:O542)</f>
         <v>4.5537479130075553E-4</v>
       </c>
       <c r="K132" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1.770331355501753E-3</v>
       </c>
       <c r="L132" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>10.436433666147991</v>
       </c>
       <c r="N132" s="7">
@@ -8133,15 +8152,15 @@
         <v>41</v>
       </c>
       <c r="J133" s="3">
-        <f t="shared" ref="J133:L133" si="127">ABS(C133:C543 -O133:O543)</f>
+        <f t="shared" ref="J133:L133" si="126">ABS(C133:C543 -O133:O543)</f>
         <v>4.9111894979603221E-4</v>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>1.1069946096995409E-3</v>
       </c>
       <c r="L133" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>0.20498839001299984</v>
       </c>
       <c r="N133" s="7">
@@ -8186,15 +8205,15 @@
         <v>41</v>
       </c>
       <c r="J134" s="3">
-        <f t="shared" ref="J134:L134" si="128">ABS(C134:C544 -O134:O544)</f>
+        <f t="shared" ref="J134:L134" si="127">ABS(C134:C544 -O134:O544)</f>
         <v>1.3195855539933632E-3</v>
       </c>
       <c r="K134" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>1.8076968349021172E-3</v>
       </c>
       <c r="L134" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>10.917201254137012</v>
       </c>
       <c r="N134" s="7">
@@ -8239,15 +8258,15 @@
         <v>9</v>
       </c>
       <c r="J135" s="3">
-        <f t="shared" ref="J135:L135" si="129">ABS(C135:C545 -O135:O545)</f>
+        <f t="shared" ref="J135:L135" si="128">ABS(C135:C545 -O135:O545)</f>
         <v>4.3958894979567731E-4</v>
       </c>
       <c r="K135" s="3">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>9.4006460970064154E-4</v>
       </c>
       <c r="L135" s="3">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>3.5236582099869338</v>
       </c>
       <c r="N135" s="7">
@@ -8292,15 +8311,15 @@
         <v>9</v>
       </c>
       <c r="J136" s="3">
-        <f t="shared" ref="J136:L136" si="130">ABS(C136:C546 -O136:O546)</f>
+        <f t="shared" ref="J136:L136" si="129">ABS(C136:C546 -O136:O546)</f>
         <v>4.2994336679669232E-4</v>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>8.6627768109792669E-4</v>
       </c>
       <c r="L136" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>17.855812287176036</v>
       </c>
       <c r="N136" s="7">
@@ -8345,15 +8364,15 @@
         <v>49</v>
       </c>
       <c r="J137" s="3">
-        <f t="shared" ref="J137:L137" si="131">ABS(C137:C547 -O137:O547)</f>
+        <f t="shared" ref="J137:L137" si="130">ABS(C137:C547 -O137:O547)</f>
         <v>5.3551118350014804E-4</v>
       </c>
       <c r="K137" s="3">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>1.0424037869967151E-3</v>
       </c>
       <c r="L137" s="3">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>0.18420218070798455</v>
       </c>
       <c r="N137" s="7">
@@ -8398,15 +8417,15 @@
         <v>41</v>
       </c>
       <c r="J138" s="3">
-        <f t="shared" ref="J138:L138" si="132">ABS(C138:C548 -O138:O548)</f>
+        <f t="shared" ref="J138:L138" si="131">ABS(C138:C548 -O138:O548)</f>
         <v>3.5973754859952578E-4</v>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>9.3242191010034503E-4</v>
       </c>
       <c r="L138" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="131"/>
         <v>7.9338399640560056</v>
       </c>
       <c r="N138" s="7">
@@ -8451,15 +8470,15 @@
         <v>87</v>
       </c>
       <c r="J139" s="3">
-        <f t="shared" ref="J139:L139" si="133">ABS(C139:C549 -O139:O549)</f>
+        <f t="shared" ref="J139:L139" si="132">ABS(C139:C549 -O139:O549)</f>
         <v>5.3551118350014804E-4</v>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>1.0424037869967151E-3</v>
       </c>
       <c r="L139" s="3">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>0.18420218070798455</v>
       </c>
       <c r="N139" s="7">
@@ -8504,15 +8523,15 @@
         <v>41</v>
       </c>
       <c r="J140" s="3">
-        <f t="shared" ref="J140:L140" si="134">ABS(C140:C550 -O140:O550)</f>
+        <f t="shared" ref="J140:L140" si="133">ABS(C140:C550 -O140:O550)</f>
         <v>3.8905496403174311E-5</v>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>9.7442401679614932E-4</v>
       </c>
       <c r="L140" s="3">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>1.9595227914259112</v>
       </c>
       <c r="N140" s="7">
@@ -8557,15 +8576,15 @@
         <v>41</v>
       </c>
       <c r="J141" s="3">
-        <f t="shared" ref="J141:L141" si="135">ABS(C141:C551 -O141:O551)</f>
+        <f t="shared" ref="J141:L141" si="134">ABS(C141:C551 -O141:O551)</f>
         <v>5.692354963997559E-4</v>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>9.7920401679374436E-4</v>
       </c>
       <c r="L141" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.29235260857399226</v>
       </c>
       <c r="N141" s="7">
@@ -8610,15 +8629,15 @@
         <v>9</v>
       </c>
       <c r="J142" s="3">
-        <f t="shared" ref="J142:L142" si="136">ABS(C142:C552 -O142:O552)</f>
+        <f t="shared" ref="J142:L142" si="135">ABS(C142:C552 -O142:O552)</f>
         <v>8.2437261429646469E-4</v>
       </c>
       <c r="K142" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>1.053150089902033E-3</v>
       </c>
       <c r="L142" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>18.240224799116959</v>
       </c>
       <c r="N142" s="7">
@@ -8663,15 +8682,15 @@
         <v>96</v>
       </c>
       <c r="J143" s="3">
-        <f t="shared" ref="J143:L143" si="137">ABS(C143:C553 -O143:O553)</f>
+        <f t="shared" ref="J143:L143" si="136">ABS(C143:C553 -O143:O553)</f>
         <v>3.6901675949962964E-4</v>
       </c>
       <c r="K143" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>4.3575094069581155E-4</v>
       </c>
       <c r="L143" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>1.1185211622680526</v>
       </c>
       <c r="N143" s="7">
@@ -8716,15 +8735,15 @@
         <v>41</v>
       </c>
       <c r="J144" s="3">
-        <f t="shared" ref="J144:L144" si="138">ABS(C144:C554 -O144:O554)</f>
+        <f t="shared" ref="J144:L144" si="137">ABS(C144:C554 -O144:O554)</f>
         <v>1.3691410669736115E-4</v>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>6.8768134819663373E-4</v>
       </c>
       <c r="L144" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>8.3980700415798992</v>
       </c>
       <c r="N144" s="7">
@@ -8769,15 +8788,15 @@
         <v>70</v>
       </c>
       <c r="J145" s="3">
-        <f t="shared" ref="J145:L145" si="139">ABS(C145:C555 -O145:O555)</f>
+        <f t="shared" ref="J145:L145" si="138">ABS(C145:C555 -O145:O555)</f>
         <v>8.4486477220480083E-4</v>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>1.6514231489850317E-4</v>
       </c>
       <c r="L145" s="3">
-        <f t="shared" si="139"/>
+        <f t="shared" si="138"/>
         <v>8.7282236944960232</v>
       </c>
       <c r="N145" s="7">
@@ -8822,15 +8841,15 @@
         <v>82</v>
       </c>
       <c r="J146" s="3">
-        <f t="shared" ref="J146:L146" si="140">ABS(C146:C556 -O146:O556)</f>
+        <f t="shared" ref="J146:L146" si="139">ABS(C146:C556 -O146:O556)</f>
         <v>6.3010009460384708E-4</v>
       </c>
       <c r="K146" s="3">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>4.8090425970315209E-4</v>
       </c>
       <c r="L146" s="3">
-        <f t="shared" si="140"/>
+        <f t="shared" si="139"/>
         <v>10.44209291504103</v>
       </c>
       <c r="N146" s="7">
@@ -8875,15 +8894,15 @@
         <v>99</v>
       </c>
       <c r="J147" s="3">
-        <f t="shared" ref="J147:L147" si="141">ABS(C147:C557 -O147:O557)</f>
+        <f t="shared" ref="J147:L147" si="140">ABS(C147:C557 -O147:O557)</f>
         <v>6.5974066009744092E-4</v>
       </c>
       <c r="K147" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>9.628735901969776E-4</v>
       </c>
       <c r="L147" s="3">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>1.0832733537180275</v>
       </c>
       <c r="N147" s="7">
@@ -8928,15 +8947,15 @@
         <v>70</v>
       </c>
       <c r="J148" s="3">
-        <f t="shared" ref="J148:L148" si="142">ABS(C148:C558 -O148:O558)</f>
+        <f t="shared" ref="J148:L148" si="141">ABS(C148:C558 -O148:O558)</f>
         <v>7.2181135870152957E-4</v>
       </c>
       <c r="K148" s="3">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>1.5748930490389057E-4</v>
       </c>
       <c r="L148" s="3">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>0.91629856823203681</v>
       </c>
       <c r="N148" s="7">
@@ -8981,15 +9000,15 @@
         <v>93</v>
       </c>
       <c r="J149" s="3">
-        <f t="shared" ref="J149:L149" si="143">ABS(C149:C559 -O149:O559)</f>
+        <f t="shared" ref="J149:L149" si="142">ABS(C149:C559 -O149:O559)</f>
         <v>5.9887424039573034E-4</v>
       </c>
       <c r="K149" s="3">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>8.6870636560121284E-4</v>
       </c>
       <c r="L149" s="3">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>15.301439217737993</v>
       </c>
       <c r="N149" s="7">
@@ -9034,15 +9053,15 @@
         <v>97</v>
       </c>
       <c r="J150" s="3">
-        <f t="shared" ref="J150:L150" si="144">ABS(C150:C560 -O150:O560)</f>
+        <f t="shared" ref="J150:L150" si="143">ABS(C150:C560 -O150:O560)</f>
         <v>5.9013236539584568E-4</v>
       </c>
       <c r="K150" s="3">
-        <f t="shared" si="144"/>
+        <f t="shared" si="143"/>
         <v>8.7965242699539203E-4</v>
       </c>
       <c r="L150" s="3">
-        <f t="shared" si="144"/>
+        <f t="shared" si="143"/>
         <v>8.7197293677479593</v>
       </c>
       <c r="N150" s="7">
@@ -9087,15 +9106,15 @@
         <v>41</v>
       </c>
       <c r="J151" s="3">
-        <f t="shared" ref="J151:L151" si="145">ABS(C151:C561 -O151:O561)</f>
+        <f t="shared" ref="J151:L151" si="144">ABS(C151:C561 -O151:O561)</f>
         <v>1.6450328320161134E-4</v>
       </c>
       <c r="K151" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="144"/>
         <v>7.2120775080009025E-4</v>
       </c>
       <c r="L151" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="144"/>
         <v>3.1896063344989898</v>
       </c>
       <c r="N151" s="7">
@@ -9140,15 +9159,15 @@
         <v>41</v>
       </c>
       <c r="J152" s="3">
-        <f t="shared" ref="J152:L152" si="146">ABS(C152:C562 -O152:O562)</f>
+        <f t="shared" ref="J152:L152" si="145">ABS(C152:C562 -O152:O562)</f>
         <v>8.8263888179795913E-4</v>
       </c>
       <c r="K152" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>8.3169121319315309E-4</v>
       </c>
       <c r="L152" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="145"/>
         <v>1.4407723649089803</v>
       </c>
       <c r="N152" s="7">
@@ -9193,15 +9212,15 @@
         <v>9</v>
       </c>
       <c r="J153" s="3">
-        <f t="shared" ref="J153:L153" si="147">ABS(C153:C563 -O153:O563)</f>
+        <f t="shared" ref="J153:L153" si="146">ABS(C153:C563 -O153:O563)</f>
         <v>7.3129888180289981E-4</v>
       </c>
       <c r="K153" s="3">
-        <f t="shared" si="147"/>
+        <f t="shared" si="146"/>
         <v>7.1278121319551246E-4</v>
       </c>
       <c r="L153" s="3">
-        <f t="shared" si="147"/>
+        <f t="shared" si="146"/>
         <v>8.6115695350910073</v>
       </c>
       <c r="N153" s="7">
@@ -9246,15 +9265,15 @@
         <v>115</v>
       </c>
       <c r="J154" s="3">
-        <f t="shared" ref="J154:L154" si="148">ABS(C154:C564 -O154:O564)</f>
+        <f t="shared" ref="J154:L154" si="147">ABS(C154:C564 -O154:O564)</f>
         <v>1.5883721005991447E-3</v>
       </c>
       <c r="K154" s="3">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>1.0444360658041774E-3</v>
       </c>
       <c r="L154" s="3">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>10.854730777867985</v>
       </c>
       <c r="N154" s="7">
@@ -9299,15 +9318,15 @@
         <v>41</v>
       </c>
       <c r="J155" s="3">
-        <f t="shared" ref="J155:L155" si="149">ABS(C155:C565 -O155:O565)</f>
+        <f t="shared" ref="J155:L155" si="148">ABS(C155:C565 -O155:O565)</f>
         <v>1.4458163682036229E-3</v>
       </c>
       <c r="K155" s="3">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>6.159618301992964E-4</v>
       </c>
       <c r="L155" s="3">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>0.91069040886395669</v>
       </c>
       <c r="N155" s="7">
@@ -9352,15 +9371,15 @@
         <v>9</v>
       </c>
       <c r="J156" s="3">
-        <f t="shared" ref="J156:L156" si="150">ABS(C156:C566 -O156:O566)</f>
+        <f t="shared" ref="J156:L156" si="149">ABS(C156:C566 -O156:O566)</f>
         <v>1.1408163681991823E-3</v>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>7.6567183020159746E-4</v>
       </c>
       <c r="L156" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.45239410886392761</v>
       </c>
       <c r="N156" s="7">
@@ -9405,15 +9424,15 @@
         <v>79</v>
       </c>
       <c r="J157" s="3">
-        <f t="shared" ref="J157:L157" si="151">ABS(C157:C567 -O157:O567)</f>
+        <f t="shared" ref="J157:L157" si="150">ABS(C157:C567 -O157:O567)</f>
         <v>1.1840876971973557E-3</v>
       </c>
       <c r="K157" s="3">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>8.9845842600055903E-4</v>
       </c>
       <c r="L157" s="3">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>1.5216904163950176</v>
       </c>
       <c r="N157" s="7">
@@ -9458,15 +9477,15 @@
         <v>44</v>
       </c>
       <c r="J158" s="3">
-        <f t="shared" ref="J158:L158" si="152">ABS(C158:C568 -O158:O568)</f>
+        <f t="shared" ref="J158:L158" si="151">ABS(C158:C568 -O158:O568)</f>
         <v>1.0816929010033505E-3</v>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>5.2172733559530116E-4</v>
       </c>
       <c r="L158" s="3">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>0.82559362765505284</v>
       </c>
       <c r="N158" s="7">
@@ -9511,15 +9530,15 @@
         <v>58</v>
       </c>
       <c r="J159" s="3">
-        <f t="shared" ref="J159:L159" si="153">ABS(C159:C569 -O159:O569)</f>
+        <f t="shared" ref="J159:L159" si="152">ABS(C159:C569 -O159:O569)</f>
         <v>1.4618473612983962E-3</v>
       </c>
       <c r="K159" s="3">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>4.223377972962794E-4</v>
       </c>
       <c r="L159" s="3">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>1.1496135022040335</v>
       </c>
       <c r="N159" s="7">
@@ -9564,15 +9583,15 @@
         <v>9</v>
       </c>
       <c r="J160" s="3">
-        <f t="shared" ref="J160:L160" si="154">ABS(C160:C570 -O160:O570)</f>
+        <f t="shared" ref="J160:L160" si="153">ABS(C160:C570 -O160:O570)</f>
         <v>1.1116867475990944E-3</v>
       </c>
       <c r="K160" s="3">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>1.2448564400102669E-4</v>
       </c>
       <c r="L160" s="3">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>8.5923055290480761</v>
       </c>
       <c r="N160" s="7">
@@ -9617,15 +9636,15 @@
         <v>41</v>
       </c>
       <c r="J161" s="3">
-        <f t="shared" ref="J161:L161" si="155">ABS(C161:C571 -O161:O571)</f>
+        <f t="shared" ref="J161:L161" si="154">ABS(C161:C571 -O161:O571)</f>
         <v>7.8073117690280469E-4</v>
       </c>
       <c r="K161" s="3">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>3.4783769999791048E-4</v>
       </c>
       <c r="L161" s="3">
-        <f t="shared" si="155"/>
+        <f t="shared" si="154"/>
         <v>1.2013668962559905</v>
       </c>
       <c r="N161" s="7">
@@ -9670,15 +9689,15 @@
         <v>41</v>
       </c>
       <c r="J162" s="3">
-        <f t="shared" ref="J162:L162" si="156">ABS(C162:C572 -O162:O572)</f>
+        <f t="shared" ref="J162:L162" si="155">ABS(C162:C572 -O162:O572)</f>
         <v>9.8956315249409954E-4</v>
       </c>
       <c r="K162" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>1.2751206710248653E-4</v>
       </c>
       <c r="L162" s="3">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>8.2633422413059634</v>
       </c>
       <c r="N162" s="7">
@@ -9723,15 +9742,15 @@
         <v>41</v>
       </c>
       <c r="J163" s="3">
-        <f t="shared" ref="J163:L163" si="157">ABS(C163:C573 -O163:O573)</f>
+        <f t="shared" ref="J163:L163" si="156">ABS(C163:C573 -O163:O573)</f>
         <v>1.5698606272991356E-3</v>
       </c>
       <c r="K163" s="3">
-        <f t="shared" si="157"/>
+        <f t="shared" si="156"/>
         <v>1.5398080740425257E-4</v>
       </c>
       <c r="L163" s="3">
-        <f t="shared" si="157"/>
+        <f t="shared" si="156"/>
         <v>1.4380123961860818</v>
       </c>
       <c r="N163" s="7">
@@ -9776,15 +9795,15 @@
         <v>9</v>
       </c>
       <c r="J164" s="3">
-        <f t="shared" ref="J164:L164" si="158">ABS(C164:C574 -O164:O574)</f>
+        <f t="shared" ref="J164:L164" si="157">ABS(C164:C574 -O164:O574)</f>
         <v>1.1262906272975215E-3</v>
       </c>
       <c r="K164" s="3">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>1.7963919259500472E-4</v>
       </c>
       <c r="L164" s="3">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>2.6753990961860836</v>
       </c>
       <c r="N164" s="7">
@@ -9829,15 +9848,15 @@
         <v>70</v>
       </c>
       <c r="J165" s="3">
-        <f t="shared" ref="J165:L165" si="159">ABS(C165:C575 -O165:O575)</f>
+        <f t="shared" ref="J165:L165" si="158">ABS(C165:C575 -O165:O575)</f>
         <v>8.9844143250417119E-4</v>
       </c>
       <c r="K165" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="158"/>
         <v>2.4375566079726241E-4</v>
       </c>
       <c r="L165" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="158"/>
         <v>2.5062191354260221</v>
       </c>
       <c r="N165" s="7">
@@ -9882,15 +9901,15 @@
         <v>23</v>
       </c>
       <c r="J166" s="3">
-        <f t="shared" ref="J166:L166" si="160">ABS(C166:C576 -O166:O576)</f>
+        <f t="shared" ref="J166:L166" si="159">ABS(C166:C576 -O166:O576)</f>
         <v>1.5740090903051396E-3</v>
       </c>
       <c r="K166" s="3">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>7.919389986028591E-4</v>
       </c>
       <c r="L166" s="3">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>9.3532998622680452</v>
       </c>
       <c r="N166" s="7">
@@ -9935,15 +9954,15 @@
         <v>9</v>
       </c>
       <c r="J167" s="3">
-        <f t="shared" ref="J167:L167" si="161">ABS(C167:C577 -O167:O577)</f>
+        <f t="shared" ref="J167:L167" si="160">ABS(C167:C577 -O167:O577)</f>
         <v>8.6718370949512291E-4</v>
       </c>
       <c r="K167" s="3">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>5.7763328379678569E-4</v>
       </c>
       <c r="L167" s="3">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>2.2699979997910305</v>
       </c>
       <c r="N167" s="7">
@@ -9988,15 +10007,15 @@
         <v>97</v>
       </c>
       <c r="J168" s="3">
-        <f t="shared" ref="J168:L168" si="162">ABS(C168:C578 -O168:O578)</f>
+        <f t="shared" ref="J168:L168" si="161">ABS(C168:C578 -O168:O578)</f>
         <v>1.6846074744023554E-3</v>
       </c>
       <c r="K168" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>6.3411212969555208E-4</v>
       </c>
       <c r="L168" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="161"/>
         <v>3.7148963503990444</v>
       </c>
       <c r="N168" s="7">
@@ -10041,15 +10060,15 @@
         <v>41</v>
       </c>
       <c r="J169" s="3">
-        <f t="shared" ref="J169:L169" si="163">ABS(C169:C579 -O169:O579)</f>
+        <f t="shared" ref="J169:L169" si="162">ABS(C169:C579 -O169:O579)</f>
         <v>1.6969513347007137E-3</v>
       </c>
       <c r="K169" s="3">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>5.5780286940176893E-4</v>
       </c>
       <c r="L169" s="3">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>2.238011815200025</v>
       </c>
       <c r="N169" s="7">
@@ -10094,15 +10113,15 @@
         <v>41</v>
       </c>
       <c r="J170" s="3">
-        <f t="shared" ref="J170:L170" si="164">ABS(C170:C580 -O170:O580)</f>
+        <f t="shared" ref="J170:L170" si="163">ABS(C170:C580 -O170:O580)</f>
         <v>1.5175577557968722E-3</v>
       </c>
       <c r="K170" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>5.2970890570236406E-4</v>
       </c>
       <c r="L170" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="163"/>
         <v>6.6252746002470531</v>
       </c>
       <c r="N170" s="7">
@@ -10147,15 +10166,15 @@
         <v>19</v>
       </c>
       <c r="J171" s="3">
-        <f t="shared" ref="J171:L171" si="165">ABS(C171:C581 -O171:O581)</f>
+        <f t="shared" ref="J171:L171" si="164">ABS(C171:C581 -O171:O581)</f>
         <v>3.4693064097055526E-3</v>
       </c>
       <c r="K171" s="3">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>6.7534379419953439E-4</v>
       </c>
       <c r="L171" s="3">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>1.8407755727640733</v>
       </c>
       <c r="N171" s="7">
@@ -10200,15 +10219,15 @@
         <v>20</v>
       </c>
       <c r="J172" s="3">
-        <f t="shared" ref="J172:L172" si="166">ABS(C172:C582 -O172:O582)</f>
+        <f t="shared" ref="J172:L172" si="165">ABS(C172:C582 -O172:O582)</f>
         <v>3.6345531699026878E-3</v>
       </c>
       <c r="K172" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>7.2415994559804631E-4</v>
       </c>
       <c r="L172" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>2.1529083735380254</v>
       </c>
       <c r="N172" s="7">
@@ -10253,15 +10272,15 @@
         <v>40</v>
       </c>
       <c r="J173" s="3">
-        <f t="shared" ref="J173:L173" si="167">ABS(C173:C583 -O173:O583)</f>
+        <f t="shared" ref="J173:L173" si="166">ABS(C173:C583 -O173:O583)</f>
         <v>6.3481958460442911E-4</v>
       </c>
       <c r="K173" s="3">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1.4882581775026438E-3</v>
       </c>
       <c r="L173" s="3">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>1.4905391927139817</v>
       </c>
       <c r="N173" s="7">
@@ -10306,15 +10325,15 @@
         <v>41</v>
       </c>
       <c r="J174" s="3">
-        <f t="shared" ref="J174:L174" si="168">ABS(C174:C584 -O174:O584)</f>
+        <f t="shared" ref="J174:L174" si="167">ABS(C174:C584 -O174:O584)</f>
         <v>9.7195000099503659E-4</v>
       </c>
       <c r="K174" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>7.6243578340040585E-4</v>
       </c>
       <c r="L174" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>0.66052463744301804</v>
       </c>
       <c r="N174" s="7">
@@ -10359,15 +10378,15 @@
         <v>41</v>
       </c>
       <c r="J175" s="3">
-        <f t="shared" ref="J175:L175" si="169">ABS(C175:C585 -O175:O585)</f>
+        <f t="shared" ref="J175:L175" si="168">ABS(C175:C585 -O175:O585)</f>
         <v>1.2762480224992601E-3</v>
       </c>
       <c r="K175" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>1.152812842299511E-3</v>
       </c>
       <c r="L175" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>0.52535943583006883</v>
       </c>
       <c r="N175" s="7">
@@ -10412,15 +10431,15 @@
         <v>41</v>
       </c>
       <c r="J176" s="3">
-        <f t="shared" ref="J176:L176" si="170">ABS(C176:C586 -O176:O586)</f>
+        <f t="shared" ref="J176:L176" si="169">ABS(C176:C586 -O176:O586)</f>
         <v>1.202536534897547E-3</v>
       </c>
       <c r="K176" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>5.5751294309658306E-4</v>
       </c>
       <c r="L176" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>6.1327541390739952</v>
       </c>
       <c r="N176" s="7">
@@ -10465,15 +10484,15 @@
         <v>9</v>
       </c>
       <c r="J177" s="3">
-        <f t="shared" ref="J177:L177" si="171">ABS(C177:C587 -O177:O587)</f>
+        <f t="shared" ref="J177:L177" si="170">ABS(C177:C587 -O177:O587)</f>
         <v>7.676880224991578E-4</v>
       </c>
       <c r="K177" s="3">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>1.2054428422985097E-3</v>
       </c>
       <c r="L177" s="3">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>0.8063298358300699</v>
       </c>
       <c r="N177" s="7">
@@ -10518,15 +10537,15 @@
         <v>9</v>
       </c>
       <c r="J178" s="3">
-        <f t="shared" ref="J178:L178" si="172">ABS(C178:C588 -O178:O588)</f>
+        <f t="shared" ref="J178:L178" si="171">ABS(C178:C588 -O178:O588)</f>
         <v>7.8434039069463779E-4</v>
       </c>
       <c r="K178" s="3">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>1.6126517232990523E-3</v>
       </c>
       <c r="L178" s="3">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>3.2634623424210076</v>
       </c>
       <c r="N178" s="7">
@@ -10571,15 +10590,15 @@
         <v>41</v>
       </c>
       <c r="J179" s="3">
-        <f t="shared" ref="J179:L179" si="173">ABS(C179:C589 -O179:O589)</f>
+        <f t="shared" ref="J179:L179" si="172">ABS(C179:C589 -O179:O589)</f>
         <v>1.2152520179000703E-3</v>
       </c>
       <c r="K179" s="3">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>1.5405810570996437E-3</v>
       </c>
       <c r="L179" s="3">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>4.2675519590520707</v>
       </c>
       <c r="N179" s="7">
@@ -10624,15 +10643,15 @@
         <v>41</v>
       </c>
       <c r="J180" s="3">
-        <f t="shared" ref="J180:L180" si="174">ABS(C180:C590 -O180:O590)</f>
+        <f t="shared" ref="J180:L180" si="173">ABS(C180:C590 -O180:O590)</f>
         <v>4.3236285999626034E-4</v>
       </c>
       <c r="K180" s="3">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>1.8326958855041653E-3</v>
       </c>
       <c r="L180" s="3">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>1.6341364618989473</v>
       </c>
       <c r="N180" s="7">
@@ -10677,15 +10696,15 @@
         <v>9</v>
       </c>
       <c r="J181" s="3">
-        <f t="shared" ref="J181:L181" si="175">ABS(C181:C591 -O181:O591)</f>
+        <f t="shared" ref="J181:L181" si="174">ABS(C181:C591 -O181:O591)</f>
         <v>9.6177166600597275E-4</v>
       </c>
       <c r="K181" s="3">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>2.0157001026035459E-3</v>
       </c>
       <c r="L181" s="3">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>3.6032366180360214</v>
       </c>
       <c r="N181" s="7">
@@ -10730,15 +10749,15 @@
         <v>41</v>
       </c>
       <c r="J182" s="3">
-        <f t="shared" ref="J182:L182" si="176">ABS(C182:C592 -O182:O592)</f>
+        <f t="shared" ref="J182:L182" si="175">ABS(C182:C592 -O182:O592)</f>
         <v>1.5287045345004913E-3</v>
       </c>
       <c r="K182" s="3">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>2.0613029929990034E-3</v>
       </c>
       <c r="L182" s="3">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>5.6879980070019656</v>
       </c>
       <c r="N182" s="7">
@@ -10783,15 +10802,15 @@
         <v>41</v>
       </c>
       <c r="J183" s="3">
-        <f t="shared" ref="J183:L183" si="177">ABS(C183:C593 -O183:O593)</f>
+        <f t="shared" ref="J183:L183" si="176">ABS(C183:C593 -O183:O593)</f>
         <v>1.8106921060976333E-3</v>
       </c>
       <c r="K183" s="3">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>2.0447756028971753E-3</v>
       </c>
       <c r="L183" s="3">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>4.5361965387996861E-2</v>
       </c>
       <c r="N183" s="7">
@@ -10836,15 +10855,15 @@
         <v>41</v>
       </c>
       <c r="J184" s="3">
-        <f t="shared" ref="J184:L184" si="178">ABS(C184:C594 -O184:O594)</f>
+        <f t="shared" ref="J184:L184" si="177">ABS(C184:C594 -O184:O594)</f>
         <v>2.1801480679002339E-3</v>
       </c>
       <c r="K184" s="3">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>1.9746177820039179E-3</v>
       </c>
       <c r="L184" s="3">
-        <f t="shared" si="178"/>
+        <f t="shared" si="177"/>
         <v>1.7288836048969642</v>
       </c>
       <c r="N184" s="7">
@@ -10889,15 +10908,15 @@
         <v>41</v>
       </c>
       <c r="J185" s="3">
-        <f t="shared" ref="J185:L185" si="179">ABS(C185:C595 -O185:O595)</f>
+        <f t="shared" ref="J185:L185" si="178">ABS(C185:C595 -O185:O595)</f>
         <v>1.9518272240972578E-3</v>
       </c>
       <c r="K185" s="3">
-        <f t="shared" si="179"/>
+        <f t="shared" si="178"/>
         <v>1.7652123474007908E-3</v>
       </c>
       <c r="L185" s="3">
-        <f t="shared" si="179"/>
+        <f t="shared" si="178"/>
         <v>0.12275768174106361</v>
       </c>
       <c r="N185" s="7">
@@ -10942,15 +10961,15 @@
         <v>41</v>
       </c>
       <c r="J186" s="3">
-        <f t="shared" ref="J186:L186" si="180">ABS(C186:C596 -O186:O596)</f>
+        <f t="shared" ref="J186:L186" si="179">ABS(C186:C596 -O186:O596)</f>
         <v>1.6831631495008992E-3</v>
       </c>
       <c r="K186" s="3">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>1.4123504113996432E-3</v>
       </c>
       <c r="L186" s="3">
-        <f t="shared" si="180"/>
+        <f t="shared" si="179"/>
         <v>1.1114789374120164</v>
       </c>
       <c r="N186" s="7">
@@ -10995,15 +11014,15 @@
         <v>9</v>
       </c>
       <c r="J187" s="3">
-        <f t="shared" ref="J187:L187" si="181">ABS(C187:C597 -O187:O597)</f>
+        <f t="shared" ref="J187:L187" si="180">ABS(C187:C597 -O187:O597)</f>
         <v>2.6267434973021864E-3</v>
       </c>
       <c r="K187" s="3">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>1.9800699284999723E-3</v>
       </c>
       <c r="L187" s="3">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>7.9750040443968828E-2</v>
       </c>
       <c r="N187" s="7">
@@ -11048,15 +11067,15 @@
         <v>56</v>
       </c>
       <c r="J188" s="3">
-        <f t="shared" ref="J188:L188" si="182">ABS(C188:C598 -O188:O598)</f>
+        <f t="shared" ref="J188:L188" si="181">ABS(C188:C598 -O188:O598)</f>
         <v>2.5355572654959246E-3</v>
       </c>
       <c r="K188" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>2.4647865134994618E-3</v>
       </c>
       <c r="L188" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="181"/>
         <v>4.3802279798949257</v>
       </c>
       <c r="N188" s="7">
@@ -11101,15 +11120,15 @@
         <v>41</v>
       </c>
       <c r="J189" s="3">
-        <f t="shared" ref="J189:L189" si="183">ABS(C189:C599 -O189:O599)</f>
+        <f t="shared" ref="J189:L189" si="182">ABS(C189:C599 -O189:O599)</f>
         <v>2.5669810591963937E-3</v>
       </c>
       <c r="K189" s="3">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>1.7272134177019893E-3</v>
       </c>
       <c r="L189" s="3">
-        <f t="shared" si="183"/>
+        <f t="shared" si="182"/>
         <v>1.4203609212650008</v>
       </c>
       <c r="N189" s="7">
@@ -11154,15 +11173,15 @@
         <v>41</v>
       </c>
       <c r="J190" s="3">
-        <f t="shared" ref="J190:L190" si="184">ABS(C190:C600 -O190:O600)</f>
+        <f t="shared" ref="J190:L190" si="183">ABS(C190:C600 -O190:O600)</f>
         <v>2.552723329699802E-3</v>
       </c>
       <c r="K190" s="3">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>1.6689963063996061E-3</v>
       </c>
       <c r="L190" s="3">
-        <f t="shared" si="184"/>
+        <f t="shared" si="183"/>
         <v>4.2637698026929911</v>
       </c>
       <c r="N190" s="7">
@@ -11207,15 +11226,15 @@
         <v>13</v>
       </c>
       <c r="J191" s="3">
-        <f t="shared" ref="J191:L191" si="185">ABS(C191:C601 -O191:O601)</f>
+        <f t="shared" ref="J191:L191" si="184">ABS(C191:C601 -O191:O601)</f>
         <v>2.5110381410939908E-3</v>
       </c>
       <c r="K191" s="3">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>1.2970222721051528E-3</v>
       </c>
       <c r="L191" s="3">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>4.363297167477981</v>
       </c>
       <c r="N191" s="7">
@@ -11260,15 +11279,15 @@
         <v>41</v>
       </c>
       <c r="J192" s="3">
-        <f t="shared" ref="J192:L192" si="186">ABS(C192:C602 -O192:O602)</f>
+        <f t="shared" ref="J192:L192" si="185">ABS(C192:C602 -O192:O602)</f>
         <v>3.1644691309935524E-3</v>
       </c>
       <c r="K192" s="3">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>1.7493427985044718E-3</v>
       </c>
       <c r="L192" s="3">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>12.786217610514996</v>
       </c>
       <c r="N192" s="7">
@@ -11313,15 +11332,15 @@
         <v>41</v>
       </c>
       <c r="J193" s="3">
-        <f t="shared" ref="J193:L193" si="187">ABS(C193:C603 -O193:O603)</f>
+        <f t="shared" ref="J193:L193" si="186">ABS(C193:C603 -O193:O603)</f>
         <v>3.1019518606996144E-3</v>
       </c>
       <c r="K193" s="3">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>1.5882377783995594E-3</v>
       </c>
       <c r="L193" s="3">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>9.0186316549589947</v>
       </c>
       <c r="N193" s="7">
@@ -11366,15 +11385,15 @@
         <v>9</v>
       </c>
       <c r="J194" s="3">
-        <f t="shared" ref="J194:L194" si="188">ABS(C194:C604 -O194:O604)</f>
+        <f t="shared" ref="J194:L194" si="187">ABS(C194:C604 -O194:O604)</f>
         <v>3.0354410321962177E-3</v>
       </c>
       <c r="K194" s="3">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>1.7463284862984096E-3</v>
       </c>
       <c r="L194" s="3">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>33.115603768927031</v>
       </c>
       <c r="N194" s="7">
@@ -11419,15 +11438,15 @@
         <v>9</v>
       </c>
       <c r="J195" s="3">
-        <f t="shared" ref="J195:L195" si="189">ABS(C195:C605 -O195:O605)</f>
+        <f t="shared" ref="J195:L195" si="188">ABS(C195:C605 -O195:O605)</f>
         <v>2.9787210321998714E-3</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>1.7270084862985868E-3</v>
       </c>
       <c r="L195" s="3">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>10.118436068927053</v>
       </c>
       <c r="N195" s="7">
@@ -11472,15 +11491,15 @@
         <v>41</v>
       </c>
       <c r="J196" s="3">
-        <f t="shared" ref="J196:L196" si="190">ABS(C196:C606 -O196:O606)</f>
+        <f t="shared" ref="J196:L196" si="189">ABS(C196:C606 -O196:O606)</f>
         <v>3.0507147189027251E-3</v>
       </c>
       <c r="K196" s="3">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>1.4996984968007609E-3</v>
       </c>
       <c r="L196" s="3">
-        <f t="shared" si="190"/>
+        <f t="shared" si="189"/>
         <v>11.404933643479922</v>
       </c>
       <c r="N196" s="7">
@@ -11525,15 +11544,15 @@
         <v>41</v>
       </c>
       <c r="J197" s="3">
-        <f t="shared" ref="J197:L197" si="191">ABS(C197:C607 -O197:O607)</f>
+        <f t="shared" ref="J197:L197" si="190">ABS(C197:C607 -O197:O607)</f>
         <v>2.6911621020033749E-3</v>
       </c>
       <c r="K197" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>3.4332120199564997E-4</v>
       </c>
       <c r="L197" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="190"/>
         <v>18.896331222337039</v>
       </c>
       <c r="N197" s="7">
@@ -11578,15 +11597,15 @@
         <v>9</v>
       </c>
       <c r="J198" s="3">
-        <f t="shared" ref="J198:L198" si="192">ABS(C198:C608 -O198:O608)</f>
+        <f t="shared" ref="J198:L198" si="191">ABS(C198:C608 -O198:O608)</f>
         <v>2.7810721020031792E-3</v>
       </c>
       <c r="K198" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>5.4610120199782841E-4</v>
       </c>
       <c r="L198" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>11.424605622337026</v>
       </c>
       <c r="N198" s="7">
@@ -11631,15 +11650,15 @@
         <v>9</v>
       </c>
       <c r="J199" s="3">
-        <f t="shared" ref="J199:L199" si="193">ABS(C199:C609 -O199:O609)</f>
+        <f t="shared" ref="J199:L199" si="192">ABS(C199:C609 -O199:O609)</f>
         <v>2.4915301838959181E-3</v>
       </c>
       <c r="K199" s="3">
-        <f t="shared" si="193"/>
+        <f t="shared" si="192"/>
         <v>1.3758642872971905E-3</v>
       </c>
       <c r="L199" s="3">
-        <f t="shared" si="193"/>
+        <f t="shared" si="192"/>
         <v>18.97507347646399</v>
       </c>
       <c r="N199" s="7">
@@ -11684,15 +11703,15 @@
         <v>9</v>
       </c>
       <c r="J200" s="3">
-        <f t="shared" ref="J200:L200" si="194">ABS(C200:C610 -O200:O610)</f>
+        <f t="shared" ref="J200:L200" si="193">ABS(C200:C610 -O200:O610)</f>
         <v>2.9272707920000585E-3</v>
       </c>
       <c r="K200" s="3">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>4.2427031240066526E-4</v>
       </c>
       <c r="L200" s="3">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>14.994460994380916</v>
       </c>
       <c r="N200" s="7">
@@ -11737,15 +11756,15 @@
         <v>9</v>
       </c>
       <c r="J201" s="3">
-        <f t="shared" ref="J201:L201" si="195">ABS(C201:C611 -O201:O611)</f>
+        <f t="shared" ref="J201:L201" si="194">ABS(C201:C611 -O201:O611)</f>
         <v>2.6301604910017318E-3</v>
       </c>
       <c r="K201" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>1.4219908064987408E-3</v>
       </c>
       <c r="L201" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="194"/>
         <v>5.3279183886979808</v>
       </c>
       <c r="N201" s="7">
@@ -11790,15 +11809,15 @@
         <v>47</v>
       </c>
       <c r="J202" s="3">
-        <f t="shared" ref="J202:L202" si="196">ABS(C202:C612 -O202:O612)</f>
+        <f t="shared" ref="J202:L202" si="195">ABS(C202:C612 -O202:O612)</f>
         <v>2.8565707943002394E-3</v>
       </c>
       <c r="K202" s="3">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>6.5085488220262278E-4</v>
       </c>
       <c r="L202" s="3">
-        <f t="shared" si="196"/>
+        <f t="shared" si="195"/>
         <v>9.5591069285590038</v>
       </c>
       <c r="N202" s="7">
@@ -11843,15 +11862,15 @@
         <v>36518749</v>
       </c>
       <c r="J203" s="3">
-        <f t="shared" ref="J203:L203" si="197">ABS(C203:C613 -O203:O613)</f>
+        <f t="shared" ref="J203:L203" si="196">ABS(C203:C613 -O203:O613)</f>
         <v>2.6351700800049116E-3</v>
       </c>
       <c r="K203" s="3">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>1.0578356051951232E-3</v>
       </c>
       <c r="L203" s="3">
-        <f t="shared" si="197"/>
+        <f t="shared" si="196"/>
         <v>31.609139964419001</v>
       </c>
       <c r="N203" s="7">
@@ -11896,15 +11915,15 @@
         <v>41</v>
       </c>
       <c r="J204" s="3">
-        <f t="shared" ref="J204:L204" si="198">ABS(C204:C614 -O204:O614)</f>
+        <f t="shared" ref="J204:L204" si="197">ABS(C204:C614 -O204:O614)</f>
         <v>1.9735076204980828E-3</v>
       </c>
       <c r="K204" s="3">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>9.4909439305013166E-5</v>
       </c>
       <c r="L204" s="3">
-        <f t="shared" si="198"/>
+        <f t="shared" si="197"/>
         <v>15.508788901263983</v>
       </c>
       <c r="N204" s="7">
@@ -11949,15 +11968,15 @@
         <v>98</v>
       </c>
       <c r="J205" s="3">
-        <f t="shared" ref="J205:L205" si="199">ABS(C205:C615 -O205:O615)</f>
+        <f t="shared" ref="J205:L205" si="198">ABS(C205:C615 -O205:O615)</f>
         <v>1.9323252385987644E-3</v>
       </c>
       <c r="K205" s="3">
-        <f t="shared" si="199"/>
+        <f t="shared" si="198"/>
         <v>2.2209241139847791E-4</v>
       </c>
       <c r="L205" s="3">
-        <f t="shared" si="199"/>
+        <f t="shared" si="198"/>
         <v>28.830857040534056</v>
       </c>
       <c r="N205" s="7">
@@ -12002,15 +12021,15 @@
         <v>41</v>
       </c>
       <c r="J206" s="3">
-        <f t="shared" ref="J206:L206" si="200">ABS(C206:C616 -O206:O616)</f>
+        <f t="shared" ref="J206:L206" si="199">ABS(C206:C616 -O206:O616)</f>
         <v>1.9075186863020122E-3</v>
       </c>
       <c r="K206" s="3">
-        <f t="shared" si="200"/>
+        <f t="shared" si="199"/>
         <v>4.4819436779874877E-4</v>
       </c>
       <c r="L206" s="3">
-        <f t="shared" si="200"/>
+        <f t="shared" si="199"/>
         <v>7.6475164689869644</v>
       </c>
       <c r="N206" s="7">
@@ -12055,15 +12074,15 @@
         <v>41</v>
       </c>
       <c r="J207" s="3">
-        <f t="shared" ref="J207:L207" si="201">ABS(C207:C617 -O207:O617)</f>
+        <f t="shared" ref="J207:L207" si="200">ABS(C207:C617 -O207:O617)</f>
         <v>2.2303253969013781E-3</v>
       </c>
       <c r="K207" s="3">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>9.221137582997585E-4</v>
       </c>
       <c r="L207" s="3">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>12.370202972343918</v>
       </c>
       <c r="N207" s="7">
@@ -12108,15 +12127,15 @@
         <v>41</v>
       </c>
       <c r="J208" s="3">
-        <f t="shared" ref="J208:L208" si="202">ABS(C208:C618 -O208:O618)</f>
+        <f t="shared" ref="J208:L208" si="201">ABS(C208:C618 -O208:O618)</f>
         <v>1.7809177434031653E-3</v>
       </c>
       <c r="K208" s="3">
-        <f t="shared" si="202"/>
+        <f t="shared" si="201"/>
         <v>2.9074288620023481E-4</v>
       </c>
       <c r="L208" s="3">
-        <f t="shared" si="202"/>
+        <f t="shared" si="201"/>
         <v>1.841598220867013</v>
       </c>
       <c r="N208" s="7">
@@ -12161,15 +12180,15 @@
         <v>41</v>
       </c>
       <c r="J209" s="3">
-        <f t="shared" ref="J209:L209" si="203">ABS(C209:C619 -O209:O619)</f>
+        <f t="shared" ref="J209:L209" si="202">ABS(C209:C619 -O209:O619)</f>
         <v>1.7631561659001704E-3</v>
       </c>
       <c r="K209" s="3">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>3.6718244190581117E-4</v>
       </c>
       <c r="L209" s="3">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>14.701922500968976</v>
       </c>
       <c r="N209" s="7">
@@ -12214,15 +12233,15 @@
         <v>41</v>
       </c>
       <c r="J210" s="3">
-        <f t="shared" ref="J210:L210" si="204">ABS(C210:C620 -O210:O620)</f>
+        <f t="shared" ref="J210:L210" si="203">ABS(C210:C620 -O210:O620)</f>
         <v>1.7079067349001775E-3</v>
       </c>
       <c r="K210" s="3">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>2.4614787730570242E-4</v>
       </c>
       <c r="L210" s="3">
-        <f t="shared" si="204"/>
+        <f t="shared" si="203"/>
         <v>9.0379827520749814</v>
       </c>
       <c r="N210" s="7">
@@ -12267,15 +12286,15 @@
         <v>9</v>
       </c>
       <c r="J211" s="3">
-        <f t="shared" ref="J211:L211" si="205">ABS(C211:C621 -O211:O621)</f>
+        <f t="shared" ref="J211:L211" si="204">ABS(C211:C621 -O211:O621)</f>
         <v>1.3833903039994766E-3</v>
       </c>
       <c r="K211" s="3">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>2.4792872870449401E-4</v>
       </c>
       <c r="L211" s="3">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>20.254287924036021</v>
       </c>
       <c r="N211" s="7">
@@ -12320,15 +12339,15 @@
         <v>46</v>
       </c>
       <c r="J212" s="3">
-        <f t="shared" ref="J212:L212" si="206">ABS(C212:C622 -O212:O622)</f>
+        <f t="shared" ref="J212:L212" si="205">ABS(C212:C622 -O212:O622)</f>
         <v>2.2826284389054763E-3</v>
       </c>
       <c r="K212" s="3">
-        <f t="shared" si="206"/>
+        <f t="shared" si="205"/>
         <v>1.4353611500439456E-4</v>
       </c>
       <c r="L212" s="3">
-        <f t="shared" si="206"/>
+        <f t="shared" si="205"/>
         <v>9.2680923438019818</v>
       </c>
       <c r="N212" s="7">
@@ -12373,15 +12392,15 @@
         <v>41</v>
       </c>
       <c r="J213" s="3">
-        <f t="shared" ref="J213:L213" si="207">ABS(C213:C623 -O213:O623)</f>
+        <f t="shared" ref="J213:L213" si="206">ABS(C213:C623 -O213:O623)</f>
         <v>1.3815583007001919E-3</v>
       </c>
       <c r="K213" s="3">
-        <f t="shared" si="207"/>
+        <f t="shared" si="206"/>
         <v>1.400858250022452E-4</v>
       </c>
       <c r="L213" s="3">
-        <f t="shared" si="207"/>
+        <f t="shared" si="206"/>
         <v>2.4865037167810442</v>
       </c>
       <c r="N213" s="7">
@@ -12426,15 +12445,15 @@
         <v>41</v>
       </c>
       <c r="J214" s="3">
-        <f t="shared" ref="J214:L214" si="208">ABS(C214:C624 -O214:O624)</f>
+        <f t="shared" ref="J214:L214" si="207">ABS(C214:C624 -O214:O624)</f>
         <v>2.2728131814986341E-3</v>
       </c>
       <c r="K214" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>6.1067422510063807E-4</v>
       </c>
       <c r="L214" s="3">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>7.9585962953319722</v>
       </c>
       <c r="N214" s="7">
@@ -12479,15 +12498,15 @@
         <v>9</v>
       </c>
       <c r="J215" s="3">
-        <f t="shared" ref="J215:L215" si="209">ABS(C215:C625 -O215:O625)</f>
+        <f t="shared" ref="J215:L215" si="208">ABS(C215:C625 -O215:O625)</f>
         <v>1.6349090829024249E-3</v>
       </c>
       <c r="K215" s="3">
-        <f t="shared" si="209"/>
+        <f t="shared" si="208"/>
         <v>1.3446263810124037E-4</v>
       </c>
       <c r="L215" s="3">
-        <f t="shared" si="209"/>
+        <f t="shared" si="208"/>
         <v>6.4891362494070108</v>
       </c>
       <c r="N215" s="7">
@@ -12532,15 +12551,15 @@
         <v>9</v>
       </c>
       <c r="J216" s="3">
-        <f t="shared" ref="J216:L216" si="210">ABS(C216:C626 -O216:O626)</f>
+        <f t="shared" ref="J216:L216" si="209">ABS(C216:C626 -O216:O626)</f>
         <v>1.4766203417977408E-3</v>
       </c>
       <c r="K216" s="3">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>4.7891826000068249E-5</v>
       </c>
       <c r="L216" s="3">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>5.4550089618820721</v>
       </c>
       <c r="N216" s="7">
@@ -12585,15 +12604,15 @@
         <v>52</v>
       </c>
       <c r="J217" s="3">
-        <f t="shared" ref="J217:L217" si="211">ABS(C217:C627 -O217:O627)</f>
+        <f t="shared" ref="J217:L217" si="210">ABS(C217:C627 -O217:O627)</f>
         <v>1.2067012042962233E-3</v>
       </c>
       <c r="K217" s="3">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>1.5307062690084194E-4</v>
       </c>
       <c r="L217" s="3">
-        <f t="shared" si="211"/>
+        <f t="shared" si="210"/>
         <v>4.2072282271769836</v>
       </c>
       <c r="N217" s="7">
@@ -12638,15 +12657,15 @@
         <v>41</v>
       </c>
       <c r="J218" s="3">
-        <f t="shared" ref="J218:L218" si="212">ABS(C218:C628 -O218:O628)</f>
+        <f t="shared" ref="J218:L218" si="211">ABS(C218:C628 -O218:O628)</f>
         <v>2.4446143340384197E-4</v>
       </c>
       <c r="K218" s="3">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>5.4588018409873484E-4</v>
       </c>
       <c r="L218" s="3">
-        <f t="shared" si="212"/>
+        <f t="shared" si="211"/>
         <v>7.2899004462010453</v>
       </c>
       <c r="N218" s="7">
@@ -12691,15 +12710,15 @@
         <v>41</v>
       </c>
       <c r="J219" s="3">
-        <f t="shared" ref="J219:L219" si="213">ABS(C219:C629 -O219:O629)</f>
+        <f t="shared" ref="J219:L219" si="212">ABS(C219:C629 -O219:O629)</f>
         <v>1.8978753073000121E-3</v>
       </c>
       <c r="K219" s="3">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>5.1773443985325684E-6</v>
       </c>
       <c r="L219" s="3">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>7.3774335281740377</v>
       </c>
       <c r="N219" s="7">
@@ -12744,15 +12763,15 @@
         <v>9</v>
       </c>
       <c r="J220" s="3">
-        <f t="shared" ref="J220:L220" si="214">ABS(C220:C630 -O220:O630)</f>
+        <f t="shared" ref="J220:L220" si="213">ABS(C220:C630 -O220:O630)</f>
         <v>1.4437720977014123E-3</v>
       </c>
       <c r="K220" s="3">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>4.5537435802600612E-5</v>
       </c>
       <c r="L220" s="3">
-        <f t="shared" si="214"/>
+        <f t="shared" si="213"/>
         <v>8.7192036610189234</v>
       </c>
       <c r="N220" s="7">
@@ -12797,15 +12816,15 @@
         <v>41</v>
       </c>
       <c r="J221" s="3">
-        <f t="shared" ref="J221:L221" si="215">ABS(C221:C631 -O221:O631)</f>
+        <f t="shared" ref="J221:L221" si="214">ABS(C221:C631 -O221:O631)</f>
         <v>1.4727482401966085E-3</v>
       </c>
       <c r="K221" s="3">
-        <f t="shared" si="215"/>
+        <f t="shared" si="214"/>
         <v>4.04550943002846E-4</v>
       </c>
       <c r="L221" s="3">
-        <f t="shared" si="215"/>
+        <f t="shared" si="214"/>
         <v>11.838742429759009</v>
       </c>
       <c r="N221" s="7">
@@ -12850,15 +12869,15 @@
         <v>42</v>
       </c>
       <c r="J222" s="3">
-        <f t="shared" ref="J222:L222" si="216">ABS(C222:C632 -O222:O632)</f>
+        <f t="shared" ref="J222:L222" si="215">ABS(C222:C632 -O222:O632)</f>
         <v>1.2419122232003588E-3</v>
       </c>
       <c r="K222" s="3">
-        <f t="shared" si="216"/>
+        <f t="shared" si="215"/>
         <v>5.6789076204211142E-5</v>
       </c>
       <c r="L222" s="3">
-        <f t="shared" si="216"/>
+        <f t="shared" si="215"/>
         <v>1.0174401607140453</v>
       </c>
       <c r="N222" s="7">
@@ -12903,15 +12922,15 @@
         <v>53</v>
       </c>
       <c r="J223" s="3">
-        <f t="shared" ref="J223:L223" si="217">ABS(C223:C633 -O223:O633)</f>
+        <f t="shared" ref="J223:L223" si="216">ABS(C223:C633 -O223:O633)</f>
         <v>1.8011562310249474E-4</v>
       </c>
       <c r="K223" s="3">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>7.9237770250273343E-4</v>
       </c>
       <c r="L223" s="3">
-        <f t="shared" si="217"/>
+        <f t="shared" si="216"/>
         <v>12.274303861238991</v>
       </c>
       <c r="N223" s="7">
@@ -12956,15 +12975,15 @@
         <v>41</v>
       </c>
       <c r="J224" s="3">
-        <f t="shared" ref="J224:L224" si="218">ABS(C224:C634 -O224:O634)</f>
+        <f t="shared" ref="J224:L224" si="217">ABS(C224:C634 -O224:O634)</f>
         <v>1.1474963837017071E-3</v>
       </c>
       <c r="K224" s="3">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>6.7943295519512503E-4</v>
       </c>
       <c r="L224" s="3">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>3.5546794384320037</v>
       </c>
       <c r="N224" s="7">
@@ -13009,15 +13028,15 @@
         <v>41</v>
       </c>
       <c r="J225" s="3">
-        <f t="shared" ref="J225:L225" si="219">ABS(C225:C635 -O225:O635)</f>
+        <f t="shared" ref="J225:L225" si="218">ABS(C225:C635 -O225:O635)</f>
         <v>5.2142221100837105E-5</v>
       </c>
       <c r="K225" s="3">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>4.3478556970200088E-4</v>
       </c>
       <c r="L225" s="3">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>3.334164512074949</v>
       </c>
       <c r="N225" s="7">
@@ -13062,15 +13081,15 @@
         <v>9</v>
       </c>
       <c r="J226" s="3">
-        <f t="shared" ref="J226:L226" si="220">ABS(C226:C636 -O226:O636)</f>
+        <f t="shared" ref="J226:L226" si="219">ABS(C226:C636 -O226:O636)</f>
         <v>1.4797602970162416E-4</v>
       </c>
       <c r="K226" s="3">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>1.0575162988004649E-3</v>
       </c>
       <c r="L226" s="3">
-        <f t="shared" si="220"/>
+        <f t="shared" si="219"/>
         <v>0.14295244402592289</v>
       </c>
       <c r="N226" s="7">
@@ -13115,15 +13134,15 @@
         <v>94</v>
       </c>
       <c r="J227" s="3">
-        <f t="shared" ref="J227:L227" si="221">ABS(C227:C637 -O227:O637)</f>
+        <f t="shared" ref="J227:L227" si="220">ABS(C227:C637 -O227:O637)</f>
         <v>5.819737045982265E-4</v>
       </c>
       <c r="K227" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>6.8355037070233493E-4</v>
       </c>
       <c r="L227" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="220"/>
         <v>2.3762033711210506</v>
       </c>
       <c r="N227" s="7">
@@ -13168,15 +13187,15 @@
         <v>41</v>
       </c>
       <c r="J228" s="3">
-        <f t="shared" ref="J228:L228" si="222">ABS(C228:C638 -O228:O638)</f>
+        <f t="shared" ref="J228:L228" si="221">ABS(C228:C638 -O228:O638)</f>
         <v>3.584233794029501E-4</v>
       </c>
       <c r="K228" s="3">
-        <f t="shared" si="222"/>
+        <f t="shared" si="221"/>
         <v>1.1062379061002048E-3</v>
       </c>
       <c r="L228" s="3">
-        <f t="shared" si="222"/>
+        <f t="shared" si="221"/>
         <v>15.552648684686005</v>
       </c>
       <c r="N228" s="7">
@@ -13221,15 +13240,15 @@
         <v>41</v>
       </c>
       <c r="J229" s="3">
-        <f t="shared" ref="J229:L229" si="223">ABS(C229:C639 -O229:O639)</f>
+        <f t="shared" ref="J229:L229" si="222">ABS(C229:C639 -O229:O639)</f>
         <v>3.439237641984505E-4</v>
       </c>
       <c r="K229" s="3">
-        <f t="shared" si="223"/>
+        <f t="shared" si="222"/>
         <v>8.5406786529773626E-4</v>
       </c>
       <c r="L229" s="3">
-        <f t="shared" si="223"/>
+        <f t="shared" si="222"/>
         <v>5.5580639208579896</v>
       </c>
       <c r="N229" s="7">
@@ -13274,15 +13293,15 @@
         <v>9</v>
       </c>
       <c r="J230" s="3">
-        <f t="shared" ref="J230:L230" si="224">ABS(C230:C640 -O230:O640)</f>
+        <f t="shared" ref="J230:L230" si="223">ABS(C230:C640 -O230:O640)</f>
         <v>2.4872927397723288E-5</v>
       </c>
       <c r="K230" s="3">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>1.1678527935998773E-3</v>
       </c>
       <c r="L230" s="3">
-        <f t="shared" si="224"/>
+        <f t="shared" si="223"/>
         <v>12.38971740559407</v>
       </c>
       <c r="N230" s="7">
@@ -13327,15 +13346,15 @@
         <v>41</v>
       </c>
       <c r="J231" s="3">
-        <f t="shared" ref="J231:L231" si="225">ABS(C231:C641 -O231:O641)</f>
+        <f t="shared" ref="J231:L231" si="224">ABS(C231:C641 -O231:O641)</f>
         <v>2.185767376943204E-4</v>
       </c>
       <c r="K231" s="3">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>1.1862587189881424E-4</v>
       </c>
       <c r="L231" s="3">
-        <f t="shared" si="225"/>
+        <f t="shared" si="224"/>
         <v>7.7016983434039048</v>
       </c>
       <c r="N231" s="7">
@@ -13380,15 +13399,15 @@
         <v>41</v>
       </c>
       <c r="J232" s="3">
-        <f t="shared" ref="J232:L232" si="226">ABS(C232:C642 -O232:O642)</f>
+        <f t="shared" ref="J232:L232" si="225">ABS(C232:C642 -O232:O642)</f>
         <v>4.084889380351342E-5</v>
       </c>
       <c r="K232" s="3">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>7.4363765779850155E-4</v>
       </c>
       <c r="L232" s="3">
-        <f t="shared" si="226"/>
+        <f t="shared" si="225"/>
         <v>7.4212796839100292</v>
       </c>
       <c r="N232" s="7">
@@ -13433,15 +13452,15 @@
         <v>51</v>
       </c>
       <c r="J233" s="3">
-        <f t="shared" ref="J233:L233" si="227">ABS(C233:C643 -O233:O643)</f>
+        <f t="shared" ref="J233:L233" si="226">ABS(C233:C643 -O233:O643)</f>
         <v>8.6659026500512937E-5</v>
       </c>
       <c r="K233" s="3">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>1.2395804395026744E-3</v>
       </c>
       <c r="L233" s="3">
-        <f t="shared" si="227"/>
+        <f t="shared" si="226"/>
         <v>16.565340608436031</v>
       </c>
       <c r="N233" s="7">
@@ -13486,15 +13505,15 @@
         <v>41</v>
       </c>
       <c r="J234" s="3">
-        <f t="shared" ref="J234:L234" si="228">ABS(C234:C644 -O234:O644)</f>
+        <f t="shared" ref="J234:L234" si="227">ABS(C234:C644 -O234:O644)</f>
         <v>4.9700371239680408E-4</v>
       </c>
       <c r="K234" s="3">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>1.8950917293025782E-3</v>
       </c>
       <c r="L234" s="3">
-        <f t="shared" si="228"/>
+        <f t="shared" si="227"/>
         <v>5.8880973132789904</v>
       </c>
       <c r="N234" s="7">
@@ -13539,15 +13558,15 @@
         <v>41</v>
       </c>
       <c r="J235" s="3">
-        <f t="shared" ref="J235:L235" si="229">ABS(C235:C645 -O235:O645)</f>
+        <f t="shared" ref="J235:L235" si="228">ABS(C235:C645 -O235:O645)</f>
         <v>4.4294257009624971E-4</v>
       </c>
       <c r="K235" s="3">
-        <f t="shared" si="229"/>
+        <f t="shared" si="228"/>
         <v>1.3426671671012969E-3</v>
       </c>
       <c r="L235" s="3">
-        <f t="shared" si="229"/>
+        <f t="shared" si="228"/>
         <v>2.3335171474720937</v>
       </c>
       <c r="N235" s="7">
@@ -13592,15 +13611,15 @@
         <v>41</v>
       </c>
       <c r="J236" s="3">
-        <f t="shared" ref="J236:L236" si="230">ABS(C236:C646 -O236:O646)</f>
+        <f t="shared" ref="J236:L236" si="229">ABS(C236:C646 -O236:O646)</f>
         <v>1.0719934113012641E-3</v>
       </c>
       <c r="K236" s="3">
-        <f t="shared" si="230"/>
+        <f t="shared" si="229"/>
         <v>1.6731870588984066E-3</v>
       </c>
       <c r="L236" s="3">
-        <f t="shared" si="230"/>
+        <f t="shared" si="229"/>
         <v>7.9558047683000268</v>
       </c>
       <c r="N236" s="7">
@@ -13645,15 +13664,15 @@
         <v>41</v>
       </c>
       <c r="J237" s="3">
-        <f t="shared" ref="J237:L237" si="231">ABS(C237:C647 -O237:O647)</f>
+        <f t="shared" ref="J237:L237" si="230">ABS(C237:C647 -O237:O647)</f>
         <v>1.7038129413009528E-3</v>
       </c>
       <c r="K237" s="3">
-        <f t="shared" si="231"/>
+        <f t="shared" si="230"/>
         <v>1.7773983654976178E-3</v>
       </c>
       <c r="L237" s="3">
-        <f t="shared" si="231"/>
+        <f t="shared" si="230"/>
         <v>12.716686560514972</v>
       </c>
       <c r="N237" s="7">
@@ -13698,15 +13717,15 @@
         <v>41</v>
       </c>
       <c r="J238" s="3">
-        <f t="shared" ref="J238:L238" si="232">ABS(C238:C648 -O238:O648)</f>
+        <f t="shared" ref="J238:L238" si="231">ABS(C238:C648 -O238:O648)</f>
         <v>8.9682479980268681E-4</v>
       </c>
       <c r="K238" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="231"/>
         <v>1.7715979689043593E-3</v>
       </c>
       <c r="L238" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="231"/>
         <v>6.1397538034490253</v>
       </c>
       <c r="N238" s="7">
@@ -13751,15 +13770,15 @@
         <v>41</v>
       </c>
       <c r="J239" s="3">
-        <f t="shared" ref="J239:L239" si="233">ABS(C239:C649 -O239:O649)</f>
+        <f t="shared" ref="J239:L239" si="232">ABS(C239:C649 -O239:O649)</f>
         <v>1.1464045018030333E-3</v>
       </c>
       <c r="K239" s="3">
-        <f t="shared" si="233"/>
+        <f t="shared" si="232"/>
         <v>9.2448750839935201E-4</v>
       </c>
       <c r="L239" s="3">
-        <f t="shared" si="233"/>
+        <f t="shared" si="232"/>
         <v>6.9029217077539897</v>
       </c>
       <c r="N239" s="7">
@@ -13804,15 +13823,15 @@
         <v>41</v>
       </c>
       <c r="J240" s="3">
-        <f t="shared" ref="J240:L240" si="234">ABS(C240:C650 -O240:O650)</f>
+        <f t="shared" ref="J240:L240" si="233">ABS(C240:C650 -O240:O650)</f>
         <v>1.0862596426974847E-3</v>
       </c>
       <c r="K240" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>1.7648619830055168E-3</v>
       </c>
       <c r="L240" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="233"/>
         <v>17.643284805331973</v>
       </c>
       <c r="N240" s="7">
@@ -13857,15 +13876,15 @@
         <v>41</v>
       </c>
       <c r="J241" s="3">
-        <f t="shared" ref="J241:L241" si="235">ABS(C241:C651 -O241:O651)</f>
+        <f t="shared" ref="J241:L241" si="234">ABS(C241:C651 -O241:O651)</f>
         <v>1.2654811780024033E-3</v>
       </c>
       <c r="K241" s="3">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>2.1335659743044744E-3</v>
       </c>
       <c r="L241" s="3">
-        <f t="shared" si="235"/>
+        <f t="shared" si="234"/>
         <v>1.6532457099129942</v>
       </c>
       <c r="N241" s="7">
@@ -13910,15 +13929,15 @@
         <v>9</v>
       </c>
       <c r="J242" s="3">
-        <f t="shared" ref="J242:L242" si="236">ABS(C242:C652 -O242:O652)</f>
+        <f t="shared" ref="J242:L242" si="235">ABS(C242:C652 -O242:O652)</f>
         <v>1.3266436732024545E-3</v>
       </c>
       <c r="K242" s="3">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>2.1940596701952586E-3</v>
       </c>
       <c r="L242" s="3">
-        <f t="shared" si="236"/>
+        <f t="shared" si="235"/>
         <v>4.3516461796840531</v>
       </c>
       <c r="N242" s="7">
@@ -13963,15 +13982,15 @@
         <v>9</v>
       </c>
       <c r="J243" s="3">
-        <f t="shared" ref="J243:L243" si="237">ABS(C243:C653 -O243:O653)</f>
+        <f t="shared" ref="J243:L243" si="236">ABS(C243:C653 -O243:O653)</f>
         <v>1.4621874273998969E-3</v>
       </c>
       <c r="K243" s="3">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>2.0705407878054416E-3</v>
       </c>
       <c r="L243" s="3">
-        <f t="shared" si="237"/>
+        <f t="shared" si="236"/>
         <v>6.4815012836249934</v>
       </c>
       <c r="N243" s="7">
@@ -14016,15 +14035,15 @@
         <v>41</v>
       </c>
       <c r="J244" s="3">
-        <f t="shared" ref="J244:L244" si="238">ABS(C244:C654 -O244:O654)</f>
+        <f t="shared" ref="J244:L244" si="237">ABS(C244:C654 -O244:O654)</f>
         <v>1.8488188181038367E-3</v>
       </c>
       <c r="K244" s="3">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>2.3416866841046158E-3</v>
       </c>
       <c r="L244" s="3">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>14.811327681834996</v>
       </c>
       <c r="N244" s="7">
@@ -14069,15 +14088,15 @@
         <v>9</v>
       </c>
       <c r="J245" s="3">
-        <f t="shared" ref="J245:L245" si="239">ABS(C245:C655 -O245:O655)</f>
+        <f t="shared" ref="J245:L245" si="238">ABS(C245:C655 -O245:O655)</f>
         <v>1.7648407010995015E-3</v>
       </c>
       <c r="K245" s="3">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>2.1066163823988404E-3</v>
       </c>
       <c r="L245" s="3">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>9.8335736441349582</v>
       </c>
       <c r="N245" s="7">
@@ -14122,15 +14141,15 @@
         <v>9</v>
       </c>
       <c r="J246" s="3">
-        <f t="shared" ref="J246:L246" si="240">ABS(C246:C656 -O246:O656)</f>
+        <f t="shared" ref="J246:L246" si="239">ABS(C246:C656 -O246:O656)</f>
         <v>1.9258565014013129E-3</v>
       </c>
       <c r="K246" s="3">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>1.8101860851018614E-3</v>
       </c>
       <c r="L246" s="3">
-        <f t="shared" si="240"/>
+        <f t="shared" si="239"/>
         <v>1.9545910321289739</v>
       </c>
       <c r="N246" s="7">
@@ -14175,15 +14194,15 @@
         <v>9</v>
       </c>
       <c r="J247" s="3">
-        <f t="shared" ref="J247:L247" si="241">ABS(C247:C657 -O247:O657)</f>
+        <f t="shared" ref="J247:L247" si="240">ABS(C247:C657 -O247:O657)</f>
         <v>1.9652007494030954E-3</v>
       </c>
       <c r="K247" s="3">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>2.2110867278044566E-3</v>
       </c>
       <c r="L247" s="3">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>6.8773456602390297</v>
       </c>
       <c r="N247" s="7">
@@ -14228,15 +14247,15 @@
         <v>9</v>
       </c>
       <c r="J248" s="3">
-        <f t="shared" ref="J248:L248" si="242">ABS(C248:C658 -O248:O658)</f>
+        <f t="shared" ref="J248:L248" si="241">ABS(C248:C658 -O248:O658)</f>
         <v>2.2841307494019247E-3</v>
       </c>
       <c r="K248" s="3">
-        <f t="shared" si="242"/>
+        <f t="shared" si="241"/>
         <v>2.3346567278039743E-3</v>
       </c>
       <c r="L248" s="3">
-        <f t="shared" si="242"/>
+        <f t="shared" si="241"/>
         <v>3.1749021397610022</v>
       </c>
       <c r="N248" s="7">
@@ -14281,15 +14300,15 @@
         <v>41</v>
       </c>
       <c r="J249" s="3">
-        <f t="shared" ref="J249:L249" si="243">ABS(C249:C659 -O249:O659)</f>
+        <f t="shared" ref="J249:L249" si="242">ABS(C249:C659 -O249:O659)</f>
         <v>2.114450606399032E-3</v>
       </c>
       <c r="K249" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="242"/>
         <v>2.051143613201134E-3</v>
       </c>
       <c r="L249" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="242"/>
         <v>0.25050138807500844</v>
       </c>
       <c r="N249" s="7">
@@ -14334,15 +14353,15 @@
         <v>41</v>
       </c>
       <c r="J250" s="3">
-        <f t="shared" ref="J250:L250" si="244">ABS(C250:C660 -O250:O660)</f>
+        <f t="shared" ref="J250:L250" si="243">ABS(C250:C660 -O250:O660)</f>
         <v>2.5786985747942026E-3</v>
       </c>
       <c r="K250" s="3">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v>1.4456336710964024E-3</v>
       </c>
       <c r="L250" s="3">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v>0.90943922859901249</v>
       </c>
       <c r="N250" s="7">
@@ -14387,15 +14406,15 @@
         <v>42</v>
       </c>
       <c r="J251" s="3">
-        <f t="shared" ref="J251:L251" si="245">ABS(C251:C661 -O251:O661)</f>
+        <f t="shared" ref="J251:L251" si="244">ABS(C251:C661 -O251:O661)</f>
         <v>2.7104650912974648E-3</v>
       </c>
       <c r="K251" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="244"/>
         <v>2.7287793441033159E-3</v>
       </c>
       <c r="L251" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="244"/>
         <v>6.5456309544260876</v>
       </c>
       <c r="N251" s="7">
@@ -14440,15 +14459,15 @@
         <v>41</v>
       </c>
       <c r="J252" s="3">
-        <f t="shared" ref="J252:L252" si="246">ABS(C252:C662 -O252:O662)</f>
+        <f t="shared" ref="J252:L252" si="245">ABS(C252:C662 -O252:O662)</f>
         <v>2.9507855327040033E-3</v>
       </c>
       <c r="K252" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="245"/>
         <v>2.1292857138064392E-3</v>
       </c>
       <c r="L252" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="245"/>
         <v>4.4098464633079857</v>
       </c>
       <c r="N252" s="7">
@@ -14493,15 +14512,15 @@
         <v>41</v>
       </c>
       <c r="J253" s="3">
-        <f t="shared" ref="J253:L253" si="247">ABS(C253:C663 -O253:O663)</f>
+        <f t="shared" ref="J253:L253" si="246">ABS(C253:C663 -O253:O663)</f>
         <v>2.9390551498025275E-3</v>
       </c>
       <c r="K253" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="246"/>
         <v>1.9626696849002201E-3</v>
       </c>
       <c r="L253" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="246"/>
         <v>34.527619878023984</v>
       </c>
       <c r="N253" s="7">
@@ -14546,15 +14565,15 @@
         <v>41</v>
       </c>
       <c r="J254" s="3">
-        <f t="shared" ref="J254:L254" si="248">ABS(C254:C664 -O254:O664)</f>
+        <f t="shared" ref="J254:L254" si="247">ABS(C254:C664 -O254:O664)</f>
         <v>2.8558273498973108E-3</v>
       </c>
       <c r="K254" s="3">
-        <f t="shared" si="248"/>
+        <f t="shared" si="247"/>
         <v>1.4203130363981131E-3</v>
       </c>
       <c r="L254" s="3">
-        <f t="shared" si="248"/>
+        <f t="shared" si="247"/>
         <v>5.7886354227160837</v>
       </c>
       <c r="N254" s="7">
@@ -14599,15 +14618,15 @@
         <v>104</v>
       </c>
       <c r="J255" s="3">
-        <f t="shared" ref="J255:L255" si="249">ABS(C255:C665 -O255:O665)</f>
+        <f t="shared" ref="J255:L255" si="248">ABS(C255:C665 -O255:O665)</f>
         <v>2.5779995703985037E-3</v>
       </c>
       <c r="K255" s="3">
-        <f t="shared" si="249"/>
+        <f t="shared" si="248"/>
         <v>6.298543799019285E-4</v>
       </c>
       <c r="L255" s="3">
-        <f t="shared" si="249"/>
+        <f t="shared" si="248"/>
         <v>3.5261311934810919</v>
       </c>
       <c r="N255" s="7">
@@ -14652,15 +14671,15 @@
         <v>18</v>
       </c>
       <c r="J256" s="3">
-        <f t="shared" ref="J256:L256" si="250">ABS(C256:C666 -O256:O666)</f>
+        <f t="shared" ref="J256:L256" si="249">ABS(C256:C666 -O256:O666)</f>
         <v>2.4324951429051112E-3</v>
       </c>
       <c r="K256" s="3">
-        <f t="shared" si="250"/>
+        <f t="shared" si="249"/>
         <v>8.232647946968541E-4</v>
       </c>
       <c r="L256" s="3">
-        <f t="shared" si="250"/>
+        <f t="shared" si="249"/>
         <v>9.8344829082390106</v>
       </c>
       <c r="N256" s="7">
@@ -14705,15 +14724,15 @@
         <v>71</v>
       </c>
       <c r="J257" s="3">
-        <f t="shared" ref="J257:L257" si="251">ABS(C257:C667 -O257:O667)</f>
+        <f t="shared" ref="J257:L257" si="250">ABS(C257:C667 -O257:O667)</f>
         <v>2.4709435596008689E-3</v>
       </c>
       <c r="K257" s="3">
-        <f t="shared" si="251"/>
+        <f t="shared" si="250"/>
         <v>5.871138962021405E-4</v>
       </c>
       <c r="L257" s="3">
-        <f t="shared" si="251"/>
+        <f t="shared" si="250"/>
         <v>3.7968037957849674</v>
       </c>
       <c r="N257" s="7">
@@ -14758,15 +14777,15 @@
         <v>41</v>
       </c>
       <c r="J258" s="3">
-        <f t="shared" ref="J258:L258" si="252">ABS(C258:C668 -O258:O668)</f>
+        <f t="shared" ref="J258:L258" si="251">ABS(C258:C668 -O258:O668)</f>
         <v>2.8728194273952568E-3</v>
       </c>
       <c r="K258" s="3">
-        <f t="shared" si="252"/>
+        <f t="shared" si="251"/>
         <v>1.5208277997018627E-3</v>
       </c>
       <c r="L258" s="3">
-        <f t="shared" si="252"/>
+        <f t="shared" si="251"/>
         <v>11.441603661106001</v>
       </c>
       <c r="N258" s="7">
@@ -14811,15 +14830,15 @@
         <v>92</v>
       </c>
       <c r="J259" s="3">
-        <f t="shared" ref="J259:L259" si="253">ABS(C259:C669 -O259:O669)</f>
+        <f t="shared" ref="J259:L259" si="252">ABS(C259:C669 -O259:O669)</f>
         <v>1.691945973199438E-3</v>
       </c>
       <c r="K259" s="3">
-        <f t="shared" si="253"/>
+        <f t="shared" si="252"/>
         <v>1.0383811160608047E-4</v>
       </c>
       <c r="L259" s="3">
-        <f t="shared" si="253"/>
+        <f t="shared" si="252"/>
         <v>9.2318484237830489</v>
       </c>
       <c r="N259" s="7">
@@ -14864,15 +14883,15 @@
         <v>41</v>
       </c>
       <c r="J260" s="3">
-        <f t="shared" ref="J260:L260" si="254">ABS(C260:C670 -O260:O670)</f>
+        <f t="shared" ref="J260:L260" si="253">ABS(C260:C670 -O260:O670)</f>
         <v>2.1531774471057474E-3</v>
       </c>
       <c r="K260" s="3">
-        <f t="shared" si="254"/>
+        <f t="shared" si="253"/>
         <v>1.1451372452029318E-3</v>
       </c>
       <c r="L260" s="3">
-        <f t="shared" si="254"/>
+        <f t="shared" si="253"/>
         <v>6.7121827189449732</v>
       </c>
       <c r="N260" s="7">
@@ -14917,15 +14936,15 @@
         <v>70</v>
       </c>
       <c r="J261" s="3">
-        <f t="shared" ref="J261:L261" si="255">ABS(C261:C671 -O261:O671)</f>
+        <f t="shared" ref="J261:L261" si="254">ABS(C261:C671 -O261:O671)</f>
         <v>2.6367332964980505E-3</v>
       </c>
       <c r="K261" s="3">
-        <f t="shared" si="255"/>
+        <f t="shared" si="254"/>
         <v>6.1896465800259648E-4</v>
       </c>
       <c r="L261" s="3">
-        <f t="shared" si="255"/>
+        <f t="shared" si="254"/>
         <v>6.5552408344919968</v>
       </c>
       <c r="N261" s="7">
@@ -14970,15 +14989,15 @@
         <v>29</v>
       </c>
       <c r="J262" s="3">
-        <f t="shared" ref="J262:L262" si="256">ABS(C262:C672 -O262:O672)</f>
+        <f t="shared" ref="J262:L262" si="255">ABS(C262:C672 -O262:O672)</f>
         <v>2.5668358923951473E-3</v>
       </c>
       <c r="K262" s="3">
-        <f t="shared" si="256"/>
+        <f t="shared" si="255"/>
         <v>6.1776262840140816E-4</v>
       </c>
       <c r="L262" s="3">
-        <f t="shared" si="256"/>
+        <f t="shared" si="255"/>
         <v>31.809009925398982</v>
       </c>
       <c r="N262" s="7">
@@ -15023,15 +15042,15 @@
         <v>41</v>
       </c>
       <c r="J263" s="3">
-        <f t="shared" ref="J263:L263" si="257">ABS(C263:C673 -O263:O673)</f>
+        <f t="shared" ref="J263:L263" si="256">ABS(C263:C673 -O263:O673)</f>
         <v>2.9272858923974354E-3</v>
       </c>
       <c r="K263" s="3">
-        <f t="shared" si="257"/>
+        <f t="shared" si="256"/>
         <v>5.9901262839900937E-4</v>
       </c>
       <c r="L263" s="3">
-        <f t="shared" si="257"/>
+        <f t="shared" si="256"/>
         <v>22.93627582539898</v>
       </c>
       <c r="N263" s="7">
@@ -15076,15 +15095,15 @@
         <v>41</v>
       </c>
       <c r="J264" s="3">
-        <f t="shared" ref="J264:L264" si="258">ABS(C264:C674 -O264:O674)</f>
+        <f t="shared" ref="J264:L264" si="257">ABS(C264:C674 -O264:O674)</f>
         <v>1.9922648831993683E-3</v>
       </c>
       <c r="K264" s="3">
-        <f t="shared" si="258"/>
+        <f t="shared" si="257"/>
         <v>6.101253579018362E-4</v>
       </c>
       <c r="L264" s="3">
-        <f t="shared" si="258"/>
+        <f t="shared" si="257"/>
         <v>1.596098583416051</v>
       </c>
       <c r="N264" s="7">
@@ -15129,15 +15148,15 @@
         <v>41</v>
       </c>
       <c r="J265" s="3">
-        <f t="shared" ref="J265:L265" si="259">ABS(C265:C675 -O265:O675)</f>
+        <f t="shared" ref="J265:L265" si="258">ABS(C265:C675 -O265:O675)</f>
         <v>2.2682171211982904E-3</v>
       </c>
       <c r="K265" s="3">
-        <f t="shared" si="259"/>
+        <f t="shared" si="258"/>
         <v>9.7317775139771356E-4</v>
       </c>
       <c r="L265" s="3">
-        <f t="shared" si="259"/>
+        <f t="shared" si="258"/>
         <v>6.0151043980390568</v>
       </c>
       <c r="N265" s="7">
@@ -15182,15 +15201,15 @@
         <v>41</v>
       </c>
       <c r="J266" s="3">
-        <f t="shared" ref="J266:L266" si="260">ABS(C266:C676 -O266:O676)</f>
+        <f t="shared" ref="J266:L266" si="259">ABS(C266:C676 -O266:O676)</f>
         <v>1.6010316478016762E-3</v>
       </c>
       <c r="K266" s="3">
-        <f t="shared" si="260"/>
+        <f t="shared" si="259"/>
         <v>7.102752320022887E-4</v>
       </c>
       <c r="L266" s="3">
-        <f t="shared" si="260"/>
+        <f t="shared" si="259"/>
         <v>0.49884617415398225</v>
       </c>
       <c r="N266" s="7">
@@ -15235,15 +15254,15 @@
         <v>41</v>
       </c>
       <c r="J267" s="3">
-        <f t="shared" ref="J267:L267" si="261">ABS(C267:C677 -O267:O677)</f>
+        <f t="shared" ref="J267:L267" si="260">ABS(C267:C677 -O267:O677)</f>
         <v>2.6625600000045324E-3</v>
       </c>
       <c r="K267" s="3">
-        <f t="shared" si="261"/>
+        <f t="shared" si="260"/>
         <v>1.2249000000252863E-4</v>
       </c>
       <c r="L267" s="3">
-        <f t="shared" si="261"/>
+        <f t="shared" si="260"/>
         <v>5</v>
       </c>
       <c r="N267" s="7">
@@ -15288,15 +15307,15 @@
         <v>62</v>
       </c>
       <c r="J268" s="3">
-        <f t="shared" ref="J268:L268" si="262">ABS(C268:C678 -O268:O678)</f>
+        <f t="shared" ref="J268:L268" si="261">ABS(C268:C678 -O268:O678)</f>
         <v>2.4919000000025449E-3</v>
       </c>
       <c r="K268" s="3">
-        <f t="shared" si="262"/>
+        <f t="shared" si="261"/>
         <v>4.0860000005693564E-5</v>
       </c>
       <c r="L268" s="3">
-        <f t="shared" si="262"/>
+        <f t="shared" si="261"/>
         <v>5</v>
       </c>
       <c r="N268" s="7">
@@ -15341,15 +15360,15 @@
         <v>41</v>
       </c>
       <c r="J269" s="3">
-        <f t="shared" ref="J269:L269" si="263">ABS(C269:C679 -O269:O679)</f>
+        <f t="shared" ref="J269:L269" si="262">ABS(C269:C679 -O269:O679)</f>
         <v>2.2311724297026103E-3</v>
       </c>
       <c r="K269" s="3">
-        <f t="shared" si="263"/>
+        <f t="shared" si="262"/>
         <v>6.4463489680122166E-4</v>
       </c>
       <c r="L269" s="3">
-        <f t="shared" si="263"/>
+        <f t="shared" si="262"/>
         <v>1.623926006182046</v>
       </c>
       <c r="N269" s="7">
@@ -15394,15 +15413,15 @@
         <v>9</v>
       </c>
       <c r="J270" s="3">
-        <f t="shared" ref="J270:L270" si="264">ABS(C270:C680 -O270:O680)</f>
+        <f t="shared" ref="J270:L270" si="263">ABS(C270:C680 -O270:O680)</f>
         <v>2.0628820384018809E-3</v>
       </c>
       <c r="K270" s="3">
-        <f t="shared" si="264"/>
+        <f t="shared" si="263"/>
         <v>1.0507589050234856E-4</v>
       </c>
       <c r="L270" s="3">
-        <f t="shared" si="264"/>
+        <f t="shared" si="263"/>
         <v>6.7970158659089748</v>
       </c>
       <c r="N270" s="7">
@@ -15447,15 +15466,15 @@
         <v>70</v>
       </c>
       <c r="J271" s="3">
-        <f t="shared" ref="J271:L271" si="265">ABS(C271:C681 -O271:O681)</f>
+        <f t="shared" ref="J271:L271" si="264">ABS(C271:C681 -O271:O681)</f>
         <v>1.9920355632052633E-3</v>
       </c>
       <c r="K271" s="3">
-        <f t="shared" si="265"/>
+        <f t="shared" si="264"/>
         <v>2.5428312890340976E-4</v>
       </c>
       <c r="L271" s="3">
-        <f t="shared" si="265"/>
+        <f t="shared" si="264"/>
         <v>23.794051013013927</v>
       </c>
       <c r="N271" s="7">
@@ -15500,15 +15519,15 @@
         <v>85</v>
       </c>
       <c r="J272" s="3">
-        <f t="shared" ref="J272:L272" si="266">ABS(C272:C682 -O272:O682)</f>
+        <f t="shared" ref="J272:L272" si="265">ABS(C272:C682 -O272:O682)</f>
         <v>1.9306221162977977E-3</v>
       </c>
       <c r="K272" s="3">
-        <f t="shared" si="266"/>
+        <f t="shared" si="265"/>
         <v>1.7747796800193782E-4</v>
       </c>
       <c r="L272" s="3">
-        <f t="shared" si="266"/>
+        <f t="shared" si="265"/>
         <v>10.494016953161008</v>
       </c>
       <c r="N272" s="7">
@@ -15553,15 +15572,15 @@
         <v>63</v>
       </c>
       <c r="J273" s="3">
-        <f t="shared" ref="J273:L273" si="267">ABS(C273:C683 -O273:O683)</f>
+        <f t="shared" ref="J273:L273" si="266">ABS(C273:C683 -O273:O683)</f>
         <v>1.6490999999945188E-3</v>
       </c>
       <c r="K273" s="3">
-        <f t="shared" si="267"/>
+        <f t="shared" si="266"/>
         <v>3.0583000000206084E-4</v>
       </c>
       <c r="L273" s="3">
-        <f t="shared" si="267"/>
+        <f t="shared" si="266"/>
         <v>25.964955300000042</v>
       </c>
       <c r="N273" s="7">
@@ -15606,15 +15625,15 @@
         <v>9</v>
       </c>
       <c r="J274" s="3">
-        <f t="shared" ref="J274:L274" si="268">ABS(C274:C684 -O274:O684)</f>
+        <f t="shared" ref="J274:L274" si="267">ABS(C274:C684 -O274:O684)</f>
         <v>1.2941592478981079E-3</v>
       </c>
       <c r="K274" s="3">
-        <f t="shared" si="268"/>
+        <f t="shared" si="267"/>
         <v>1.4522433130537138E-4</v>
       </c>
       <c r="L274" s="3">
-        <f t="shared" si="268"/>
+        <f t="shared" si="267"/>
         <v>2.8323743630151057</v>
       </c>
       <c r="N274" s="7">
@@ -15659,15 +15678,15 @@
         <v>41</v>
       </c>
       <c r="J275" s="3">
-        <f t="shared" ref="J275:L275" si="269">ABS(C275:C685 -O275:O685)</f>
+        <f t="shared" ref="J275:L275" si="268">ABS(C275:C685 -O275:O685)</f>
         <v>7.1733592859857254E-4</v>
       </c>
       <c r="K275" s="3">
-        <f t="shared" si="269"/>
+        <f t="shared" si="268"/>
         <v>5.6292446230088444E-4</v>
       </c>
       <c r="L275" s="3">
-        <f t="shared" si="269"/>
+        <f t="shared" si="268"/>
         <v>22.424578172114025</v>
       </c>
       <c r="N275" s="7">
@@ -15712,15 +15731,15 @@
         <v>83</v>
       </c>
       <c r="J276" s="3">
-        <f t="shared" ref="J276:L276" si="270">ABS(C276:C686 -O276:O686)</f>
+        <f t="shared" ref="J276:L276" si="269">ABS(C276:C686 -O276:O686)</f>
         <v>6.3217088303701985E-5</v>
       </c>
       <c r="K276" s="3">
-        <f t="shared" si="270"/>
+        <f t="shared" si="269"/>
         <v>8.7974582498873133E-5</v>
       </c>
       <c r="L276" s="3">
-        <f t="shared" si="270"/>
+        <f t="shared" si="269"/>
         <v>15.943913958265966</v>
       </c>
       <c r="N276" s="7">
@@ -15765,15 +15784,15 @@
         <v>41</v>
       </c>
       <c r="J277" s="3">
-        <f t="shared" ref="J277:L277" si="271">ABS(C277:C687 -O277:O687)</f>
+        <f t="shared" ref="J277:L277" si="270">ABS(C277:C687 -O277:O687)</f>
         <v>1.2007579003991964E-3</v>
       </c>
       <c r="K277" s="3">
-        <f t="shared" si="271"/>
+        <f t="shared" si="270"/>
         <v>1.5696242579821273E-4</v>
       </c>
       <c r="L277" s="3">
-        <f t="shared" si="271"/>
+        <f t="shared" si="270"/>
         <v>0.69993922839103107</v>
       </c>
       <c r="N277" s="7">
@@ -15818,15 +15837,15 @@
         <v>9</v>
       </c>
       <c r="J278" s="3">
-        <f t="shared" ref="J278:L278" si="272">ABS(C278:C688 -O278:O688)</f>
+        <f t="shared" ref="J278:L278" si="271">ABS(C278:C688 -O278:O688)</f>
         <v>1.6180851901026472E-5</v>
       </c>
       <c r="K278" s="3">
-        <f t="shared" si="272"/>
+        <f t="shared" si="271"/>
         <v>1.207717858605406E-3</v>
       </c>
       <c r="L278" s="3">
-        <f t="shared" si="272"/>
+        <f t="shared" si="271"/>
         <v>20.334768163956028</v>
       </c>
       <c r="N278" s="7">
@@ -15871,15 +15890,15 @@
         <v>60</v>
       </c>
       <c r="J279" s="3">
-        <f t="shared" ref="J279:L279" si="273">ABS(C279:C689 -O279:O689)</f>
+        <f t="shared" ref="J279:L279" si="272">ABS(C279:C689 -O279:O689)</f>
         <v>1.6081284859836842E-4</v>
       </c>
       <c r="K279" s="3">
-        <f t="shared" si="273"/>
+        <f t="shared" si="272"/>
         <v>8.6941252899919164E-4</v>
       </c>
       <c r="L279" s="3">
-        <f t="shared" si="273"/>
+        <f t="shared" si="272"/>
         <v>6.21503759557595</v>
       </c>
       <c r="N279" s="7">
@@ -15924,15 +15943,15 @@
         <v>70</v>
       </c>
       <c r="J280" s="3">
-        <f t="shared" ref="J280:L280" si="274">ABS(C280:C690 -O280:O690)</f>
+        <f t="shared" ref="J280:L280" si="273">ABS(C280:C690 -O280:O690)</f>
         <v>1.7810695980102764E-4</v>
       </c>
       <c r="K280" s="3">
-        <f t="shared" si="274"/>
+        <f t="shared" si="273"/>
         <v>1.6677071265007726E-3</v>
       </c>
       <c r="L280" s="3">
-        <f t="shared" si="274"/>
+        <f t="shared" si="273"/>
         <v>2.9899354399739195</v>
       </c>
       <c r="N280" s="7">
@@ -15977,15 +15996,15 @@
         <v>41</v>
       </c>
       <c r="J281" s="3">
-        <f t="shared" ref="J281:L281" si="275">ABS(C281:C691 -O281:O691)</f>
+        <f t="shared" ref="J281:L281" si="274">ABS(C281:C691 -O281:O691)</f>
         <v>5.8264646398242803E-5</v>
       </c>
       <c r="K281" s="3">
-        <f t="shared" si="275"/>
+        <f t="shared" si="274"/>
         <v>2.0918393026008175E-3</v>
       </c>
       <c r="L281" s="3">
-        <f t="shared" si="275"/>
+        <f t="shared" si="274"/>
         <v>12.641056336801967</v>
       </c>
       <c r="N281" s="7">
@@ -16030,15 +16049,15 @@
         <v>77</v>
       </c>
       <c r="J282" s="3">
-        <f t="shared" ref="J282:L282" si="276">ABS(C282:C692 -O282:O692)</f>
+        <f t="shared" ref="J282:L282" si="275">ABS(C282:C692 -O282:O692)</f>
         <v>7.4753329549537284E-4</v>
       </c>
       <c r="K282" s="3">
-        <f t="shared" si="276"/>
+        <f t="shared" si="275"/>
         <v>1.3843846303984719E-3</v>
       </c>
       <c r="L282" s="3">
-        <f t="shared" si="276"/>
+        <f t="shared" si="275"/>
         <v>7.6131532324098998</v>
       </c>
       <c r="N282" s="7">
@@ -16083,15 +16102,15 @@
         <v>41</v>
       </c>
       <c r="J283" s="3">
-        <f t="shared" ref="J283:L283" si="277">ABS(C283:C693 -O283:O693)</f>
+        <f t="shared" ref="J283:L283" si="276">ABS(C283:C693 -O283:O693)</f>
         <v>1.3031433641970125E-3</v>
       </c>
       <c r="K283" s="3">
-        <f t="shared" si="277"/>
+        <f t="shared" si="276"/>
         <v>2.5313626122027699E-3</v>
       </c>
       <c r="L283" s="3">
-        <f t="shared" si="277"/>
+        <f t="shared" si="276"/>
         <v>2.9494912508509969</v>
       </c>
       <c r="N283" s="7">
@@ -16136,15 +16155,15 @@
         <v>24</v>
       </c>
       <c r="J284" s="3">
-        <f t="shared" ref="J284:L284" si="278">ABS(C284:C694 -O284:O694)</f>
+        <f t="shared" ref="J284:L284" si="277">ABS(C284:C694 -O284:O694)</f>
         <v>9.0601852929950155E-4</v>
       </c>
       <c r="K284" s="3">
-        <f t="shared" si="278"/>
+        <f t="shared" si="277"/>
         <v>2.7909152127989501E-3</v>
       </c>
       <c r="L284" s="3">
-        <f t="shared" si="278"/>
+        <f t="shared" si="277"/>
         <v>7.5023505797589678</v>
       </c>
       <c r="N284" s="7">
@@ -16189,15 +16208,15 @@
         <v>9</v>
       </c>
       <c r="J285" s="3">
-        <f t="shared" ref="J285:L285" si="279">ABS(C285:C695 -O285:O695)</f>
+        <f t="shared" ref="J285:L285" si="278">ABS(C285:C695 -O285:O695)</f>
         <v>9.6776431970369003E-4</v>
       </c>
       <c r="K285" s="3">
-        <f t="shared" si="279"/>
+        <f t="shared" si="278"/>
         <v>2.2125921043993912E-3</v>
       </c>
       <c r="L285" s="3">
-        <f t="shared" si="279"/>
+        <f t="shared" si="278"/>
         <v>20.419681236264978</v>
       </c>
       <c r="N285" s="7">
@@ -16242,15 +16261,15 @@
         <v>41</v>
       </c>
       <c r="J286" s="3">
-        <f t="shared" ref="J286:L286" si="280">ABS(C286:C696 -O286:O696)</f>
+        <f t="shared" ref="J286:L286" si="279">ABS(C286:C696 -O286:O696)</f>
         <v>1.1151327290974677E-3</v>
       </c>
       <c r="K286" s="3">
-        <f t="shared" si="280"/>
+        <f t="shared" si="279"/>
         <v>2.2892329710018089E-3</v>
       </c>
       <c r="L286" s="3">
-        <f t="shared" si="280"/>
+        <f t="shared" si="279"/>
         <v>17.663935744085052</v>
       </c>
       <c r="N286" s="7">
@@ -16295,15 +16314,15 @@
         <v>9</v>
       </c>
       <c r="J287" s="3">
-        <f t="shared" ref="J287:L287" si="281">ABS(C287:C697 -O287:O697)</f>
+        <f t="shared" ref="J287:L287" si="280">ABS(C287:C697 -O287:O697)</f>
         <v>1.3163993275000507E-3</v>
       </c>
       <c r="K287" s="3">
-        <f t="shared" si="281"/>
+        <f t="shared" si="280"/>
         <v>1.4201093543988463E-3</v>
       </c>
       <c r="L287" s="3">
-        <f t="shared" si="281"/>
+        <f t="shared" si="280"/>
         <v>11.540347938582954</v>
       </c>
       <c r="N287" s="7">
@@ -16348,15 +16367,15 @@
         <v>69</v>
       </c>
       <c r="J288" s="3">
-        <f t="shared" ref="J288:L288" si="282">ABS(C288:C698 -O288:O698)</f>
+        <f t="shared" ref="J288:L288" si="281">ABS(C288:C698 -O288:O698)</f>
         <v>6.1695890270385689E-4</v>
       </c>
       <c r="K288" s="3">
-        <f t="shared" si="282"/>
+        <f t="shared" si="281"/>
         <v>1.0065066635007724E-3</v>
       </c>
       <c r="L288" s="3">
-        <f t="shared" si="282"/>
+        <f t="shared" si="281"/>
         <v>0.80122537982003905</v>
       </c>
       <c r="N288" s="7">
@@ -16401,15 +16420,15 @@
         <v>43</v>
       </c>
       <c r="J289" s="3">
-        <f t="shared" ref="J289:L289" si="283">ABS(C289:C699 -O289:O699)</f>
+        <f t="shared" ref="J289:L289" si="282">ABS(C289:C699 -O289:O699)</f>
         <v>1.5129292206026435E-3</v>
       </c>
       <c r="K289" s="3">
-        <f t="shared" si="283"/>
+        <f t="shared" si="282"/>
         <v>1.0268917876032901E-3</v>
       </c>
       <c r="L289" s="3">
-        <f t="shared" si="283"/>
+        <f t="shared" si="282"/>
         <v>20.745458908818023</v>
       </c>
       <c r="N289" s="7">
@@ -16454,15 +16473,15 @@
         <v>41</v>
       </c>
       <c r="J290" s="3">
-        <f t="shared" ref="J290:L290" si="284">ABS(C290:C700 -O290:O700)</f>
+        <f t="shared" ref="J290:L290" si="283">ABS(C290:C700 -O290:O700)</f>
         <v>1.3008993840983862E-3</v>
       </c>
       <c r="K290" s="3">
-        <f t="shared" si="284"/>
+        <f t="shared" si="283"/>
         <v>1.5782822246990236E-3</v>
       </c>
       <c r="L290" s="3">
-        <f t="shared" si="284"/>
+        <f t="shared" si="283"/>
         <v>1.7346555471789316</v>
       </c>
       <c r="N290" s="7">
@@ -16507,15 +16526,15 @@
         <v>41</v>
       </c>
       <c r="J291" s="3">
-        <f t="shared" ref="J291:L291" si="285">ABS(C291:C701 -O291:O701)</f>
+        <f t="shared" ref="J291:L291" si="284">ABS(C291:C701 -O291:O701)</f>
         <v>1.3359308548999138E-3</v>
       </c>
       <c r="K291" s="3">
-        <f t="shared" si="285"/>
+        <f t="shared" si="284"/>
         <v>1.2206964612033744E-3</v>
       </c>
       <c r="L291" s="3">
-        <f t="shared" si="285"/>
+        <f t="shared" si="284"/>
         <v>12.085365383677981</v>
       </c>
       <c r="N291" s="7">
@@ -16560,15 +16579,15 @@
         <v>55</v>
       </c>
       <c r="J292" s="3">
-        <f t="shared" ref="J292:L292" si="286">ABS(C292:C702 -O292:O702)</f>
+        <f t="shared" ref="J292:L292" si="285">ABS(C292:C702 -O292:O702)</f>
         <v>1.838195355105654E-3</v>
       </c>
       <c r="K292" s="3">
-        <f t="shared" si="286"/>
+        <f t="shared" si="285"/>
         <v>1.2860813797033188E-3</v>
       </c>
       <c r="L292" s="3">
-        <f t="shared" si="286"/>
+        <f t="shared" si="285"/>
         <v>1.512446422870994</v>
       </c>
       <c r="N292" s="7">
@@ -16613,15 +16632,15 @@
         <v>41</v>
       </c>
       <c r="J293" s="3">
-        <f t="shared" ref="J293:L293" si="287">ABS(C293:C703 -O293:O703)</f>
+        <f t="shared" ref="J293:L293" si="286">ABS(C293:C703 -O293:O703)</f>
         <v>1.7917393944983928E-3</v>
       </c>
       <c r="K293" s="3">
-        <f t="shared" si="287"/>
+        <f t="shared" si="286"/>
         <v>9.6853388330231382E-4</v>
       </c>
       <c r="L293" s="3">
-        <f t="shared" si="287"/>
+        <f t="shared" si="286"/>
         <v>17.308514947401022</v>
       </c>
       <c r="N293" s="7">
@@ -16666,15 +16685,15 @@
         <v>90</v>
       </c>
       <c r="J294" s="3">
-        <f t="shared" ref="J294:L294" si="288">ABS(C294:C704 -O294:O704)</f>
+        <f t="shared" ref="J294:L294" si="287">ABS(C294:C704 -O294:O704)</f>
         <v>3.6749980836248142E-9</v>
       </c>
       <c r="K294" s="3">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v>1.2229861567902844E-10</v>
       </c>
       <c r="L294" s="3">
-        <f t="shared" si="288"/>
+        <f t="shared" si="287"/>
         <v>3.2160073715203907E-8</v>
       </c>
       <c r="N294" s="7">
@@ -16719,15 +16738,15 @@
         <v>41</v>
       </c>
       <c r="J295" s="3">
-        <f t="shared" ref="J295:L295" si="289">ABS(C295:C705 -O295:O705)</f>
+        <f t="shared" ref="J295:L295" si="288">ABS(C295:C705 -O295:O705)</f>
         <v>2.0677908434976189E-3</v>
       </c>
       <c r="K295" s="3">
-        <f t="shared" si="289"/>
+        <f t="shared" si="288"/>
         <v>9.4589400580247229E-4</v>
       </c>
       <c r="L295" s="3">
-        <f t="shared" si="289"/>
+        <f t="shared" si="288"/>
         <v>1.3975497028100108</v>
       </c>
       <c r="N295" s="7">
@@ -16772,15 +16791,15 @@
         <v>41</v>
       </c>
       <c r="J296" s="3">
-        <f t="shared" ref="J296:L296" si="290">ABS(C296:C706 -O296:O706)</f>
+        <f t="shared" ref="J296:L296" si="289">ABS(C296:C706 -O296:O706)</f>
         <v>2.3261794936999536E-3</v>
       </c>
       <c r="K296" s="3">
-        <f t="shared" si="290"/>
+        <f t="shared" si="289"/>
         <v>9.8612545389897832E-4</v>
       </c>
       <c r="L296" s="3">
-        <f t="shared" si="290"/>
+        <f t="shared" si="289"/>
         <v>9.5835745468970117</v>
       </c>
       <c r="N296" s="7">
@@ -16825,15 +16844,15 @@
         <v>9</v>
       </c>
       <c r="J297" s="3">
-        <f t="shared" ref="J297:L297" si="291">ABS(C297:C707 -O297:O707)</f>
+        <f t="shared" ref="J297:L297" si="290">ABS(C297:C707 -O297:O707)</f>
         <v>1.542351366595085E-3</v>
       </c>
       <c r="K297" s="3">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>9.2446102399890151E-4</v>
       </c>
       <c r="L297" s="3">
-        <f t="shared" si="291"/>
+        <f t="shared" si="290"/>
         <v>3.9801838834509908</v>
       </c>
       <c r="N297" s="7">
@@ -16878,15 +16897,15 @@
         <v>9</v>
       </c>
       <c r="J298" s="3">
-        <f t="shared" ref="J298:L298" si="292">ABS(C298:C708 -O298:O708)</f>
+        <f t="shared" ref="J298:L298" si="291">ABS(C298:C708 -O298:O708)</f>
         <v>1.35539216789482E-3</v>
       </c>
       <c r="K298" s="3">
-        <f t="shared" si="292"/>
+        <f t="shared" si="291"/>
         <v>9.2578832400391775E-4</v>
       </c>
       <c r="L298" s="3">
-        <f t="shared" si="292"/>
+        <f t="shared" si="291"/>
         <v>14.022330262125024</v>
       </c>
       <c r="N298" s="7">
@@ -16931,15 +16950,15 @@
         <v>9</v>
       </c>
       <c r="J299" s="3">
-        <f t="shared" ref="J299:L299" si="293">ABS(C299:C709 -O299:O709)</f>
+        <f t="shared" ref="J299:L299" si="292">ABS(C299:C709 -O299:O709)</f>
         <v>1.7289874527008919E-3</v>
       </c>
       <c r="K299" s="3">
-        <f t="shared" si="293"/>
+        <f t="shared" si="292"/>
         <v>1.0720965140009753E-3</v>
       </c>
       <c r="L299" s="3">
-        <f t="shared" si="293"/>
+        <f t="shared" si="292"/>
         <v>19.326114493650039</v>
       </c>
       <c r="N299" s="7">
@@ -16984,15 +17003,15 @@
         <v>9</v>
       </c>
       <c r="J300" s="3">
-        <f t="shared" ref="J300:L300" si="294">ABS(C300:C710 -O300:O710)</f>
+        <f t="shared" ref="J300:L300" si="293">ABS(C300:C710 -O300:O710)</f>
         <v>1.7597596863012654E-3</v>
       </c>
       <c r="K300" s="3">
-        <f t="shared" si="294"/>
+        <f t="shared" si="293"/>
         <v>5.4859769900161837E-4</v>
       </c>
       <c r="L300" s="3">
-        <f t="shared" si="294"/>
+        <f t="shared" si="293"/>
         <v>5.7463978362710577</v>
       </c>
       <c r="N300" s="7">
@@ -17037,15 +17056,15 @@
         <v>41</v>
       </c>
       <c r="J301" s="3">
-        <f t="shared" ref="J301:L301" si="295">ABS(C301:C711 -O301:O711)</f>
+        <f t="shared" ref="J301:L301" si="294">ABS(C301:C711 -O301:O711)</f>
         <v>1.8442779158007738E-3</v>
       </c>
       <c r="K301" s="3">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>5.5604695639743795E-4</v>
       </c>
       <c r="L301" s="3">
-        <f t="shared" si="295"/>
+        <f t="shared" si="294"/>
         <v>8.7483136121610414</v>
       </c>
       <c r="N301" s="7">
@@ -17090,15 +17109,15 @@
         <v>41</v>
       </c>
       <c r="J302" s="3">
-        <f t="shared" ref="J302:L302" si="296">ABS(C302:C712 -O302:O712)</f>
+        <f t="shared" ref="J302:L302" si="295">ABS(C302:C712 -O302:O712)</f>
         <v>1.1025402569018183E-3</v>
       </c>
       <c r="K302" s="3">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>6.8698861380056542E-4</v>
       </c>
       <c r="L302" s="3">
-        <f t="shared" si="296"/>
+        <f t="shared" si="295"/>
         <v>12.247181016397008</v>
       </c>
       <c r="N302" s="7">
@@ -17143,15 +17162,15 @@
         <v>41</v>
       </c>
       <c r="J303" s="3">
-        <f t="shared" ref="J303:L303" si="297">ABS(C303:C713 -O303:O713)</f>
+        <f t="shared" ref="J303:L303" si="296">ABS(C303:C713 -O303:O713)</f>
         <v>1.1721520311027689E-3</v>
       </c>
       <c r="K303" s="3">
-        <f t="shared" si="297"/>
+        <f t="shared" si="296"/>
         <v>7.3862332540386433E-4</v>
       </c>
       <c r="L303" s="3">
-        <f t="shared" si="297"/>
+        <f t="shared" si="296"/>
         <v>16.831155765897961</v>
       </c>
       <c r="N303" s="7">
@@ -17196,15 +17215,15 @@
         <v>65</v>
       </c>
       <c r="J304" s="3">
-        <f t="shared" ref="J304:L304" si="298">ABS(C304:C714 -O304:O714)</f>
+        <f t="shared" ref="J304:L304" si="297">ABS(C304:C714 -O304:O714)</f>
         <v>1.9390599999979941E-3</v>
       </c>
       <c r="K304" s="3">
-        <f t="shared" si="298"/>
+        <f t="shared" si="297"/>
         <v>4.9353999999368625E-4</v>
       </c>
       <c r="L304" s="3">
-        <f t="shared" si="298"/>
+        <f t="shared" si="297"/>
         <v>15.320488299999965</v>
       </c>
       <c r="N304" s="7">
@@ -17249,15 +17268,15 @@
         <v>78</v>
       </c>
       <c r="J305" s="3">
-        <f t="shared" ref="J305:L305" si="299">ABS(C305:C715 -O305:O715)</f>
+        <f t="shared" ref="J305:L305" si="298">ABS(C305:C715 -O305:O715)</f>
         <v>1.568140100395965E-3</v>
       </c>
       <c r="K305" s="3">
-        <f t="shared" si="299"/>
+        <f t="shared" si="298"/>
         <v>1.5732826759773388E-4</v>
       </c>
       <c r="L305" s="3">
-        <f t="shared" si="299"/>
+        <f t="shared" si="298"/>
         <v>4.9188934582319916</v>
       </c>
       <c r="N305" s="7">
@@ -17302,15 +17321,15 @@
         <v>54</v>
       </c>
       <c r="J306" s="3">
-        <f t="shared" ref="J306:L306" si="300">ABS(C306:C716 -O306:O716)</f>
+        <f t="shared" ref="J306:L306" si="299">ABS(C306:C716 -O306:O716)</f>
         <v>2.4437369349996629E-3</v>
       </c>
       <c r="K306" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>4.0297101750041975E-4</v>
       </c>
       <c r="L306" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="299"/>
         <v>3.5934265257089919</v>
       </c>
       <c r="N306" s="7">
@@ -17355,15 +17374,15 @@
         <v>41</v>
       </c>
       <c r="J307" s="3">
-        <f t="shared" ref="J307:L307" si="301">ABS(C307:C717 -O307:O717)</f>
+        <f t="shared" ref="J307:L307" si="300">ABS(C307:C717 -O307:O717)</f>
         <v>1.7000189514035924E-3</v>
       </c>
       <c r="K307" s="3">
-        <f t="shared" si="301"/>
+        <f t="shared" si="300"/>
         <v>2.5291080339684413E-4</v>
       </c>
       <c r="L307" s="3">
-        <f t="shared" si="301"/>
+        <f t="shared" si="300"/>
         <v>10.015379485257085</v>
       </c>
       <c r="N307" s="7">
@@ -17408,15 +17427,15 @@
         <v>116</v>
       </c>
       <c r="J308" s="3">
-        <f t="shared" ref="J308:L308" si="302">ABS(C308:C718 -O308:O718)</f>
+        <f t="shared" ref="J308:L308" si="301">ABS(C308:C718 -O308:O718)</f>
         <v>1.7379682385012529E-3</v>
       </c>
       <c r="K308" s="3">
-        <f t="shared" si="302"/>
+        <f t="shared" si="301"/>
         <v>1.0967980670528732E-4</v>
       </c>
       <c r="L308" s="3">
-        <f t="shared" si="302"/>
+        <f t="shared" si="301"/>
         <v>2.1479850193680932</v>
       </c>
       <c r="N308" s="7">
@@ -17461,15 +17480,15 @@
         <v>41</v>
       </c>
       <c r="J309" s="3">
-        <f t="shared" ref="J309:L309" si="303">ABS(C309:C719 -O309:O719)</f>
+        <f t="shared" ref="J309:L309" si="302">ABS(C309:C719 -O309:O719)</f>
         <v>1.2516554656016865E-3</v>
       </c>
       <c r="K309" s="3">
-        <f t="shared" si="303"/>
+        <f t="shared" si="302"/>
         <v>2.551134979711378E-5</v>
       </c>
       <c r="L309" s="3">
-        <f t="shared" si="303"/>
+        <f t="shared" si="302"/>
         <v>10.178917978554068</v>
       </c>
       <c r="N309" s="7">
@@ -17514,15 +17533,15 @@
         <v>41</v>
       </c>
       <c r="J310" s="3">
-        <f t="shared" ref="J310:L310" si="304">ABS(C310:C720 -O310:O720)</f>
+        <f t="shared" ref="J310:L310" si="303">ABS(C310:C720 -O310:O720)</f>
         <v>1.6881996984992043E-3</v>
       </c>
       <c r="K310" s="3">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>2.5391710809685719E-4</v>
       </c>
       <c r="L310" s="3">
-        <f t="shared" si="304"/>
+        <f t="shared" si="303"/>
         <v>4.0218718459140064</v>
       </c>
       <c r="N310" s="7">
@@ -17567,15 +17586,15 @@
         <v>41</v>
       </c>
       <c r="J311" s="3">
-        <f t="shared" ref="J311:L311" si="305">ABS(C311:C721 -O311:O721)</f>
+        <f t="shared" ref="J311:L311" si="304">ABS(C311:C721 -O311:O721)</f>
         <v>1.0609542795023685E-3</v>
       </c>
       <c r="K311" s="3">
-        <f t="shared" si="305"/>
+        <f t="shared" si="304"/>
         <v>2.3037009249549101E-4</v>
       </c>
       <c r="L311" s="3">
-        <f t="shared" si="305"/>
+        <f t="shared" si="304"/>
         <v>2.7596202551990245E-2</v>
       </c>
       <c r="N311" s="7">
@@ -17620,15 +17639,15 @@
         <v>41</v>
       </c>
       <c r="J312" s="3">
-        <f t="shared" ref="J312:L312" si="306">ABS(C312:C722 -O312:O722)</f>
+        <f t="shared" ref="J312:L312" si="305">ABS(C312:C722 -O312:O722)</f>
         <v>9.1285994049883357E-4</v>
       </c>
       <c r="K312" s="3">
-        <f t="shared" si="306"/>
+        <f t="shared" si="305"/>
         <v>1.7941642829555349E-4</v>
       </c>
       <c r="L312" s="3">
-        <f t="shared" si="306"/>
+        <f t="shared" si="305"/>
         <v>2.7101178548409735</v>
       </c>
       <c r="N312" s="7">
@@ -17673,15 +17692,15 @@
         <v>41</v>
       </c>
       <c r="J313" s="3">
-        <f t="shared" ref="J313:L313" si="307">ABS(C313:C723 -O313:O723)</f>
+        <f t="shared" ref="J313:L313" si="306">ABS(C313:C723 -O313:O723)</f>
         <v>3.3199806910033658E-4</v>
       </c>
       <c r="K313" s="3">
-        <f t="shared" si="307"/>
+        <f t="shared" si="306"/>
         <v>1.4287386001399227E-5</v>
       </c>
       <c r="L313" s="3">
-        <f t="shared" si="307"/>
+        <f t="shared" si="306"/>
         <v>2.9077844966039947</v>
       </c>
       <c r="N313" s="7">
@@ -17726,15 +17745,15 @@
         <v>30</v>
       </c>
       <c r="J314" s="3">
-        <f t="shared" ref="J314:L314" si="308">ABS(C314:C724 -O314:O724)</f>
+        <f t="shared" ref="J314:L314" si="307">ABS(C314:C724 -O314:O724)</f>
         <v>1.4800699999995004E-3</v>
       </c>
       <c r="K314" s="3">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>1.1616600000010635E-3</v>
       </c>
       <c r="L314" s="3">
-        <f t="shared" si="308"/>
+        <f t="shared" si="307"/>
         <v>5.2890668999999662</v>
       </c>
       <c r="N314" s="7">
@@ -17779,15 +17798,15 @@
         <v>105</v>
       </c>
       <c r="J315" s="3">
-        <f t="shared" ref="J315:L315" si="309">ABS(C315:C725 -O315:O725)</f>
+        <f t="shared" ref="J315:L315" si="308">ABS(C315:C725 -O315:O725)</f>
         <v>1.0375700000011534E-3</v>
       </c>
       <c r="K315" s="3">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>1.0999300000023027E-3</v>
       </c>
       <c r="L315" s="3">
-        <f t="shared" si="309"/>
+        <f t="shared" si="308"/>
         <v>6.2028616000000056</v>
       </c>
       <c r="N315" s="7">
@@ -17832,15 +17851,15 @@
         <v>41</v>
       </c>
       <c r="J316" s="3">
-        <f t="shared" ref="J316:L316" si="310">ABS(C316:C726 -O316:O726)</f>
+        <f t="shared" ref="J316:L316" si="309">ABS(C316:C726 -O316:O726)</f>
         <v>6.9916810780057403E-4</v>
       </c>
       <c r="K316" s="3">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>4.4434511169555435E-4</v>
       </c>
       <c r="L316" s="3">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0.23197210524506318</v>
       </c>
       <c r="N316" s="7">
@@ -17885,15 +17904,15 @@
         <v>110</v>
       </c>
       <c r="J317" s="3">
-        <f t="shared" ref="J317:L317" si="311">ABS(C317:C727 -O317:O727)</f>
+        <f t="shared" ref="J317:L317" si="310">ABS(C317:C727 -O317:O727)</f>
         <v>1.1388399999958665E-3</v>
       </c>
       <c r="K317" s="3">
-        <f t="shared" si="311"/>
+        <f t="shared" si="310"/>
         <v>1.2348299999942469E-3</v>
       </c>
       <c r="L317" s="3">
-        <f t="shared" si="311"/>
+        <f t="shared" si="310"/>
         <v>7.0853654000000006</v>
       </c>
       <c r="N317" s="7">
@@ -17938,15 +17957,15 @@
         <v>9</v>
       </c>
       <c r="J318" s="3">
-        <f t="shared" ref="J318:L318" si="312">ABS(C318:C728 -O318:O728)</f>
+        <f t="shared" ref="J318:L318" si="311">ABS(C318:C728 -O318:O728)</f>
         <v>3.0422459219892062E-4</v>
       </c>
       <c r="K318" s="3">
-        <f t="shared" si="312"/>
+        <f t="shared" si="311"/>
         <v>1.2465675688986266E-3</v>
       </c>
       <c r="L318" s="3">
-        <f t="shared" si="312"/>
+        <f t="shared" si="311"/>
         <v>5.4272825195939731</v>
       </c>
       <c r="N318" s="7">
@@ -17991,15 +18010,15 @@
         <v>9</v>
       </c>
       <c r="J319" s="3">
-        <f t="shared" ref="J319:L319" si="313">ABS(C319:C729 -O319:O729)</f>
+        <f t="shared" ref="J319:L319" si="312">ABS(C319:C729 -O319:O729)</f>
         <v>9.2854078062032386E-6</v>
       </c>
       <c r="K319" s="3">
-        <f t="shared" si="313"/>
+        <f t="shared" si="312"/>
         <v>8.6535756889816184E-4</v>
       </c>
       <c r="L319" s="3">
-        <f t="shared" si="313"/>
+        <f t="shared" si="312"/>
         <v>13.077753919593988</v>
       </c>
       <c r="N319" s="7">
@@ -18044,15 +18063,15 @@
         <v>9</v>
       </c>
       <c r="J320" s="3">
-        <f t="shared" ref="J320:L320" si="314">ABS(C320:C730 -O320:O730)</f>
+        <f t="shared" ref="J320:L320" si="313">ABS(C320:C730 -O320:O730)</f>
         <v>5.5089256899520933E-4</v>
       </c>
       <c r="K320" s="3">
-        <f t="shared" si="314"/>
+        <f t="shared" si="313"/>
         <v>6.3621456340001714E-4</v>
       </c>
       <c r="L320" s="3">
-        <f t="shared" si="314"/>
+        <f t="shared" si="313"/>
         <v>15.613536132781974</v>
       </c>
       <c r="N320" s="7">
@@ -18097,15 +18116,15 @@
         <v>41</v>
       </c>
       <c r="J321" s="3">
-        <f t="shared" ref="J321:L321" si="315">ABS(C321:C731 -O321:O731)</f>
+        <f t="shared" ref="J321:L321" si="314">ABS(C321:C731 -O321:O731)</f>
         <v>1.383985627803952E-3</v>
       </c>
       <c r="K321" s="3">
-        <f t="shared" si="315"/>
+        <f t="shared" si="314"/>
         <v>8.5807031049967009E-4</v>
       </c>
       <c r="L321" s="3">
-        <f t="shared" si="315"/>
+        <f t="shared" si="314"/>
         <v>12.353261355538052</v>
       </c>
       <c r="N321" s="7">
@@ -18150,15 +18169,15 @@
         <v>41</v>
       </c>
       <c r="J322" s="3">
-        <f t="shared" ref="J322:L322" si="316">ABS(C322:C732 -O322:O732)</f>
+        <f t="shared" ref="J322:L322" si="315">ABS(C322:C732 -O322:O732)</f>
         <v>6.215905840178948E-5</v>
       </c>
       <c r="K322" s="3">
-        <f t="shared" si="316"/>
+        <f t="shared" si="315"/>
         <v>4.6282033780187248E-4</v>
       </c>
       <c r="L322" s="3">
-        <f t="shared" si="316"/>
+        <f t="shared" si="315"/>
         <v>1.1896678525259858</v>
       </c>
       <c r="N322" s="7">
@@ -18203,15 +18222,15 @@
         <v>41</v>
       </c>
       <c r="J323" s="3">
-        <f t="shared" ref="J323:L323" si="317">ABS(C323:C733 -O323:O733)</f>
+        <f t="shared" ref="J323:L323" si="316">ABS(C323:C733 -O323:O733)</f>
         <v>9.6568415720099665E-4</v>
       </c>
       <c r="K323" s="3">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>1.0665826633982078E-3</v>
       </c>
       <c r="L323" s="3">
-        <f t="shared" si="317"/>
+        <f t="shared" si="316"/>
         <v>8.7851156632578977</v>
       </c>
       <c r="N323" s="7">
@@ -18256,15 +18275,15 @@
         <v>41</v>
       </c>
       <c r="J324" s="3">
-        <f t="shared" ref="J324:L324" si="318">ABS(C324:C734 -O324:O734)</f>
+        <f t="shared" ref="J324:L324" si="317">ABS(C324:C734 -O324:O734)</f>
         <v>1.3021641572024123E-3</v>
       </c>
       <c r="K324" s="3">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>4.9207266339834632E-4</v>
       </c>
       <c r="L324" s="3">
-        <f t="shared" si="318"/>
+        <f t="shared" si="317"/>
         <v>23.0332504632579</v>
       </c>
       <c r="N324" s="7">
@@ -18309,15 +18328,15 @@
         <v>41</v>
       </c>
       <c r="J325" s="3">
-        <f t="shared" ref="J325:L325" si="319">ABS(C325:C735 -O325:O735)</f>
+        <f t="shared" ref="J325:L325" si="318">ABS(C325:C735 -O325:O735)</f>
         <v>6.0807952230135243E-4</v>
       </c>
       <c r="K325" s="3">
-        <f t="shared" si="319"/>
+        <f t="shared" si="318"/>
         <v>5.6421567889941571E-4</v>
       </c>
       <c r="L325" s="3">
-        <f t="shared" si="319"/>
+        <f t="shared" si="318"/>
         <v>8.9237146795319404</v>
       </c>
       <c r="N325" s="7">
@@ -18362,15 +18381,15 @@
         <v>41</v>
       </c>
       <c r="J326" s="3">
-        <f t="shared" ref="J326:L326" si="320">ABS(C326:C736 -O326:O736)</f>
+        <f t="shared" ref="J326:L326" si="319">ABS(C326:C736 -O326:O736)</f>
         <v>1.7754111471006695E-3</v>
       </c>
       <c r="K326" s="3">
-        <f t="shared" si="320"/>
+        <f t="shared" si="319"/>
         <v>6.838932249024765E-4</v>
       </c>
       <c r="L326" s="3">
-        <f t="shared" si="320"/>
+        <f t="shared" si="319"/>
         <v>11.218577081418061</v>
       </c>
       <c r="N326" s="7">
@@ -18415,15 +18434,15 @@
         <v>41</v>
       </c>
       <c r="J327" s="3">
-        <f t="shared" ref="J327:L327" si="321">ABS(C327:C737 -O327:O737)</f>
+        <f t="shared" ref="J327:L327" si="320">ABS(C327:C737 -O327:O737)</f>
         <v>1.7324500707047719E-3</v>
       </c>
       <c r="K327" s="3">
-        <f t="shared" si="321"/>
+        <f t="shared" si="320"/>
         <v>1.742097971195733E-3</v>
       </c>
       <c r="L327" s="3">
-        <f t="shared" si="321"/>
+        <f t="shared" si="320"/>
         <v>5.4171648990260337</v>
       </c>
       <c r="N327" s="7">
@@ -18468,15 +18487,15 @@
         <v>50</v>
       </c>
       <c r="J328" s="3">
-        <f t="shared" ref="J328:L328" si="322">ABS(C328:C738 -O328:O738)</f>
+        <f t="shared" ref="J328:L328" si="321">ABS(C328:C738 -O328:O738)</f>
         <v>1.5974394571998118E-3</v>
       </c>
       <c r="K328" s="3">
-        <f t="shared" si="322"/>
+        <f t="shared" si="321"/>
         <v>2.501737102797108E-3</v>
       </c>
       <c r="L328" s="3">
-        <f t="shared" si="322"/>
+        <f t="shared" si="321"/>
         <v>9.2070467572369807</v>
       </c>
       <c r="N328" s="7">
@@ -18521,15 +18540,15 @@
         <v>25</v>
       </c>
       <c r="J329" s="3">
-        <f t="shared" ref="J329:L329" si="323">ABS(C329:C739 -O329:O739)</f>
+        <f t="shared" ref="J329:L329" si="322">ABS(C329:C739 -O329:O739)</f>
         <v>1.214414410299014E-3</v>
       </c>
       <c r="K329" s="3">
-        <f t="shared" si="323"/>
+        <f t="shared" si="322"/>
         <v>1.3694265539996309E-3</v>
       </c>
       <c r="L329" s="3">
-        <f t="shared" si="323"/>
+        <f t="shared" si="322"/>
         <v>10.586124299537914</v>
       </c>
       <c r="N329" s="7">
@@ -18574,15 +18593,15 @@
         <v>41</v>
       </c>
       <c r="J330" s="3">
-        <f t="shared" ref="J330:L330" si="324">ABS(C330:C740 -O330:O740)</f>
+        <f t="shared" ref="J330:L330" si="323">ABS(C330:C740 -O330:O740)</f>
         <v>7.3848828739642158E-4</v>
       </c>
       <c r="K330" s="3">
-        <f t="shared" si="324"/>
+        <f t="shared" si="323"/>
         <v>3.5535459750235532E-4</v>
       </c>
       <c r="L330" s="3">
-        <f t="shared" si="324"/>
+        <f t="shared" si="323"/>
         <v>4.5161798228319867</v>
       </c>
       <c r="N330" s="7">
@@ -18627,15 +18646,15 @@
         <v>41</v>
       </c>
       <c r="J331" s="3">
-        <f t="shared" ref="J331:L331" si="325">ABS(C331:C741 -O331:O741)</f>
+        <f t="shared" ref="J331:L331" si="324">ABS(C331:C741 -O331:O741)</f>
         <v>8.0110595460070044E-4</v>
       </c>
       <c r="K331" s="3">
-        <f t="shared" si="325"/>
+        <f t="shared" si="324"/>
         <v>7.4806652279590935E-4</v>
       </c>
       <c r="L331" s="3">
-        <f t="shared" si="325"/>
+        <f t="shared" si="324"/>
         <v>13.940612884971983</v>
       </c>
       <c r="N331" s="7">
@@ -18680,15 +18699,15 @@
         <v>9</v>
       </c>
       <c r="J332" s="3">
-        <f t="shared" ref="J332:L332" si="326">ABS(C332:C742 -O332:O742)</f>
+        <f t="shared" ref="J332:L332" si="325">ABS(C332:C742 -O332:O742)</f>
         <v>8.6905141320414714E-4</v>
       </c>
       <c r="K332" s="3">
-        <f t="shared" si="326"/>
+        <f t="shared" si="325"/>
         <v>3.9438301270422471E-4</v>
       </c>
       <c r="L332" s="3">
-        <f t="shared" si="326"/>
+        <f t="shared" si="325"/>
         <v>6.0543737683919971</v>
       </c>
       <c r="N332" s="7">
@@ -18733,15 +18752,15 @@
         <v>80</v>
       </c>
       <c r="J333" s="3">
-        <f t="shared" ref="J333:L333" si="327">ABS(C333:C743 -O333:O743)</f>
+        <f t="shared" ref="J333:L333" si="326">ABS(C333:C743 -O333:O743)</f>
         <v>7.2325000000006412E-4</v>
       </c>
       <c r="K333" s="3">
-        <f t="shared" si="327"/>
+        <f t="shared" si="326"/>
         <v>5.6252999999628628E-4</v>
       </c>
       <c r="L333" s="3">
-        <f t="shared" si="327"/>
+        <f t="shared" si="326"/>
         <v>1.2317365000000109</v>
       </c>
       <c r="N333" s="7">
@@ -18786,15 +18805,15 @@
         <v>48</v>
       </c>
       <c r="J334" s="3">
-        <f t="shared" ref="J334:L334" si="328">ABS(C334:C744 -O334:O744)</f>
+        <f t="shared" ref="J334:L334" si="327">ABS(C334:C744 -O334:O744)</f>
         <v>8.3810000000283935E-4</v>
       </c>
       <c r="K334" s="3">
-        <f t="shared" si="328"/>
+        <f t="shared" si="327"/>
         <v>3.6001000000140948E-4</v>
       </c>
       <c r="L334" s="3">
-        <f t="shared" si="328"/>
+        <f t="shared" si="327"/>
         <v>6.7212451999999985</v>
       </c>
       <c r="N334" s="7">
@@ -18839,15 +18858,15 @@
         <v>18</v>
       </c>
       <c r="J335" s="3">
-        <f t="shared" ref="J335:L335" si="329">ABS(C335:C745 -O335:O745)</f>
+        <f t="shared" ref="J335:L335" si="328">ABS(C335:C745 -O335:O745)</f>
         <v>8.0390412430375591E-4</v>
       </c>
       <c r="K335" s="3">
-        <f t="shared" si="329"/>
+        <f t="shared" si="328"/>
         <v>3.168123158019398E-4</v>
       </c>
       <c r="L335" s="3">
-        <f t="shared" si="329"/>
+        <f t="shared" si="328"/>
         <v>7.6227528419930195</v>
       </c>
       <c r="N335" s="7">
@@ -18892,15 +18911,15 @@
         <v>84</v>
       </c>
       <c r="J336" s="3">
-        <f t="shared" ref="J336:L336" si="330">ABS(C336:C746 -O336:O746)</f>
+        <f t="shared" ref="J336:L336" si="329">ABS(C336:C746 -O336:O746)</f>
         <v>6.5730084401138811E-5</v>
       </c>
       <c r="K336" s="3">
-        <f t="shared" si="330"/>
+        <f t="shared" si="329"/>
         <v>1.2431877169021277E-3</v>
       </c>
       <c r="L336" s="3">
-        <f t="shared" si="330"/>
+        <f t="shared" si="329"/>
         <v>0.89634798442796182</v>
       </c>
       <c r="N336" s="7">
@@ -18945,15 +18964,15 @@
         <v>9</v>
       </c>
       <c r="J337" s="3">
-        <f t="shared" ref="J337:L337" si="331">ABS(C337:C747 -O337:O747)</f>
+        <f t="shared" ref="J337:L337" si="330">ABS(C337:C747 -O337:O747)</f>
         <v>7.984272675045645E-4</v>
       </c>
       <c r="K337" s="3">
-        <f t="shared" si="331"/>
+        <f t="shared" si="330"/>
         <v>2.6815373949773402E-4</v>
       </c>
       <c r="L337" s="3">
-        <f t="shared" si="331"/>
+        <f t="shared" si="330"/>
         <v>20.264263823238025</v>
       </c>
       <c r="N337" s="7">
@@ -18998,15 +19017,15 @@
         <v>9</v>
       </c>
       <c r="J338" s="3">
-        <f t="shared" ref="J338:L338" si="332">ABS(C338:C748 -O338:O748)</f>
+        <f t="shared" ref="J338:L338" si="331">ABS(C338:C748 -O338:O748)</f>
         <v>5.9070726749865798E-4</v>
       </c>
       <c r="K338" s="3">
-        <f t="shared" si="332"/>
+        <f t="shared" si="331"/>
         <v>4.6367373950317869E-4</v>
       </c>
       <c r="L338" s="3">
-        <f t="shared" si="332"/>
+        <f t="shared" si="331"/>
         <v>19.602108023237975</v>
       </c>
       <c r="N338" s="7">
@@ -19051,15 +19070,15 @@
         <v>9</v>
       </c>
       <c r="J339" s="3">
-        <f t="shared" ref="J339:L339" si="333">ABS(C339:C749 -O339:O749)</f>
+        <f t="shared" ref="J339:L339" si="332">ABS(C339:C749 -O339:O749)</f>
         <v>1.9419726750413702E-4</v>
       </c>
       <c r="K339" s="3">
-        <f t="shared" si="333"/>
+        <f t="shared" si="332"/>
         <v>7.8309373949991823E-4</v>
       </c>
       <c r="L339" s="3">
-        <f t="shared" si="333"/>
+        <f t="shared" si="332"/>
         <v>17.930139323237995</v>
       </c>
       <c r="N339" s="7">
@@ -19104,15 +19123,15 @@
         <v>41</v>
       </c>
       <c r="J340" s="3">
-        <f t="shared" ref="J340:L340" si="334">ABS(C340:C750 -O340:O750)</f>
+        <f t="shared" ref="J340:L340" si="333">ABS(C340:C750 -O340:O750)</f>
         <v>3.9797810380548526E-4</v>
       </c>
       <c r="K340" s="3">
-        <f t="shared" si="334"/>
+        <f t="shared" si="333"/>
         <v>7.2472844799165159E-5</v>
       </c>
       <c r="L340" s="3">
-        <f t="shared" si="334"/>
+        <f t="shared" si="333"/>
         <v>43.30435948148704</v>
       </c>
       <c r="N340" s="7">
@@ -19157,15 +19176,15 @@
         <v>72</v>
       </c>
       <c r="J341" s="3">
-        <f t="shared" ref="J341:L341" si="335">ABS(C341:C751 -O341:O751)</f>
+        <f t="shared" ref="J341:L341" si="334">ABS(C341:C751 -O341:O751)</f>
         <v>1.9615260170269266E-4</v>
       </c>
       <c r="K341" s="3">
-        <f t="shared" si="335"/>
+        <f t="shared" si="334"/>
         <v>4.7853471100012257E-4</v>
       </c>
       <c r="L341" s="3">
-        <f t="shared" si="335"/>
+        <f t="shared" si="334"/>
         <v>8.8561554446420132</v>
       </c>
       <c r="N341" s="7">
@@ -19210,15 +19229,15 @@
         <v>59</v>
       </c>
       <c r="J342" s="3">
-        <f t="shared" ref="J342:L342" si="336">ABS(C342:C752 -O342:O752)</f>
+        <f t="shared" ref="J342:L342" si="335">ABS(C342:C752 -O342:O752)</f>
         <v>8.7229999998328367E-5</v>
       </c>
       <c r="K342" s="3">
-        <f t="shared" si="336"/>
+        <f t="shared" si="335"/>
         <v>1.182600000007028E-4</v>
       </c>
       <c r="L342" s="3">
-        <f t="shared" si="336"/>
+        <f t="shared" si="335"/>
         <v>39.104934299999968</v>
       </c>
       <c r="N342" s="7">
@@ -19263,15 +19282,15 @@
         <v>73</v>
       </c>
       <c r="J343" s="3">
-        <f t="shared" ref="J343:L343" si="337">ABS(C343:C753 -O343:O753)</f>
+        <f t="shared" ref="J343:L343" si="336">ABS(C343:C753 -O343:O753)</f>
         <v>3.792999999774338E-5</v>
       </c>
       <c r="K343" s="3">
-        <f t="shared" si="337"/>
+        <f t="shared" si="336"/>
         <v>8.0259999997167597E-5</v>
       </c>
       <c r="L343" s="3">
-        <f t="shared" si="337"/>
+        <f t="shared" si="336"/>
         <v>19.160237599999959</v>
       </c>
       <c r="N343" s="7">
@@ -19316,15 +19335,15 @@
         <v>13</v>
       </c>
       <c r="J344" s="3">
-        <f t="shared" ref="J344:L344" si="338">ABS(C344:C754 -O344:O754)</f>
+        <f t="shared" ref="J344:L344" si="337">ABS(C344:C754 -O344:O754)</f>
         <v>1.956755249921116E-5</v>
       </c>
       <c r="K344" s="3">
-        <f t="shared" si="338"/>
+        <f t="shared" si="337"/>
         <v>1.4415718769811292E-4</v>
       </c>
       <c r="L344" s="3">
-        <f t="shared" si="338"/>
+        <f t="shared" si="337"/>
         <v>12.396592638644961</v>
       </c>
       <c r="N344" s="7">
@@ -19369,15 +19388,15 @@
         <v>45</v>
       </c>
       <c r="J345" s="3">
-        <f t="shared" ref="J345:L345" si="339">ABS(C345:C755 -O345:O755)</f>
+        <f t="shared" ref="J345:L345" si="338">ABS(C345:C755 -O345:O755)</f>
         <v>1.0331000000007862E-4</v>
       </c>
       <c r="K345" s="3">
-        <f t="shared" si="339"/>
+        <f t="shared" si="338"/>
         <v>1.0670999999717878E-4</v>
       </c>
       <c r="L345" s="3">
-        <f t="shared" si="339"/>
+        <f t="shared" si="338"/>
         <v>32.907468600000016</v>
       </c>
       <c r="N345" s="7">
@@ -19422,15 +19441,15 @@
         <v>14</v>
       </c>
       <c r="J346" s="3">
-        <f t="shared" ref="J346:L346" si="340">ABS(C346:C756 -O346:O756)</f>
+        <f t="shared" ref="J346:L346" si="339">ABS(C346:C756 -O346:O756)</f>
         <v>2.426327379012605E-4</v>
       </c>
       <c r="K346" s="3">
-        <f t="shared" si="340"/>
+        <f t="shared" si="339"/>
         <v>8.0411940402314031E-5</v>
       </c>
       <c r="L346" s="3">
-        <f t="shared" si="340"/>
+        <f t="shared" si="339"/>
         <v>5.4048172451520031</v>
       </c>
       <c r="N346" s="7">
@@ -19475,15 +19494,15 @@
         <v>9</v>
       </c>
       <c r="J347" s="3">
-        <f t="shared" ref="J347:L347" si="341">ABS(C347:C757 -O347:O757)</f>
+        <f t="shared" ref="J347:L347" si="340">ABS(C347:C757 -O347:O757)</f>
         <v>9.0785179720143105E-4</v>
       </c>
       <c r="K347" s="3">
-        <f t="shared" si="341"/>
+        <f t="shared" si="340"/>
         <v>9.5689289729961047E-4</v>
       </c>
       <c r="L347" s="3">
-        <f t="shared" si="341"/>
+        <f t="shared" si="340"/>
         <v>1.6707165028849431</v>
       </c>
       <c r="N347" s="7">
@@ -19528,15 +19547,15 @@
         <v>41</v>
       </c>
       <c r="J348" s="3">
-        <f t="shared" ref="J348:L348" si="342">ABS(C348:C758 -O348:O758)</f>
+        <f t="shared" ref="J348:L348" si="341">ABS(C348:C758 -O348:O758)</f>
         <v>1.4860923863011521E-3</v>
       </c>
       <c r="K348" s="3">
-        <f t="shared" si="342"/>
+        <f t="shared" si="341"/>
         <v>1.1198136798000746E-3</v>
       </c>
       <c r="L348" s="3">
-        <f t="shared" si="342"/>
+        <f t="shared" si="341"/>
         <v>18.807751139785978</v>
       </c>
       <c r="N348" s="7">
@@ -19581,15 +19600,15 @@
         <v>70</v>
       </c>
       <c r="J349" s="3">
-        <f t="shared" ref="J349:L349" si="343">ABS(C349:C759 -O349:O759)</f>
+        <f t="shared" ref="J349:L349" si="342">ABS(C349:C759 -O349:O759)</f>
         <v>2.1113579509801639E-4</v>
       </c>
       <c r="K349" s="3">
-        <f t="shared" si="343"/>
+        <f t="shared" si="342"/>
         <v>1.9481000419574457E-4</v>
       </c>
       <c r="L349" s="3">
-        <f t="shared" si="343"/>
+        <f t="shared" si="342"/>
         <v>8.0005933875289656</v>
       </c>
       <c r="N349" s="7">
@@ -19634,15 +19653,15 @@
         <v>64</v>
       </c>
       <c r="J350" s="3">
-        <f t="shared" ref="J350:L350" si="344">ABS(C350:C760 -O350:O760)</f>
+        <f t="shared" ref="J350:L350" si="343">ABS(C350:C760 -O350:O760)</f>
         <v>7.3722876500426082E-4</v>
       </c>
       <c r="K350" s="3">
-        <f t="shared" si="344"/>
+        <f t="shared" si="343"/>
         <v>3.4241685819580425E-4</v>
       </c>
       <c r="L350" s="3">
-        <f t="shared" si="344"/>
+        <f t="shared" si="343"/>
         <v>14.899883041719022</v>
       </c>
       <c r="N350" s="7">
@@ -19687,15 +19706,15 @@
         <v>41</v>
       </c>
       <c r="J351" s="3">
-        <f t="shared" ref="J351:L351" si="345">ABS(C351:C761 -O351:O761)</f>
+        <f t="shared" ref="J351:L351" si="344">ABS(C351:C761 -O351:O761)</f>
         <v>1.8206365636999067E-3</v>
       </c>
       <c r="K351" s="3">
-        <f t="shared" si="345"/>
+        <f t="shared" si="344"/>
         <v>5.2770019739512009E-4</v>
       </c>
       <c r="L351" s="3">
-        <f t="shared" si="345"/>
+        <f t="shared" si="344"/>
         <v>25.443661903562997</v>
       </c>
       <c r="N351" s="7">
@@ -19740,15 +19759,15 @@
         <v>9</v>
       </c>
       <c r="J352" s="3">
-        <f t="shared" ref="J352:L352" si="346">ABS(C352:C762 -O352:O762)</f>
+        <f t="shared" ref="J352:L352" si="345">ABS(C352:C762 -O352:O762)</f>
         <v>1.4643291497975497E-3</v>
       </c>
       <c r="K352" s="3">
-        <f t="shared" si="346"/>
+        <f t="shared" si="345"/>
         <v>7.1828667149986813E-4</v>
       </c>
       <c r="L352" s="3">
-        <f t="shared" si="346"/>
+        <f t="shared" si="345"/>
         <v>13.422290158608007</v>
       </c>
       <c r="N352" s="7">
@@ -19793,15 +19812,15 @@
         <v>41</v>
       </c>
       <c r="J353" s="3">
-        <f t="shared" ref="J353:L353" si="347">ABS(C353:C763 -O353:O763)</f>
+        <f t="shared" ref="J353:L353" si="346">ABS(C353:C763 -O353:O763)</f>
         <v>1.7665327523985752E-3</v>
       </c>
       <c r="K353" s="3">
-        <f t="shared" si="347"/>
+        <f t="shared" si="346"/>
         <v>1.8095287470032417E-4</v>
       </c>
       <c r="L353" s="3">
-        <f t="shared" si="347"/>
+        <f t="shared" si="346"/>
         <v>4.0764224144660375</v>
       </c>
       <c r="N353" s="7">
@@ -19846,15 +19865,15 @@
         <v>41</v>
       </c>
       <c r="J354" s="3">
-        <f t="shared" ref="J354:L354" si="348">ABS(C354:C764 -O354:O764)</f>
+        <f t="shared" ref="J354:L354" si="347">ABS(C354:C764 -O354:O764)</f>
         <v>6.0339710920231937E-4</v>
       </c>
       <c r="K354" s="3">
-        <f t="shared" si="348"/>
+        <f t="shared" si="347"/>
         <v>1.8069039980161961E-4</v>
       </c>
       <c r="L354" s="3">
-        <f t="shared" si="348"/>
+        <f t="shared" si="347"/>
         <v>10.601416681489013</v>
       </c>
       <c r="N354" s="7">
@@ -19899,15 +19918,15 @@
         <v>9</v>
       </c>
       <c r="J355" s="3">
-        <f t="shared" ref="J355:L355" si="349">ABS(C355:C765 -O355:O765)</f>
+        <f t="shared" ref="J355:L355" si="348">ABS(C355:C765 -O355:O765)</f>
         <v>7.7623333360321567E-4</v>
       </c>
       <c r="K355" s="3">
-        <f t="shared" si="349"/>
+        <f t="shared" si="348"/>
         <v>9.8505063405696092E-5</v>
       </c>
       <c r="L355" s="3">
-        <f t="shared" si="349"/>
+        <f t="shared" si="348"/>
         <v>5.998069601924044</v>
       </c>
       <c r="N355" s="7">
@@ -19952,15 +19971,15 @@
         <v>9</v>
       </c>
       <c r="J356" s="3">
-        <f t="shared" ref="J356:L356" si="350">ABS(C356:C766 -O356:O766)</f>
+        <f t="shared" ref="J356:L356" si="349">ABS(C356:C766 -O356:O766)</f>
         <v>5.9865061859909474E-4</v>
       </c>
       <c r="K356" s="3">
-        <f t="shared" si="350"/>
+        <f t="shared" si="349"/>
         <v>6.2351029800566948E-4</v>
       </c>
       <c r="L356" s="3">
-        <f t="shared" si="350"/>
+        <f t="shared" si="349"/>
         <v>2.1523347147490313</v>
       </c>
       <c r="N356" s="7">
@@ -20005,15 +20024,15 @@
         <v>9</v>
       </c>
       <c r="J357" s="3">
-        <f t="shared" ref="J357:L357" si="351">ABS(C357:C767 -O357:O767)</f>
+        <f t="shared" ref="J357:L357" si="350">ABS(C357:C767 -O357:O767)</f>
         <v>2.4573905329816625E-4</v>
       </c>
       <c r="K357" s="3">
-        <f t="shared" si="351"/>
+        <f t="shared" si="350"/>
         <v>1.1550509070445969E-4</v>
       </c>
       <c r="L357" s="3">
-        <f t="shared" si="351"/>
+        <f t="shared" si="350"/>
         <v>5.3938748164639492</v>
       </c>
       <c r="N357" s="7">
@@ -20058,15 +20077,15 @@
         <v>41</v>
       </c>
       <c r="J358" s="3">
-        <f t="shared" ref="J358:L358" si="352">ABS(C358:C768 -O358:O768)</f>
+        <f t="shared" ref="J358:L358" si="351">ABS(C358:C768 -O358:O768)</f>
         <v>2.7922175289774032E-4</v>
       </c>
       <c r="K358" s="3">
-        <f t="shared" si="352"/>
+        <f t="shared" si="351"/>
         <v>5.0824450909914276E-4</v>
       </c>
       <c r="L358" s="3">
-        <f t="shared" si="352"/>
+        <f t="shared" si="351"/>
         <v>4.9080006307000303</v>
       </c>
       <c r="N358" s="7">
@@ -20111,15 +20130,15 @@
         <v>41</v>
       </c>
       <c r="J359" s="3">
-        <f t="shared" ref="J359:L359" si="353">ABS(C359:C769 -O359:O769)</f>
+        <f t="shared" ref="J359:L359" si="352">ABS(C359:C769 -O359:O769)</f>
         <v>7.2745873080037882E-4</v>
       </c>
       <c r="K359" s="3">
-        <f t="shared" si="353"/>
+        <f t="shared" si="352"/>
         <v>9.2593145710395675E-4</v>
       </c>
       <c r="L359" s="3">
-        <f t="shared" si="353"/>
+        <f t="shared" si="352"/>
         <v>9.1950911462729437</v>
       </c>
       <c r="N359" s="7">
@@ -20164,15 +20183,15 @@
         <v>41</v>
       </c>
       <c r="J360" s="3">
-        <f t="shared" ref="J360:L360" si="354">ABS(C360:C770 -O360:O770)</f>
+        <f t="shared" ref="J360:L360" si="353">ABS(C360:C770 -O360:O770)</f>
         <v>7.2218171489879524E-4</v>
       </c>
       <c r="K360" s="3">
-        <f t="shared" si="354"/>
+        <f t="shared" si="353"/>
         <v>5.1619333639507659E-4</v>
       </c>
       <c r="L360" s="3">
-        <f t="shared" si="354"/>
+        <f t="shared" si="353"/>
         <v>4.0664888793439786</v>
       </c>
       <c r="N360" s="7">
@@ -20217,15 +20236,15 @@
         <v>41</v>
       </c>
       <c r="J361" s="3">
-        <f t="shared" ref="J361:L361" si="355">ABS(C361:C771 -O361:O771)</f>
+        <f t="shared" ref="J361:L361" si="354">ABS(C361:C771 -O361:O771)</f>
         <v>1.1883038849020977E-3</v>
       </c>
       <c r="K361" s="3">
-        <f t="shared" si="355"/>
+        <f t="shared" si="354"/>
         <v>9.4035468379871645E-4</v>
       </c>
       <c r="L361" s="3">
-        <f t="shared" si="355"/>
+        <f t="shared" si="354"/>
         <v>7.8306858162509343</v>
       </c>
       <c r="N361" s="7">
@@ -20270,15 +20289,15 @@
         <v>41</v>
       </c>
       <c r="J362" s="3">
-        <f t="shared" ref="J362:L362" si="356">ABS(C362:C772 -O362:O772)</f>
+        <f t="shared" ref="J362:L362" si="355">ABS(C362:C772 -O362:O772)</f>
         <v>9.6713383410218512E-4</v>
       </c>
       <c r="K362" s="3">
-        <f t="shared" si="356"/>
+        <f t="shared" si="355"/>
         <v>1.6493378018012095E-3</v>
       </c>
       <c r="L362" s="3">
-        <f t="shared" si="356"/>
+        <f t="shared" si="355"/>
         <v>2.2150664243670235</v>
       </c>
       <c r="N362" s="7">
@@ -20323,15 +20342,15 @@
         <v>9</v>
       </c>
       <c r="J363" s="3">
-        <f t="shared" ref="J363:L363" si="357">ABS(C363:C773 -O363:O773)</f>
+        <f t="shared" ref="J363:L363" si="356">ABS(C363:C773 -O363:O773)</f>
         <v>4.0586790430552355E-4</v>
       </c>
       <c r="K363" s="3">
-        <f t="shared" si="357"/>
+        <f t="shared" si="356"/>
         <v>4.4648367269672917E-4</v>
       </c>
       <c r="L363" s="3">
-        <f t="shared" si="357"/>
+        <f t="shared" si="356"/>
         <v>14.106198203894905</v>
       </c>
       <c r="N363" s="7">
@@ -20376,15 +20395,15 @@
         <v>41</v>
       </c>
       <c r="J364" s="3">
-        <f t="shared" ref="J364:L364" si="358">ABS(C364:C774 -O364:O774)</f>
+        <f t="shared" ref="J364:L364" si="357">ABS(C364:C774 -O364:O774)</f>
         <v>1.1556204780021062E-3</v>
       </c>
       <c r="K364" s="3">
-        <f t="shared" si="358"/>
+        <f t="shared" si="357"/>
         <v>1.3820093800021027E-3</v>
       </c>
       <c r="L364" s="3">
-        <f t="shared" si="358"/>
+        <f t="shared" si="357"/>
         <v>10.995568571183071</v>
       </c>
       <c r="N364" s="7">
@@ -20429,15 +20448,15 @@
         <v>41</v>
       </c>
       <c r="J365" s="3">
-        <f t="shared" ref="J365:L365" si="359">ABS(C365:C775 -O365:O775)</f>
+        <f t="shared" ref="J365:L365" si="358">ABS(C365:C775 -O365:O775)</f>
         <v>5.8955863680409948E-4</v>
       </c>
       <c r="K365" s="3">
-        <f t="shared" si="359"/>
+        <f t="shared" si="358"/>
         <v>1.1974072373988065E-3</v>
       </c>
       <c r="L365" s="3">
-        <f t="shared" si="359"/>
+        <f t="shared" si="358"/>
         <v>13.032233837301078</v>
       </c>
       <c r="N365" s="7">
@@ -20482,15 +20501,15 @@
         <v>21</v>
       </c>
       <c r="J366" s="3">
-        <f t="shared" ref="J366:L366" si="360">ABS(C366:C776 -O366:O776)</f>
+        <f t="shared" ref="J366:L366" si="359">ABS(C366:C776 -O366:O776)</f>
         <v>2.0871448160164618E-4</v>
       </c>
       <c r="K366" s="3">
-        <f t="shared" si="360"/>
+        <f t="shared" si="359"/>
         <v>7.0086023979598622E-4</v>
       </c>
       <c r="L366" s="3">
-        <f t="shared" si="360"/>
+        <f t="shared" si="359"/>
         <v>5.6169667573019524</v>
       </c>
       <c r="N366" s="7">
@@ -20535,15 +20554,15 @@
         <v>9</v>
       </c>
       <c r="J367" s="3">
-        <f t="shared" ref="J367:L367" si="361">ABS(C367:C777 -O367:O777)</f>
+        <f t="shared" ref="J367:L367" si="360">ABS(C367:C777 -O367:O777)</f>
         <v>4.3216388405653561E-5</v>
       </c>
       <c r="K367" s="3">
-        <f t="shared" si="361"/>
+        <f t="shared" si="360"/>
         <v>1.0276229459975639E-3</v>
       </c>
       <c r="L367" s="3">
-        <f t="shared" si="361"/>
+        <f t="shared" si="360"/>
         <v>0.13777069679895249</v>
       </c>
       <c r="N367" s="7">
@@ -20588,15 +20607,15 @@
         <v>9</v>
       </c>
       <c r="J368" s="3">
-        <f t="shared" ref="J368:L368" si="362">ABS(C368:C778 -O368:O778)</f>
+        <f t="shared" ref="J368:L368" si="361">ABS(C368:C778 -O368:O778)</f>
         <v>1.715988377299027E-3</v>
       </c>
       <c r="K368" s="3">
-        <f t="shared" si="362"/>
+        <f t="shared" si="361"/>
         <v>1.3616478647051622E-3</v>
       </c>
       <c r="L368" s="3">
-        <f t="shared" si="362"/>
+        <f t="shared" si="361"/>
         <v>12.583300937022045</v>
       </c>
       <c r="N368" s="7">
@@ -20641,15 +20660,15 @@
         <v>41</v>
       </c>
       <c r="J369" s="3">
-        <f t="shared" ref="J369:L369" si="363">ABS(C369:C779 -O369:O779)</f>
+        <f t="shared" ref="J369:L369" si="362">ABS(C369:C779 -O369:O779)</f>
         <v>1.0356862329956584E-3</v>
       </c>
       <c r="K369" s="3">
-        <f t="shared" si="363"/>
+        <f t="shared" si="362"/>
         <v>1.9250201735943051E-3</v>
       </c>
       <c r="L369" s="3">
-        <f t="shared" si="363"/>
+        <f t="shared" si="362"/>
         <v>6.9848968331749575</v>
       </c>
       <c r="N369" s="7">
@@ -20694,15 +20713,15 @@
         <v>100</v>
       </c>
       <c r="J370" s="3">
-        <f t="shared" ref="J370:L370" si="364">ABS(C370:C780 -O370:O780)</f>
+        <f t="shared" ref="J370:L370" si="363">ABS(C370:C780 -O370:O780)</f>
         <v>8.9186232997917614E-5</v>
       </c>
       <c r="K370" s="3">
-        <f t="shared" si="364"/>
+        <f t="shared" si="363"/>
         <v>1.3770701735964508E-3</v>
       </c>
       <c r="L370" s="3">
-        <f t="shared" si="364"/>
+        <f t="shared" si="363"/>
         <v>5.2485865331749437</v>
       </c>
       <c r="N370" s="7">
@@ -20747,15 +20766,15 @@
         <v>13</v>
       </c>
       <c r="J371" s="3">
-        <f t="shared" ref="J371:L371" si="365">ABS(C371:C781 -O371:O781)</f>
+        <f t="shared" ref="J371:L371" si="364">ABS(C371:C781 -O371:O781)</f>
         <v>1.4049621753002839E-3</v>
       </c>
       <c r="K371" s="3">
-        <f t="shared" si="365"/>
+        <f t="shared" si="364"/>
         <v>1.0776459772969815E-3</v>
       </c>
       <c r="L371" s="3">
-        <f t="shared" si="365"/>
+        <f t="shared" si="364"/>
         <v>2.9117946733250619</v>
       </c>
       <c r="N371" s="7">
@@ -20800,15 +20819,15 @@
         <v>9</v>
       </c>
       <c r="J372" s="3">
-        <f t="shared" ref="J372:L372" si="366">ABS(C372:C782 -O372:O782)</f>
+        <f t="shared" ref="J372:L372" si="365">ABS(C372:C782 -O372:O782)</f>
         <v>2.0188599330950296E-3</v>
       </c>
       <c r="K372" s="3">
-        <f t="shared" si="366"/>
+        <f t="shared" si="365"/>
         <v>1.3533179851989985E-3</v>
       </c>
       <c r="L372" s="3">
-        <f t="shared" si="366"/>
+        <f t="shared" si="365"/>
         <v>32.958129503945997</v>
       </c>
       <c r="N372" s="7">
@@ -20853,15 +20872,15 @@
         <v>41</v>
       </c>
       <c r="J373" s="3">
-        <f t="shared" ref="J373:L373" si="367">ABS(C373:C783 -O373:O783)</f>
+        <f t="shared" ref="J373:L373" si="366">ABS(C373:C783 -O373:O783)</f>
         <v>1.8798892051989924E-3</v>
       </c>
       <c r="K373" s="3">
-        <f t="shared" si="367"/>
+        <f t="shared" si="366"/>
         <v>6.7923981890061214E-4</v>
       </c>
       <c r="L373" s="3">
-        <f t="shared" si="367"/>
+        <f t="shared" si="366"/>
         <v>5.105627186592983</v>
       </c>
       <c r="N373" s="7">
@@ -20906,15 +20925,15 @@
         <v>89</v>
       </c>
       <c r="J374" s="3">
-        <f t="shared" ref="J374:L374" si="368">ABS(C374:C784 -O374:O784)</f>
+        <f t="shared" ref="J374:L374" si="367">ABS(C374:C784 -O374:O784)</f>
         <v>1.2748343741009194E-3</v>
       </c>
       <c r="K374" s="3">
-        <f t="shared" si="368"/>
+        <f t="shared" si="367"/>
         <v>1.3234716529808566E-4</v>
       </c>
       <c r="L374" s="3">
-        <f t="shared" si="368"/>
+        <f t="shared" si="367"/>
         <v>22.364643910711948</v>
       </c>
       <c r="N374" s="7">
@@ -20959,15 +20978,15 @@
         <v>41</v>
       </c>
       <c r="J375" s="3">
-        <f t="shared" ref="J375:L375" si="369">ABS(C375:C785 -O375:O785)</f>
+        <f t="shared" ref="J375:L375" si="368">ABS(C375:C785 -O375:O785)</f>
         <v>1.9308689400006074E-3</v>
       </c>
       <c r="K375" s="3">
-        <f t="shared" si="369"/>
+        <f t="shared" si="368"/>
         <v>1.1315990281985933E-3</v>
       </c>
       <c r="L375" s="3">
-        <f t="shared" si="369"/>
+        <f t="shared" si="368"/>
         <v>10.740230678316038</v>
       </c>
       <c r="N375" s="7">
@@ -21012,15 +21031,15 @@
         <v>41</v>
       </c>
       <c r="J376" s="3">
-        <f t="shared" ref="J376:L376" si="370">ABS(C376:C786 -O376:O786)</f>
+        <f t="shared" ref="J376:L376" si="369">ABS(C376:C786 -O376:O786)</f>
         <v>1.3304630831001418E-3</v>
       </c>
       <c r="K376" s="3">
-        <f t="shared" si="370"/>
+        <f t="shared" si="369"/>
         <v>3.1597084920065299E-4</v>
       </c>
       <c r="L376" s="3">
-        <f t="shared" si="370"/>
+        <f t="shared" si="369"/>
         <v>26.879995087203952</v>
       </c>
       <c r="N376" s="7">
@@ -21065,15 +21084,15 @@
         <v>70</v>
       </c>
       <c r="J377" s="3">
-        <f t="shared" ref="J377:L377" si="371">ABS(C377:C787 -O377:O787)</f>
+        <f t="shared" ref="J377:L377" si="370">ABS(C377:C787 -O377:O787)</f>
         <v>1.4282414772992524E-3</v>
       </c>
       <c r="K377" s="3">
-        <f t="shared" si="371"/>
+        <f t="shared" si="370"/>
         <v>4.6149972940412454E-4</v>
       </c>
       <c r="L377" s="3">
-        <f t="shared" si="371"/>
+        <f t="shared" si="370"/>
         <v>19.047923080326086</v>
       </c>
       <c r="N377" s="7">
@@ -21118,15 +21137,15 @@
         <v>71</v>
       </c>
       <c r="J378" s="3">
-        <f t="shared" ref="J378:L378" si="372">ABS(C378:C788 -O378:O788)</f>
+        <f t="shared" ref="J378:L378" si="371">ABS(C378:C788 -O378:O788)</f>
         <v>1.29679147730144E-3</v>
       </c>
       <c r="K378" s="3">
-        <f t="shared" si="372"/>
+        <f t="shared" si="371"/>
         <v>2.2229729403022702E-5</v>
       </c>
       <c r="L378" s="3">
-        <f t="shared" si="372"/>
+        <f t="shared" si="371"/>
         <v>18.950963380326016</v>
       </c>
       <c r="N378" s="7">
@@ -21171,15 +21190,15 @@
         <v>9</v>
       </c>
       <c r="J379" s="3">
-        <f t="shared" ref="J379:L379" si="373">ABS(C379:C789 -O379:O789)</f>
+        <f t="shared" ref="J379:L379" si="372">ABS(C379:C789 -O379:O789)</f>
         <v>1.0744410420997497E-3</v>
       </c>
       <c r="K379" s="3">
-        <f t="shared" si="373"/>
+        <f t="shared" si="372"/>
         <v>2.6730889559445359E-4</v>
       </c>
       <c r="L379" s="3">
-        <f t="shared" si="373"/>
+        <f t="shared" si="372"/>
         <v>3.7844007281270251</v>
       </c>
       <c r="N379" s="7">
@@ -21224,15 +21243,15 @@
         <v>9</v>
       </c>
       <c r="J380" s="3">
-        <f t="shared" ref="J380:L380" si="374">ABS(C380:C790 -O380:O790)</f>
+        <f t="shared" ref="J380:L380" si="373">ABS(C380:C790 -O380:O790)</f>
         <v>4.3563566920568064E-4</v>
       </c>
       <c r="K380" s="3">
-        <f t="shared" si="374"/>
+        <f t="shared" si="373"/>
         <v>5.3118081449810006E-4</v>
       </c>
       <c r="L380" s="3">
-        <f t="shared" si="374"/>
+        <f t="shared" si="373"/>
         <v>7.8491197997960853</v>
       </c>
       <c r="N380" s="7">
@@ -21277,15 +21296,15 @@
         <v>41</v>
       </c>
       <c r="J381" s="3">
-        <f t="shared" ref="J381:L381" si="375">ABS(C381:C791 -O381:O791)</f>
+        <f t="shared" ref="J381:L381" si="374">ABS(C381:C791 -O381:O791)</f>
         <v>1.5046999522994042E-3</v>
       </c>
       <c r="K381" s="3">
-        <f t="shared" si="375"/>
+        <f t="shared" si="374"/>
         <v>2.8953257239550112E-4</v>
       </c>
       <c r="L381" s="3">
-        <f t="shared" si="375"/>
+        <f t="shared" si="374"/>
         <v>2.9394893496260011</v>
       </c>
       <c r="N381" s="7">
@@ -21330,15 +21349,15 @@
         <v>41</v>
       </c>
       <c r="J382" s="3">
-        <f t="shared" ref="J382:L382" si="376">ABS(C382:C792 -O382:O792)</f>
+        <f t="shared" ref="J382:L382" si="375">ABS(C382:C792 -O382:O792)</f>
         <v>2.7464188239889609E-4</v>
       </c>
       <c r="K382" s="3">
-        <f t="shared" si="376"/>
+        <f t="shared" si="375"/>
         <v>2.5182063403406119E-5</v>
       </c>
       <c r="L382" s="3">
-        <f t="shared" si="376"/>
+        <f t="shared" si="375"/>
         <v>0.66677294858300229</v>
       </c>
       <c r="N382" s="7">
@@ -21383,15 +21402,15 @@
         <v>41</v>
       </c>
       <c r="J383" s="3">
-        <f t="shared" ref="J383:L383" si="377">ABS(C383:C793 -O383:O793)</f>
+        <f t="shared" ref="J383:L383" si="376">ABS(C383:C793 -O383:O793)</f>
         <v>1.1977063950041611E-4</v>
       </c>
       <c r="K383" s="3">
-        <f t="shared" si="377"/>
+        <f t="shared" si="376"/>
         <v>7.7822790409953768E-4</v>
       </c>
       <c r="L383" s="3">
-        <f t="shared" si="377"/>
+        <f t="shared" si="376"/>
         <v>1.6483968862189613</v>
       </c>
       <c r="N383" s="7">
@@ -21436,15 +21455,15 @@
         <v>41</v>
       </c>
       <c r="J384" s="3">
-        <f t="shared" ref="J384:L384" si="378">ABS(C384:C794 -O384:O794)</f>
+        <f t="shared" ref="J384:L384" si="377">ABS(C384:C794 -O384:O794)</f>
         <v>7.3551110098435402E-5</v>
       </c>
       <c r="K384" s="3">
-        <f t="shared" si="378"/>
+        <f t="shared" si="377"/>
         <v>1.2086900792027677E-3</v>
       </c>
       <c r="L384" s="3">
-        <f t="shared" si="378"/>
+        <f t="shared" si="377"/>
         <v>5.6744313249259903</v>
       </c>
       <c r="N384" s="7">
@@ -21489,15 +21508,15 @@
         <v>41</v>
       </c>
       <c r="J385" s="3">
-        <f t="shared" ref="J385:L385" si="379">ABS(C385:C795 -O385:O795)</f>
+        <f t="shared" ref="J385:L385" si="378">ABS(C385:C795 -O385:O795)</f>
         <v>5.2661164060197052E-4</v>
       </c>
       <c r="K385" s="3">
-        <f t="shared" si="379"/>
+        <f t="shared" si="378"/>
         <v>4.3002224570187764E-4</v>
       </c>
       <c r="L385" s="3">
-        <f t="shared" si="379"/>
+        <f t="shared" si="378"/>
         <v>9.7858392849669826</v>
       </c>
       <c r="N385" s="7">
@@ -21542,15 +21561,15 @@
         <v>41</v>
       </c>
       <c r="J386" s="3">
-        <f t="shared" ref="J386:L386" si="380">ABS(C386:C796 -O386:O796)</f>
+        <f t="shared" ref="J386:L386" si="379">ABS(C386:C796 -O386:O796)</f>
         <v>1.2615593119846835E-4</v>
       </c>
       <c r="K386" s="3">
-        <f t="shared" si="380"/>
+        <f t="shared" si="379"/>
         <v>8.6950947070363327E-4</v>
       </c>
       <c r="L386" s="3">
-        <f t="shared" si="380"/>
+        <f t="shared" si="379"/>
         <v>8.9497637365039964</v>
       </c>
       <c r="N386" s="7">
@@ -21595,15 +21614,15 @@
         <v>41</v>
       </c>
       <c r="J387" s="3">
-        <f t="shared" ref="J387:L387" si="381">ABS(C387:C797 -O387:O797)</f>
+        <f t="shared" ref="J387:L387" si="380">ABS(C387:C797 -O387:O797)</f>
         <v>6.9491153519862792E-4</v>
       </c>
       <c r="K387" s="3">
-        <f t="shared" si="381"/>
+        <f t="shared" si="380"/>
         <v>3.9729190499571132E-4</v>
       </c>
       <c r="L387" s="3">
-        <f t="shared" si="381"/>
+        <f t="shared" si="380"/>
         <v>4.6512961040440359</v>
       </c>
       <c r="N387" s="7">
@@ -21648,15 +21667,15 @@
         <v>9</v>
       </c>
       <c r="J388" s="3">
-        <f t="shared" ref="J388:L388" si="382">ABS(C388:C798 -O388:O798)</f>
+        <f t="shared" ref="J388:L388" si="381">ABS(C388:C798 -O388:O798)</f>
         <v>9.1645252219763051E-4</v>
       </c>
       <c r="K388" s="3">
-        <f t="shared" si="382"/>
+        <f t="shared" si="381"/>
         <v>2.3323579929979132E-4</v>
       </c>
       <c r="L388" s="3">
-        <f t="shared" si="382"/>
+        <f t="shared" si="381"/>
         <v>2.1158878745529819</v>
       </c>
       <c r="N388" s="7">
@@ -21701,15 +21720,15 @@
         <v>61</v>
       </c>
       <c r="J389" s="3">
-        <f t="shared" ref="J389:L389" si="383">ABS(C389:C799 -O389:O799)</f>
+        <f t="shared" ref="J389:L389" si="382">ABS(C389:C799 -O389:O799)</f>
         <v>6.6831276100032255E-4</v>
       </c>
       <c r="K389" s="3">
-        <f t="shared" si="383"/>
+        <f t="shared" si="382"/>
         <v>5.4884701249591217E-4</v>
       </c>
       <c r="L389" s="3">
-        <f t="shared" si="383"/>
+        <f t="shared" si="382"/>
         <v>1.794169718236958</v>
       </c>
       <c r="N389" s="7">
@@ -21754,15 +21773,15 @@
         <v>37</v>
       </c>
       <c r="J390" s="3">
-        <f t="shared" ref="J390:L390" si="384">ABS(C390:C800 -O390:O800)</f>
+        <f t="shared" ref="J390:L390" si="383">ABS(C390:C800 -O390:O800)</f>
         <v>7.6241081040251402E-4</v>
       </c>
       <c r="K390" s="3">
-        <f t="shared" si="384"/>
+        <f t="shared" si="383"/>
         <v>1.7194568640377383E-4</v>
       </c>
       <c r="L390" s="3">
-        <f t="shared" si="384"/>
+        <f t="shared" si="383"/>
         <v>7.6242487525710203</v>
       </c>
       <c r="N390" s="7">
@@ -21807,15 +21826,15 @@
         <v>41</v>
       </c>
       <c r="J391" s="3">
-        <f t="shared" ref="J391:L391" si="385">ABS(C391:C801 -O391:O801)</f>
+        <f t="shared" ref="J391:L391" si="384">ABS(C391:C801 -O391:O801)</f>
         <v>8.0998188919778613E-4</v>
       </c>
       <c r="K391" s="3">
-        <f t="shared" si="385"/>
+        <f t="shared" si="384"/>
         <v>7.7817608320174259E-4</v>
       </c>
       <c r="L391" s="3">
-        <f t="shared" si="385"/>
+        <f t="shared" si="384"/>
         <v>5.8518393668030058</v>
       </c>
       <c r="N391" s="7">
@@ -21860,15 +21879,15 @@
         <v>41</v>
       </c>
       <c r="J392" s="3">
-        <f t="shared" ref="J392:L392" si="386">ABS(C392:C802 -O392:O802)</f>
+        <f t="shared" ref="J392:L392" si="385">ABS(C392:C802 -O392:O802)</f>
         <v>4.3938108970564826E-4</v>
       </c>
       <c r="K392" s="3">
-        <f t="shared" si="386"/>
+        <f t="shared" si="385"/>
         <v>9.5751505604368958E-5</v>
       </c>
       <c r="L392" s="3">
-        <f t="shared" si="386"/>
+        <f t="shared" si="385"/>
         <v>7.0891005252889272</v>
       </c>
       <c r="N392" s="7">
@@ -21913,15 +21932,15 @@
         <v>9</v>
       </c>
       <c r="J393" s="3">
-        <f t="shared" ref="J393:L393" si="387">ABS(C393:C803 -O393:O803)</f>
+        <f t="shared" ref="J393:L393" si="386">ABS(C393:C803 -O393:O803)</f>
         <v>6.9942420820012785E-4</v>
       </c>
       <c r="K393" s="3">
-        <f t="shared" si="387"/>
+        <f t="shared" si="386"/>
         <v>4.3934941209755607E-4</v>
       </c>
       <c r="L393" s="3">
-        <f t="shared" si="387"/>
+        <f t="shared" si="386"/>
         <v>3.8047960004630568</v>
       </c>
       <c r="N393" s="7">
@@ -21966,15 +21985,15 @@
         <v>9</v>
       </c>
       <c r="J394" s="3">
-        <f t="shared" ref="J394:L394" si="388">ABS(C394:C804 -O394:O804)</f>
+        <f t="shared" ref="J394:L394" si="387">ABS(C394:C804 -O394:O804)</f>
         <v>3.4713221700144459E-4</v>
       </c>
       <c r="K394" s="3">
-        <f t="shared" si="388"/>
+        <f t="shared" si="387"/>
         <v>3.8050883399876057E-4</v>
       </c>
       <c r="L394" s="3">
-        <f t="shared" si="388"/>
+        <f t="shared" si="387"/>
         <v>3.6227772891879795</v>
       </c>
       <c r="N394" s="7">
@@ -22019,15 +22038,15 @@
         <v>106</v>
       </c>
       <c r="J395" s="3">
-        <f t="shared" ref="J395:L395" si="389">ABS(C395:C805 -O395:O805)</f>
+        <f t="shared" ref="J395:L395" si="388">ABS(C395:C805 -O395:O805)</f>
         <v>1.3425124939914213E-4</v>
       </c>
       <c r="K395" s="3">
-        <f t="shared" si="389"/>
+        <f t="shared" si="388"/>
         <v>4.131679632024543E-4</v>
       </c>
       <c r="L395" s="3">
-        <f t="shared" si="389"/>
+        <f t="shared" si="388"/>
         <v>2.4513056707929763</v>
       </c>
       <c r="N395" s="7">
@@ -22072,15 +22091,15 @@
         <v>41</v>
       </c>
       <c r="J396" s="3">
-        <f t="shared" ref="J396:L396" si="390">ABS(C396:C806 -O396:O806)</f>
+        <f t="shared" ref="J396:L396" si="389">ABS(C396:C806 -O396:O806)</f>
         <v>9.6669630669765638E-4</v>
       </c>
       <c r="K396" s="3">
-        <f t="shared" si="390"/>
+        <f t="shared" si="389"/>
         <v>6.7052453719895766E-4</v>
       </c>
       <c r="L396" s="3">
-        <f t="shared" si="390"/>
+        <f t="shared" si="389"/>
         <v>5.1467981902219435</v>
       </c>
       <c r="N396" s="7">
@@ -22125,15 +22144,15 @@
         <v>41</v>
       </c>
       <c r="J397" s="3">
-        <f t="shared" ref="J397:L397" si="391">ABS(C397:C807 -O397:O807)</f>
+        <f t="shared" ref="J397:L397" si="390">ABS(C397:C807 -O397:O807)</f>
         <v>4.9480624910103188E-4</v>
       </c>
       <c r="K397" s="3">
-        <f t="shared" si="391"/>
+        <f t="shared" si="390"/>
         <v>5.6436831897599404E-5</v>
       </c>
       <c r="L397" s="3">
-        <f t="shared" si="391"/>
+        <f t="shared" si="390"/>
         <v>2.2814068235379636</v>
       </c>
       <c r="N397" s="7">
@@ -22178,15 +22197,15 @@
         <v>41</v>
       </c>
       <c r="J398" s="3">
-        <f t="shared" ref="J398:L398" si="392">ABS(C398:C808 -O398:O808)</f>
+        <f t="shared" ref="J398:L398" si="391">ABS(C398:C808 -O398:O808)</f>
         <v>1.254785091802546E-3</v>
       </c>
       <c r="K398" s="3">
-        <f t="shared" si="392"/>
+        <f t="shared" si="391"/>
         <v>5.3700131270062457E-4</v>
       </c>
       <c r="L398" s="3">
-        <f t="shared" si="392"/>
+        <f t="shared" si="391"/>
         <v>4.0176383508979825</v>
       </c>
       <c r="N398" s="7">
@@ -22231,15 +22250,15 @@
         <v>85</v>
       </c>
       <c r="J399" s="3">
-        <f t="shared" ref="J399:L399" si="393">ABS(C399:C809 -O399:O809)</f>
+        <f t="shared" ref="J399:L399" si="392">ABS(C399:C809 -O399:O809)</f>
         <v>5.0226837709743677E-4</v>
       </c>
       <c r="K399" s="3">
-        <f t="shared" si="393"/>
+        <f t="shared" si="392"/>
         <v>6.341409604999626E-4</v>
       </c>
       <c r="L399" s="3">
-        <f t="shared" si="393"/>
+        <f t="shared" si="392"/>
         <v>13.771734485188063</v>
       </c>
       <c r="N399" s="7">
@@ -22284,15 +22303,15 @@
         <v>91</v>
       </c>
       <c r="J400" s="3">
-        <f t="shared" ref="J400:L400" si="394">ABS(C400:C810 -O400:O810)</f>
+        <f t="shared" ref="J400:L400" si="393">ABS(C400:C810 -O400:O810)</f>
         <v>1.2173609740528946E-4</v>
       </c>
       <c r="K400" s="3">
-        <f t="shared" si="394"/>
+        <f t="shared" si="393"/>
         <v>8.9892975199745706E-4</v>
       </c>
       <c r="L400" s="3">
-        <f t="shared" si="394"/>
+        <f t="shared" si="393"/>
         <v>15.429475604875051</v>
       </c>
       <c r="N400" s="7">
@@ -22337,15 +22356,15 @@
         <v>60</v>
       </c>
       <c r="J401" s="3">
-        <f t="shared" ref="J401:L401" si="395">ABS(C401:C811 -O401:O811)</f>
+        <f t="shared" ref="J401:L401" si="394">ABS(C401:C811 -O401:O811)</f>
         <v>8.3995002280090603E-4</v>
       </c>
       <c r="K401" s="3">
-        <f t="shared" si="395"/>
+        <f t="shared" si="394"/>
         <v>1.328405670705024E-3</v>
       </c>
       <c r="L401" s="3">
-        <f t="shared" si="395"/>
+        <f t="shared" si="394"/>
         <v>12.483607733457916</v>
       </c>
       <c r="N401" s="7">
@@ -22390,15 +22409,15 @@
         <v>41</v>
       </c>
       <c r="J402" s="3">
-        <f t="shared" ref="J402:L402" si="396">ABS(C402:C812 -O402:O812)</f>
+        <f t="shared" ref="J402:L402" si="395">ABS(C402:C812 -O402:O812)</f>
         <v>7.8289676689990984E-4</v>
       </c>
       <c r="K402" s="3">
-        <f t="shared" si="396"/>
+        <f t="shared" si="395"/>
         <v>1.3205509743983157E-3</v>
       </c>
       <c r="L402" s="3">
-        <f t="shared" si="396"/>
+        <f t="shared" si="395"/>
         <v>3.8131546661800257</v>
       </c>
       <c r="N402" s="7">
@@ -22443,15 +22462,15 @@
         <v>95</v>
       </c>
       <c r="J403" s="3">
-        <f t="shared" ref="J403:L403" si="397">ABS(C403:C813 -O403:O813)</f>
+        <f t="shared" ref="J403:L403" si="396">ABS(C403:C813 -O403:O813)</f>
         <v>7.1710000000280161E-4</v>
       </c>
       <c r="K403" s="3">
-        <f t="shared" si="397"/>
+        <f t="shared" si="396"/>
         <v>9.6028000000103475E-4</v>
       </c>
       <c r="L403" s="3">
-        <f t="shared" si="397"/>
+        <f t="shared" si="396"/>
         <v>6.3873604999999998</v>
       </c>
       <c r="N403" s="7">
@@ -22496,15 +22515,15 @@
         <v>41</v>
       </c>
       <c r="J404" s="3">
-        <f t="shared" ref="J404:L404" si="398">ABS(C404:C814 -O404:O814)</f>
+        <f t="shared" ref="J404:L404" si="397">ABS(C404:C814 -O404:O814)</f>
         <v>1.0626396073050159E-3</v>
       </c>
       <c r="K404" s="3">
-        <f t="shared" si="398"/>
+        <f t="shared" si="397"/>
         <v>2.3577762360105226E-4</v>
       </c>
       <c r="L404" s="3">
-        <f t="shared" si="398"/>
+        <f t="shared" si="397"/>
         <v>2.7108459099169977</v>
       </c>
       <c r="N404" s="7">
@@ -22549,15 +22568,15 @@
         <v>9</v>
       </c>
       <c r="J405" s="3">
-        <f t="shared" ref="J405:L405" si="399">ABS(C405:C815 -O405:O815)</f>
+        <f t="shared" ref="J405:L405" si="398">ABS(C405:C815 -O405:O815)</f>
         <v>3.6393868820283615E-4</v>
       </c>
       <c r="K405" s="3">
-        <f t="shared" si="399"/>
+        <f t="shared" si="398"/>
         <v>9.2733552209978143E-4</v>
       </c>
       <c r="L405" s="3">
-        <f t="shared" si="399"/>
+        <f t="shared" si="398"/>
         <v>0.58043777695297649</v>
       </c>
       <c r="N405" s="7">
@@ -22602,15 +22621,15 @@
         <v>108</v>
       </c>
       <c r="J406" s="3">
-        <f t="shared" ref="J406:L406" si="400">ABS(C406:C816 -O406:O816)</f>
+        <f t="shared" ref="J406:L406" si="399">ABS(C406:C816 -O406:O816)</f>
         <v>7.9878999999749567E-4</v>
       </c>
       <c r="K406" s="3">
-        <f t="shared" si="400"/>
+        <f t="shared" si="399"/>
         <v>5.4492999999666836E-4</v>
       </c>
       <c r="L406" s="3">
-        <f t="shared" si="400"/>
+        <f t="shared" si="399"/>
         <v>6.2625708000000486</v>
       </c>
       <c r="N406" s="7">
@@ -22655,15 +22674,15 @@
         <v>41</v>
       </c>
       <c r="J407" s="3">
-        <f t="shared" ref="J407:L407" si="401">ABS(C407:C817 -O407:O817)</f>
+        <f t="shared" ref="J407:L407" si="400">ABS(C407:C817 -O407:O817)</f>
         <v>8.3604748949994701E-4</v>
       </c>
       <c r="K407" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="400"/>
         <v>4.7986746040606931E-4</v>
       </c>
       <c r="L407" s="3">
-        <f t="shared" si="401"/>
+        <f t="shared" si="400"/>
         <v>2.3161193107280269</v>
       </c>
       <c r="N407" s="7">
@@ -22708,15 +22727,15 @@
         <v>41</v>
       </c>
       <c r="J408" s="3">
-        <f t="shared" ref="J408:L408" si="402">ABS(C408:C818 -O408:O818)</f>
+        <f t="shared" ref="J408:L408" si="401">ABS(C408:C818 -O408:O818)</f>
         <v>1.2860805540526599E-4</v>
       </c>
       <c r="K408" s="3">
-        <f t="shared" si="402"/>
+        <f t="shared" si="401"/>
         <v>2.0095949549414627E-4</v>
       </c>
       <c r="L408" s="3">
-        <f t="shared" si="402"/>
+        <f t="shared" si="401"/>
         <v>3.1624932822060146</v>
       </c>
       <c r="N408" s="7">
@@ -22761,15 +22780,15 @@
         <v>41</v>
       </c>
       <c r="J409" s="3">
-        <f t="shared" ref="J409:L409" si="403">ABS(C409:C819 -O409:O819)</f>
+        <f t="shared" ref="J409:L409" si="402">ABS(C409:C819 -O409:O819)</f>
         <v>2.5006983150888118E-9</v>
       </c>
       <c r="K409" s="3">
-        <f t="shared" si="403"/>
+        <f t="shared" si="402"/>
         <v>2.8050095579601475E-10</v>
       </c>
       <c r="L409" s="3">
-        <f t="shared" si="403"/>
+        <f t="shared" si="402"/>
         <v>3.3978949431912042E-8</v>
       </c>
       <c r="N409" s="7">
@@ -22814,15 +22833,15 @@
         <v>41</v>
       </c>
       <c r="J410" s="3">
-        <f t="shared" ref="J410:L410" si="404">ABS(C410:C820 -O410:O820)</f>
+        <f t="shared" ref="J410:L410" si="403">ABS(C410:C820 -O410:O820)</f>
         <v>2.0599000000487422E-4</v>
       </c>
       <c r="K410" s="3">
-        <f t="shared" si="404"/>
+        <f t="shared" si="403"/>
         <v>2.5888999999779116E-4</v>
       </c>
       <c r="L410" s="3">
-        <f t="shared" si="404"/>
+        <f t="shared" si="403"/>
         <v>7.7738609000000451</v>
       </c>
       <c r="N410" s="7">
@@ -22867,15 +22886,15 @@
         <v>41</v>
       </c>
       <c r="J411" s="3">
-        <f t="shared" ref="J411:L411" si="405">ABS(C411:C821 -O411:O821)</f>
+        <f t="shared" ref="J411:L411" si="404">ABS(C411:C821 -O411:O821)</f>
         <v>2.0088483320535033E-4</v>
       </c>
       <c r="K411" s="3">
-        <f t="shared" si="405"/>
+        <f t="shared" si="404"/>
         <v>5.8156621940241848E-4</v>
       </c>
       <c r="L411" s="3">
-        <f t="shared" si="405"/>
+        <f t="shared" si="404"/>
         <v>11.890976352195025</v>
       </c>
       <c r="N411" s="7">
@@ -22899,105 +22918,105 @@
     </row>
     <row r="412" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A412" s="5">
-        <v>43072.380011574074</v>
+        <v>43072.381076388891</v>
       </c>
       <c r="B412" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C412" s="4">
-        <v>32.1034255</v>
+        <v>32.102597161253499</v>
       </c>
       <c r="D412" s="4">
-        <v>35.209786960000002</v>
+        <v>35.209920689429303</v>
       </c>
       <c r="E412" s="4">
-        <v>702</v>
+        <v>696.44733086931296</v>
       </c>
       <c r="F412" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G412" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J412" s="3">
-        <f t="shared" ref="J412:L412" si="406">ABS(C412:C822 -O412:O822)</f>
-        <v>0</v>
+        <f>ABS(C412:C823 -O412:O823)</f>
+        <v>9.3740874650194428E-4</v>
       </c>
       <c r="K412" s="3">
-        <f t="shared" si="406"/>
-        <v>0</v>
+        <f>ABS(D412:D823 -P412:P823)</f>
+        <v>4.1873942929981922E-4</v>
       </c>
       <c r="L412" s="3">
-        <f t="shared" si="406"/>
-        <v>0</v>
+        <f>ABS(E412:E823 -Q412:Q823)</f>
+        <v>5.312416230687063</v>
       </c>
       <c r="N412" s="7">
         <v>42806.379861111112</v>
       </c>
       <c r="O412" s="6">
-        <v>32.1034255</v>
+        <v>32.103534570000001</v>
       </c>
       <c r="P412" s="6">
-        <v>35.209786960000002</v>
+        <v>35.209501950000003</v>
       </c>
       <c r="Q412" s="6">
-        <v>702</v>
+        <v>701.75974710000003</v>
       </c>
       <c r="R412" s="6">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="S412" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="413" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A413" s="5">
-        <v>43072.381076388891</v>
+        <v>43072.381284722222</v>
       </c>
       <c r="B413" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C413" s="4">
-        <v>32.102597161253499</v>
+        <v>32.103534568057199</v>
       </c>
       <c r="D413" s="4">
-        <v>35.209920689429303</v>
+        <v>35.209501952280696</v>
       </c>
       <c r="E413" s="4">
-        <v>696.44733086931296</v>
+        <v>701.75974706188094</v>
       </c>
       <c r="F413" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G413" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J413" s="3">
-        <f t="shared" ref="J413:L413" si="407">ABS(C413:C823 -O413:O823)</f>
-        <v>9.3740874650194428E-4</v>
+        <f>ABS(C413:C824 -O413:O824)</f>
+        <v>3.8187805719758217E-4</v>
       </c>
       <c r="K413" s="3">
-        <f t="shared" si="407"/>
-        <v>4.1873942929981922E-4</v>
+        <f>ABS(D413:D824 -P413:P824)</f>
+        <v>4.2742771930193157E-4</v>
       </c>
       <c r="L413" s="3">
-        <f t="shared" si="407"/>
-        <v>5.312416230687063</v>
+        <f>ABS(E413:E824 -Q413:Q824)</f>
+        <v>5.904836161880894</v>
       </c>
       <c r="N413" s="7">
-        <v>42806.379861111112</v>
+        <v>42806.380555555559</v>
       </c>
       <c r="O413" s="6">
-        <v>32.103534570000001</v>
+        <v>32.103152690000002</v>
       </c>
       <c r="P413" s="6">
-        <v>35.209501950000003</v>
+        <v>35.209929379999998</v>
       </c>
       <c r="Q413" s="6">
-        <v>701.75974710000003</v>
+        <v>695.85491090000005</v>
       </c>
       <c r="R413" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S413" s="6" t="s">
         <v>41</v>
@@ -23005,119 +23024,126 @@
     </row>
     <row r="414" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A414" s="5">
-        <v>43072.381284722222</v>
+        <v>43072.38140046296</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C414" s="4">
-        <v>32.103534568057199</v>
+        <v>32.102581205824698</v>
       </c>
       <c r="D414" s="4">
-        <v>35.209501952280696</v>
+        <v>35.209972506021998</v>
       </c>
       <c r="E414" s="4">
-        <v>701.75974706188094</v>
+        <v>698.02762055152698</v>
       </c>
       <c r="F414" s="4">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G414" s="4" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="J414" s="3">
-        <f t="shared" ref="J414:L414" si="408">ABS(C414:C824 -O414:O824)</f>
-        <v>3.8187805719758217E-4</v>
+        <f>ABS(C414:C825 -O414:O825)</f>
+        <v>4.6714417530324681E-4</v>
       </c>
       <c r="K414" s="3">
-        <f t="shared" si="408"/>
-        <v>4.2742771930193157E-4</v>
+        <f>ABS(D414:D825 -P414:P825)</f>
+        <v>1.9093602200115356E-4</v>
       </c>
       <c r="L414" s="3">
-        <f t="shared" si="408"/>
-        <v>5.904836161880894</v>
+        <f>ABS(E414:E825 -Q414:Q825)</f>
+        <v>1.3650678515269874</v>
       </c>
       <c r="N414" s="7">
         <v>42806.380555555559</v>
       </c>
       <c r="O414" s="6">
-        <v>32.103152690000002</v>
+        <v>32.103048350000002</v>
       </c>
       <c r="P414" s="6">
-        <v>35.209929379999998</v>
+        <v>35.209781569999997</v>
       </c>
       <c r="Q414" s="6">
-        <v>695.85491090000005</v>
+        <v>696.66255269999999</v>
       </c>
       <c r="R414" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S414" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="A415" s="5">
-        <v>43072.38140046296</v>
-      </c>
-      <c r="B415" s="4" t="s">
+    <row r="416" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A416" s="9">
+        <v>43072.380011574074</v>
+      </c>
+      <c r="B416" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C415" s="4">
-        <v>32.102581205824698</v>
-      </c>
-      <c r="D415" s="4">
-        <v>35.209972506021998</v>
-      </c>
-      <c r="E415" s="4">
-        <v>698.02762055152698</v>
-      </c>
-      <c r="F415" s="4">
-        <v>4</v>
-      </c>
-      <c r="G415" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J415" s="3">
-        <f t="shared" ref="J415:L415" si="409">ABS(C415:C825 -O415:O825)</f>
-        <v>4.6714417530324681E-4</v>
-      </c>
-      <c r="K415" s="3">
-        <f t="shared" si="409"/>
-        <v>1.9093602200115356E-4</v>
-      </c>
-      <c r="L415" s="3">
-        <f t="shared" si="409"/>
-        <v>1.3650678515269874</v>
-      </c>
-      <c r="N415" s="7">
-        <v>42806.380555555559</v>
-      </c>
-      <c r="O415" s="6">
-        <v>32.103048350000002</v>
-      </c>
-      <c r="P415" s="6">
-        <v>35.209781569999997</v>
-      </c>
-      <c r="Q415" s="6">
-        <v>696.66255269999999</v>
-      </c>
-      <c r="R415" s="6">
-        <v>6</v>
-      </c>
-      <c r="S415" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.5">
-      <c r="N416" s="7"/>
-      <c r="O416" s="6"/>
-      <c r="P416" s="6"/>
-      <c r="Q416" s="6"/>
-      <c r="R416" s="6"/>
-      <c r="S416" s="6"/>
-    </row>
-    <row r="417" spans="14:19" x14ac:dyDescent="0.5">
+      <c r="C416" s="10">
+        <v>32.1034255</v>
+      </c>
+      <c r="D416" s="10">
+        <v>35.209786960000002</v>
+      </c>
+      <c r="E416" s="10">
+        <v>702</v>
+      </c>
+      <c r="F416" s="10">
+        <v>1</v>
+      </c>
+      <c r="G416" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J416" s="10">
+        <f>ABS(C412:C822 -O412:O822)</f>
+        <v>0</v>
+      </c>
+      <c r="K416" s="10">
+        <f>ABS(D412:D822 -P412:P822)</f>
+        <v>0</v>
+      </c>
+      <c r="L416" s="10">
+        <f>ABS(E412:E822 -Q412:Q822)</f>
+        <v>0</v>
+      </c>
+      <c r="N416" s="9">
+        <v>42806.379861111112</v>
+      </c>
+      <c r="O416" s="10">
+        <v>32.1034255</v>
+      </c>
+      <c r="P416" s="10">
+        <v>35.209786960000002</v>
+      </c>
+      <c r="Q416" s="10">
+        <v>702</v>
+      </c>
+      <c r="R416" s="10">
+        <v>48</v>
+      </c>
+      <c r="S416" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="417" spans="9:19" x14ac:dyDescent="0.5">
+      <c r="I417" t="s">
+        <v>122</v>
+      </c>
+      <c r="J417" s="3">
+        <f>MIN(J5:J414)</f>
+        <v>3.6301628369983518E-11</v>
+      </c>
+      <c r="K417" s="3">
+        <f t="shared" ref="K417:L417" si="405">MIN(K5:K414)</f>
+        <v>1.2229861567902844E-10</v>
+      </c>
+      <c r="L417" s="3">
+        <f t="shared" si="405"/>
+        <v>1.6350441001122817E-9</v>
+      </c>
       <c r="N417" s="7"/>
       <c r="O417" s="6"/>
       <c r="P417" s="6"/>
@@ -23125,7 +23151,22 @@
       <c r="R417" s="6"/>
       <c r="S417" s="6"/>
     </row>
-    <row r="418" spans="14:19" x14ac:dyDescent="0.5">
+    <row r="418" spans="9:19" x14ac:dyDescent="0.5">
+      <c r="I418" t="s">
+        <v>123</v>
+      </c>
+      <c r="J418" s="3">
+        <f>MAX(J5:J414)</f>
+        <v>3.6345531699026878E-3</v>
+      </c>
+      <c r="K418" s="3">
+        <f t="shared" ref="K418:L418" si="406">MAX(K5:K414)</f>
+        <v>2.8772709500017868E-3</v>
+      </c>
+      <c r="L418" s="3">
+        <f t="shared" si="406"/>
+        <v>43.30435948148704</v>
+      </c>
       <c r="N418" s="7"/>
       <c r="O418" s="6"/>
       <c r="P418" s="6"/>
